--- a/data/San Felipe.xlsx
+++ b/data/San Felipe.xlsx
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Planta Procesadora de Frutas Secas - Profusec S.A.</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2738,16 +2738,16 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Procesadora de Frutas Secas S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>2000</v>
+        <v>1200</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2756,12 +2756,12 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952263&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Planta Procesadora de Frutas Secas - Profusec S.A.</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2786,16 +2786,16 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Procesadora de Frutas Secas S.A.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2804,12 +2804,12 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952263&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4759,11 +4759,11 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -4772,12 +4772,12 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,11 +4807,11 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -4820,12 +4820,12 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">

--- a/data/San Felipe.xlsx
+++ b/data/San Felipe.xlsx
@@ -1783,7 +1783,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Loa Solar SpA</t>
+          <t>Loa Solar SPA</t>
         </is>
       </c>
       <c r="F30" t="n">

--- a/data/San Felipe.xlsx
+++ b/data/San Felipe.xlsx
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Planta Procesadora de Frutas Secas - Profusec S.A.</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2738,16 +2738,16 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Procesadora de Frutas Secas S.A.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2756,12 +2756,12 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952263&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Planta Procesadora de Frutas Secas - Profusec S.A.</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2786,16 +2786,16 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Procesadora de Frutas Secas S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>2000</v>
+        <v>1200</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2804,12 +2804,12 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952263&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4759,11 +4759,11 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -4772,12 +4772,12 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,11 +4807,11 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -4820,12 +4820,12 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">

--- a/data/San Felipe.xlsx
+++ b/data/San Felipe.xlsx
@@ -6815,7 +6815,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Conservera Pentzke S.A.</t>
+          <t>Empresa de Alimentos y Conservas San Clemente SpA</t>
         </is>
       </c>
       <c r="F135" t="n">

--- a/data/San Felipe.xlsx
+++ b/data/San Felipe.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J200"/>
+  <dimension ref="A1:J201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Modificación Planta Depuradora de RILes Empresa San Lorenzo S.A.</t>
+          <t>Planta Fotovoltaica El Almendral 9 MW</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones San Lorenzo S.A.</t>
+          <t>GR Temo SpA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>150</v>
+        <v>9900</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>24/09/2021</t>
+          <t>18/04/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153195844&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155641786&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE RILES DE LA PRODUCCIÓN DE PASAS</t>
+          <t>Modificación Planta Depuradora de RILes Empresa San Lorenzo S.A.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -491,21 +491,21 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>23/04/2021</t>
+          <t>24/09/2021</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151534059&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153195844&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ampliación Parque Fotovoltaico Mauco</t>
+          <t>PLANTA DE TRATAMIENTO DE RILES DE LA PRODUCCIÓN DE PASAS</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>PMGD Mauco SpA</t>
+          <t>Sociedad de Inversiones San Lorenzo S.A.</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2400</v>
+        <v>500</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>22/04/2021</t>
+          <t>23/04/2021</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151523276&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151534059&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Riles de la Producción de Pasas</t>
+          <t>Ampliación Parque Fotovoltaico Mauco</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones San Lorenzo S.A.</t>
+          <t>PMGD Mauco SpA</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>500</v>
+        <v>2400</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>24/02/2021</t>
+          <t>22/04/2021</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150834733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151523276&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -639,7 +639,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>21/01/2021</t>
+          <t>24/02/2021</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149745663&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150834733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Repotenciamiento Proyecto PMGD Mauco Solar II</t>
+          <t>Planta de Tratamiento de Riles de la Producción de Pasas</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>PMGD Mauco SpA</t>
+          <t>Sociedad de Inversiones San Lorenzo S.A.</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2381</v>
+        <v>500</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>22/05/2020</t>
+          <t>21/01/2021</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146646204&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149745663&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Riles de la Producción de Pasas</t>
+          <t>Repotenciamiento Proyecto PMGD Mauco Solar II</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,15 +727,15 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>SOCIEDAD EXPORTADORA SANTIS FRUT LIMITADA</t>
+          <t>PMGD Mauco SpA</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>500</v>
+        <v>2381</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>23/04/2020</t>
+          <t>22/05/2020</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146363195&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146646204&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Almendra</t>
+          <t>Planta de Tratamiento de Riles de la Producción de Pasas</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,15 +775,15 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Solek Chile Services SpA</t>
+          <t>SOCIEDAD EXPORTADORA SANTIS FRUT LIMITADA</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>7500</v>
+        <v>500</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>20/04/2020</t>
+          <t>23/04/2020</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146343726&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146363195&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Peligrosas</t>
+          <t>Parque Fotovoltaico Almendra</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -818,30 +818,30 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Daniel Ocaña Medina</t>
+          <t>Solek Chile Services SpA</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>27/01/2020</t>
+          <t>20/04/2020</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145507755&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146343726&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL PLANTA DE TRATAMIENTO DE RILES DE LA PRODUCCIÓN DE PASAS</t>
+          <t>Transportes de Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -866,30 +866,30 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>SOCIEDAD EXPORTADORA SANTIS FRUT LIMITADA</t>
+          <t>Daniel Ocaña Medina</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>500</v>
+        <v>4000</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>24/01/2020</t>
+          <t>27/01/2020</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145470294&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145507755&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL PLANTA DE TRATAMIENTO DE RILES DE LA PRODUCCIÓN DE PASAS</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -914,30 +914,30 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>SOCIEDAD EXPORTADORA SANTIS FRUT LIMITADA</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>25000</v>
+        <v>500</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>07/01/2020</t>
+          <t>24/01/2020</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145470294&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>DIA Planta de Tratamiento de RILes de la Producción de pasas</t>
+          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -962,30 +962,30 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>SOCIEDAD EXPORTADORA SANTIS FRUT LIMITADA</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>500</v>
+        <v>25000</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>26/12/2019</t>
+          <t>07/01/2020</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145017793&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Peligrosas</t>
+          <t>DIA Planta de Tratamiento de RILes de la Producción de pasas</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1010,30 +1010,30 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Daniel Ocaña Medina</t>
+          <t>SOCIEDAD EXPORTADORA SANTIS FRUT LIMITADA</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>23/12/2019</t>
+          <t>26/12/2019</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145294997&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145017793&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN PLANTA DE TRATAMIENTO DE RILES SOC. EXPORTADORA SANTIS FRUT LTDA.</t>
+          <t>Transportes de Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1058,20 +1058,20 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones San Lorenzo S.A.</t>
+          <t>Daniel Ocaña Medina</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>23/05/2019</t>
+          <t>23/12/2019</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143274639&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145294997&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN PLANTA DE TRATAMIENTO DE RILES, Soc. Exportadora Santis Frut Ltda.</t>
+          <t>REGULARIZACIÓN PLANTA DE TRATAMIENTO DE RILES SOC. EXPORTADORA SANTIS FRUT LTDA.</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1119,17 +1119,17 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>24/04/2019</t>
+          <t>23/05/2019</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143027895&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143274639&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MODIFICACION PLANTA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LÍQUIDOS A SISTEMA LOMBRIFILTRO</t>
+          <t>REGULARIZACIÓN PLANTA DE TRATAMIENTO DE RILES, Soc. Exportadora Santis Frut Ltda.</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1159,25 +1159,25 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Exportadores del Agro S. A.</t>
+          <t>Sociedad de Inversiones San Lorenzo S.A.</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>90</v>
+        <v>500</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>22/03/2019</t>
+          <t>24/04/2019</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132664224&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143027895&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Riles Provenientes del Proceso de la Deshidratación de Frutos</t>
+          <t>MODIFICACION PLANTA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LÍQUIDOS A SISTEMA LOMBRIFILTRO</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,25 +1207,25 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Comercial, Exportadora y de Servicios Frutos Secos del Valle Ltda.</t>
+          <t>Exportadores del Agro S. A.</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>20/02/2019</t>
+          <t>22/03/2019</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142527573&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132664224&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Transporte de ácido sulfúrico regiones de Antofagasta Atacama Coquimbo y Valparaíso</t>
+          <t>Planta de Tratamiento de Riles Provenientes del Proceso de la Deshidratación de Frutos</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1250,30 +1250,30 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Eric Alexis Fernando Aravena Aravena, Transporte de Carga y Movimiento de Tierra, Empresa Individual de Responsabilidad Limitada</t>
+          <t>Comercial, Exportadora y de Servicios Frutos Secos del Valle Ltda.</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>4000</v>
+        <v>5</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>27/06/2018</t>
+          <t>20/02/2019</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140826557&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142527573&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana</t>
+          <t>Transporte de ácido sulfúrico regiones de Antofagasta Atacama Coquimbo y Valparaíso</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,15 +1303,15 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>Eric Alexis Fernando Aravena Aravena, Transporte de Carga y Movimiento de Tierra, Empresa Individual de Responsabilidad Limitada</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>40</v>
+        <v>4000</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>31/05/2018</t>
+          <t>27/06/2018</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138785258&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140826557&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MODIFICACION PLANTA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LÍQUIDOS A SISTEMA LOMBRIFILTRO</t>
+          <t>Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1346,30 +1346,30 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Exportadores del Agro S. A.</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>23/11/2017</t>
+          <t>31/05/2018</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132827959&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138785258&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
+          <t>MODIFICACION PLANTA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LÍQUIDOS A SISTEMA LOMBRIFILTRO</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1394,20 +1394,20 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>Exportadores del Agro S. A.</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>10/10/2017</t>
+          <t>23/11/2017</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132756023&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132827959&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE AGUAS RESIDUALES MEDIANTE SISTEMA LOMBRIFILTRO PARA AGROPRODEX S.A.</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1442,20 +1442,20 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Exportadores del Agro S. A.</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>21/06/2017</t>
+          <t>10/10/2017</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132436305&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132756023&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS Y RESIDUOS PELIGROSOS ENTRE LA XV Y XIV REGIÓN DE CHILE</t>
+          <t>PLANTA DE TRATAMIENTO DE AGUAS RESIDUALES MEDIANTE SISTEMA LOMBRIFILTRO PARA AGROPRODEX S.A.</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1490,20 +1490,20 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Transportes Bolivar Limitada</t>
+          <t>Exportadores del Agro S. A.</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>20000</v>
+        <v>87</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>20/06/2017</t>
+          <t>21/06/2017</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132472307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132436305&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana".</t>
+          <t>TRANSPORTE DE SUSTANCIAS Y RESIDUOS PELIGROSOS ENTRE LA XV Y XIV REGIÓN DE CHILE</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,15 +1543,15 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>Transportes Bolivar Limitada</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>37</v>
+        <v>20000</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>12/06/2017</t>
+          <t>20/06/2017</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132387119&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132472307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Remodelación Estadio Fiscal de San Felipe</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana".</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1586,30 +1586,30 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Instituto Nacional de Deportes de Chile</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>16614</v>
+        <v>37</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>09/03/2017</t>
+          <t>12/06/2017</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132209396&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132387119&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Empréstito Cerro El Mauco</t>
+          <t>Remodelación Estadio Fiscal de San Felipe</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,25 +1639,25 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>OHL AUSTRAL S.A</t>
+          <t>Instituto Nacional de Deportes de Chile</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>7265</v>
+        <v>16614</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>08/02/2017</t>
+          <t>09/03/2017</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132131301&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132209396&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
+          <t>Empréstito Cerro El Mauco</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1682,20 +1682,20 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>OHL AUSTRAL S.A</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>37</v>
+        <v>7265</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>30/01/2017</t>
+          <t>08/02/2017</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132131301&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Habilitación de un módulo para acopio de material terreo en el CTI - La Hormiga</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1730,30 +1730,30 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Servicios GEA Ltda.</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>922</v>
+        <v>37</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>20/10/2016</t>
+          <t>30/01/2017</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131882867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>PROYECTO FOTOVOLTAICO ENCON SOLAR</t>
+          <t>Habilitación de un módulo para acopio de material terreo en el CTI - La Hormiga</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,25 +1783,25 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Loa Solar SPA</t>
+          <t>Servicios GEA Ltda.</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>15300</v>
+        <v>922</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>23/12/2015</t>
+          <t>20/10/2016</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131012494&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131882867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Extracción Mecanizada de Áridos Río Aconcagua, Proyecto Camino Internacional Ruta 60CH Sector 1 Tramo 2 Variante Panquehue</t>
+          <t>PROYECTO FOTOVOLTAICO ENCON SOLAR</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,15 +1831,15 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>OHL AUSTRAL S.A</t>
+          <t>Loa Solar SPA</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>10000</v>
+        <v>15300</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>21/09/2015</t>
+          <t>23/12/2015</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130761962&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131012494&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Extracción Mecanizada de Áridos Río Aconcagua, Proyecto Camino Internacional Ruta 60CH Sector 1 Tramo 2 Variante Panquehue</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1874,30 +1874,30 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>OHL AUSTRAL S.A</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>26/01/2015</t>
+          <t>21/09/2015</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130761962&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1935,7 +1935,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>26/12/2014</t>
+          <t>26/01/2015</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,25 +1975,25 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>10</v>
+        <v>5000</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>24/12/2014</t>
+          <t>26/12/2014</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Planta Depuradora de Aguas SANTIS FRUT LTDA.</t>
+          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2018,30 +2018,30 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Omar Peter Santisteban Alejos</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>22/12/2014</t>
+          <t>24/12/2014</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129814159&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Planta Depuradora de Aguas SANTIS FRUT LTDA.</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2066,20 +2066,20 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Omar Peter Santisteban Alejos</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>5000</v>
+        <v>300</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>20/11/2014</t>
+          <t>22/12/2014</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129814159&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Centro de Manejo y Estabilización de Lodos Secundarios, Empresa Conservera Pentzke S.A.</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2114,30 +2114,30 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Conservera Pentzke S.A.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>160</v>
+        <v>5000</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>18/11/2014</t>
+          <t>20/11/2014</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129892252&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
+          <t>Centro de Manejo y Estabilización de Lodos Secundarios, Empresa Conservera Pentzke S.A.</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2162,30 +2162,30 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Conservera Pentzke S.A.</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>6750</v>
+        <v>160</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>13/11/2014</t>
+          <t>18/11/2014</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129892252&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,25 +2215,25 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>5000</v>
+        <v>6750</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>05/11/2014</t>
+          <t>13/11/2014</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Planta Procesadora de Frutas Secas - Profrusec S.A.</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2258,30 +2258,30 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Procesadora de Frutas Secas S.A.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>14/10/2014</t>
+          <t>05/11/2014</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129869574&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Centro de Manejo Y Estabilización de Lodos Secundarios. Empresa Conservera Pentzke S.A.</t>
+          <t>Planta Procesadora de Frutas Secas - Profrusec S.A.</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,25 +2311,25 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Conservera Pentzke S.A.</t>
+          <t>Procesadora de Frutas Secas S.A.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>160</v>
+        <v>2000</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>22/09/2014</t>
+          <t>14/10/2014</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129817865&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129869574&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Planta Procesadora de Frutas Secas - Profusec S.A.</t>
+          <t>Centro de Manejo Y Estabilización de Lodos Secundarios. Empresa Conservera Pentzke S.A.</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,15 +2359,15 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Procesadora de Frutas Secas S.A.</t>
+          <t>Conservera Pentzke S.A.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2000</v>
+        <v>160</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>09/09/2014</t>
+          <t>22/09/2014</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129766998&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129817865&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Centro de Manejo y Estabilización de Lodos Secundarios, Empresa Conservera Pentzke S.A.</t>
+          <t>Planta Procesadora de Frutas Secas - Profusec S.A.</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,15 +2407,15 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Conservera Pentzke S.A.</t>
+          <t>Procesadora de Frutas Secas S.A.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>160</v>
+        <v>2000</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>19/08/2014</t>
+          <t>09/09/2014</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129701711&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129766998&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Centro de Manejo y Estabilización de Lodos Secundarios, Empresa Conservera Pentzke S.A.</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2450,30 +2450,30 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Conservera Pentzke S.A.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>17000</v>
+        <v>160</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>08/08/2014</t>
+          <t>19/08/2014</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129696857&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129701711&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2511,17 +2511,17 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>24/07/2014</t>
+          <t>08/08/2014</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129649559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129696857&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,15 +2551,15 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>30/06/2014</t>
+          <t>24/07/2014</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129649559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Extracción mecanizada de áridos y mejoramiento del rio Aconcagua proyecto camino internacional ruta 60 CH sector 1 tramo 2 variante Panquehue</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2594,30 +2594,30 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>OHL Austral S.A</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>04/04/2014</t>
+          <t>30/06/2014</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129299233&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Defensas Fluviales Tramos 6 y 7 Comunas de Panquehue y San Felipe de la Ruta 60 CH</t>
+          <t>Extracción mecanizada de áridos y mejoramiento del rio Aconcagua proyecto camino internacional ruta 60 CH sector 1 tramo 2 variante Panquehue</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,25 +2647,25 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Sociedad Concesionaria Autopista De Los Andes S.A.</t>
+          <t>OHL Austral S.A</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>32775</v>
+        <v>13000</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>12/03/2014</t>
+          <t>04/04/2014</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129320274&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129299233&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
+          <t>Defensas Fluviales Tramos 6 y 7 Comunas de Panquehue y San Felipe de la Ruta 60 CH</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2690,30 +2690,30 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>VERATRANS SPA</t>
+          <t>Sociedad Concesionaria Autopista De Los Andes S.A.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>800</v>
+        <v>32775</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>12/03/2014</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129320274&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,11 +2743,11 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>VERATRANS SPA</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2756,12 +2756,12 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Planta Procesadora de Frutas Secas - Profusec S.A.</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2786,16 +2786,16 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Procesadora de Frutas Secas S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>2000</v>
+        <v>1200</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2804,12 +2804,12 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952263&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2847,17 +2847,17 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>12/12/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128861297&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952263&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
+          <t>Planta Procesadora de Frutas Secas - Profusec S.A.</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2882,20 +2882,20 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Procesadora de Frutas Secas S.A.</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>08/11/2013</t>
+          <t>12/12/2013</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128861297&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSALTISA CHILE LTDA</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,25 +2935,25 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>2050</v>
+        <v>5000</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>19/07/2013</t>
+          <t>08/11/2013</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8365483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSALTISA CHILE LTDA</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,15 +2983,15 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>0</v>
+        <v>2050</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>21/06/2013</t>
+          <t>19/07/2013</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8365483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,25 +3031,25 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2050</v>
+        <v>0</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>31/05/2013</t>
+          <t>21/06/2013</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,25 +3079,25 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>250</v>
+        <v>2050</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>31/05/2013</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3135,17 +3135,17 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3183,7 +3183,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,25 +3223,25 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1500</v>
+        <v>250</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>22/02/2013</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Aumento de la Capacidad de Procesamiento, Optimización de Planta Bellavista y Ampliación de Embalse de Relave</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3266,20 +3266,20 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>minera clarita chile s.a</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>31/10/2012</t>
+          <t>22/02/2013</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7439753&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>BODEGAS DE CAL SAN FELIPE</t>
+          <t>Aumento de la Capacidad de Procesamiento, Optimización de Planta Bellavista y Ampliación de Embalse de Relave</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,15 +3319,15 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Transportes Servired Ltda</t>
+          <t>minera clarita chile s.a</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>24/09/2012</t>
+          <t>31/10/2012</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7269881&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7439753&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>"Estacionamientos Subterráneos y Superficie, Plaza de Armas de San Felipe"</t>
+          <t>BODEGAS DE CAL SAN FELIPE</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,25 +3367,25 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Sociedad Concesionaria de Estacionamientos de San Felipe</t>
+          <t>Transportes Servired Ltda</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>9500</v>
+        <v>1000</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>28/08/2012</t>
+          <t>24/09/2012</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7270812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7269881&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>"Estacionamientos Subterráneos y Superficie, Plaza de Armas de San Felipe"</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3410,30 +3410,30 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Sociedad Concesionaria de Estacionamientos de San Felipe</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>15000</v>
+        <v>9500</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>31/07/2012</t>
+          <t>28/08/2012</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7270812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>"TRANSPORTE INTERREGIONAL DE ÓXIDO DE CALCIO"</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,15 +3463,15 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>706</v>
+        <v>15000</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>10/07/2012</t>
+          <t>31/07/2012</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7094187&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>SiSTEMA DE TRATAMIENTO Y DISPOSICIÓN DE RILES DE CARTER FRUITS AGROINDUSTRIAL S.A</t>
+          <t>"TRANSPORTE INTERREGIONAL DE ÓXIDO DE CALCIO"</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3506,20 +3506,20 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>CARTER FRUITS AGROINDUSTRIAL S.A</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>50</v>
+        <v>706</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>03/07/2012</t>
+          <t>10/07/2012</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7072163&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7094187&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO Y DISPOSICIÓN DE RILES DE CARTER FRUITS AGROINDUSTRIAL S.A</t>
+          <t>SiSTEMA DE TRATAMIENTO Y DISPOSICIÓN DE RILES DE CARTER FRUITS AGROINDUSTRIAL S.A</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3567,17 +3567,17 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>22/06/2012</t>
+          <t>03/07/2012</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7034845&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7072163&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Óxido de Calcio</t>
+          <t>SISTEMA DE TRATAMIENTO Y DISPOSICIÓN DE RILES DE CARTER FRUITS AGROINDUSTRIAL S.A</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3602,20 +3602,20 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>CARTER FRUITS AGROINDUSTRIAL S.A</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>706</v>
+        <v>50</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>20/06/2012</t>
+          <t>22/06/2012</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7034845&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,15 +3655,15 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>5000</v>
+        <v>706</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>20/06/2012</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO Y DISPOSICIÓN DE RILES DE CARTER FRUITS AGROINDUSTRIAL S.A</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3698,20 +3698,20 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>CARTER FRUITS AGROINDUSTRIAL S.A</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>50</v>
+        <v>5000</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>04/05/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6866711&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>SISTEMA DE TRATAMIENTO Y DISPOSICIÓN DE RILES DE CARTER FRUITS AGROINDUSTRIAL S.A</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3746,20 +3746,20 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>CARTER FRUITS AGROINDUSTRIAL S.A</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>27/03/2012</t>
+          <t>04/05/2012</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6866711&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,15 +3799,15 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>27/03/2012</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>"Manejo Integral de Residuos Orgánicos Mediante Sistema de Compostaje"</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3842,30 +3842,30 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Conservera Pentzke S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>17/02/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6616804&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Manejo Integral de Residuos Orgánicos Mediante Sistema de Compostaje</t>
+          <t>"Manejo Integral de Residuos Orgánicos Mediante Sistema de Compostaje"</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3903,17 +3903,17 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>14/02/2012</t>
+          <t>17/02/2012</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6571052&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6616804&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Manejo Integral de Residuos Orgánicos Mediante Sistema de Compostaje</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3938,20 +3938,20 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Conservera Pentzke S.A.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>14/02/2012</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6571052&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,15 +3991,15 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE RILES NEW AGRA</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4034,30 +4034,30 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>AGROINDUSTRIA NEW AGRA LIMITADA</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>22/12/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6391483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>PLANTA DE TRATAMIENTO DE RILES NEW AGRA</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4082,30 +4082,30 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>AGROINDUSTRIA NEW AGRA LIMITADA</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>21/11/2011</t>
+          <t>22/12/2011</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6391483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,15 +4135,15 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Transportes Alcayaga y Rovira Ltda.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>08/11/2011</t>
+          <t>21/11/2011</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6183206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,15 +4183,15 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Transportes Alcayaga y Rovira Ltda.</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>319</v>
+        <v>200</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>04/10/2011</t>
+          <t>08/11/2011</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6183206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>"Transporte de Cal Viva"</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,25 +4231,25 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Transportes Servired Ltda</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>9000</v>
+        <v>319</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>30/05/2011</t>
+          <t>04/10/2011</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5670904&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
+          <t>"Transporte de Cal Viva"</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4287,17 +4287,17 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>11/05/2011</t>
+          <t>30/05/2011</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5670904&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
+          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,25 +4327,25 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Transportes Servired Ltda</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>250</v>
+        <v>9000</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>27/04/2011</t>
+          <t>11/05/2011</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
+          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4383,17 +4383,17 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>15/04/2011</t>
+          <t>27/04/2011</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
+          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,25 +4423,25 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>12000</v>
+        <v>250</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>14/04/2011</t>
+          <t>15/04/2011</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5537784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4479,17 +4479,17 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>29/03/2011</t>
+          <t>14/04/2011</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5485763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5537784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas y Residuos Peligrosos entre la XV Región de Arica y Parinacota hasta la VI Región del Libertador General Bernardo O'Higgins y la XIII Región Metropolitana de Santiago</t>
+          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,25 +4519,25 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>5042</v>
+        <v>12000</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>24/03/2011</t>
+          <t>29/03/2011</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5460886&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5485763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES Y XIII REGION METROPOLITANA TRANSPORTE DE SUSTANCIAS PELGROSAS Y RESIDUOS PEL</t>
+          <t>Transporte de Sustancias Peligrosas y Residuos Peligrosos entre la XV Región de Arica y Parinacota hasta la VI Región del Libertador General Bernardo O'Higgins y la XIII Región Metropolitana de Santiago</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4575,17 +4575,17 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>07/03/2011</t>
+          <t>24/03/2011</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5413116&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5460886&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION METROPOLITANA .</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES Y XIII REGION METROPOLITANA TRANSPORTE DE SUSTANCIAS PELGROSAS Y RESIDUOS PEL</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4619,11 +4619,11 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>4800</v>
+        <v>5042</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>09/02/2011</t>
+          <t>07/03/2011</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5103366&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5413116&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION METROPOLITANA .</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,15 +4663,15 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>19000</v>
+        <v>4800</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>01/12/2010</t>
+          <t>09/02/2011</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5062785&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5103366&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4715,11 +4715,11 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>17700</v>
+        <v>19000</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>28/09/2010</t>
+          <t>01/12/2010</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4949829&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5062785&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4759,25 +4759,25 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>563</v>
+        <v>17700</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>24/09/2010</t>
+          <t>28/09/2010</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4949829&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,11 +4807,11 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -4820,12 +4820,12 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,25 +4855,25 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>1750</v>
+        <v>4800</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>23/08/2010</t>
+          <t>24/09/2010</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4865154&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4911,17 +4911,17 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>11/08/2010</t>
+          <t>23/08/2010</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4865154&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,25 +4951,25 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>300</v>
+        <v>1750</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>11/08/2010</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,25 +4999,25 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>1750</v>
+        <v>300</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>07/06/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribucion de anhídrido Sulfuroso Planta camino Putaendo</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5047,15 +5047,15 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Trefrut Ltda</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>20</v>
+        <v>1750</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>13/05/2010</t>
+          <t>07/06/2010</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -5065,7 +5065,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4565010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Almacenamiento y Distribucion de anhídrido Sulfuroso Planta camino Putaendo</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5095,25 +5095,25 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Trefrut Ltda</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>4050</v>
+        <v>20</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>03/05/2010</t>
+          <t>13/05/2010</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4565010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,15 +5143,15 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>250</v>
+        <v>4050</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>03/05/2010</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -5161,7 +5161,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,25 +5191,25 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>4050</v>
+        <v>250</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>24/03/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos, Transportes Bello</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5247,7 +5247,7 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>18/02/2010</t>
+          <t>24/03/2010</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de residuos peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5287,25 +5287,25 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>250</v>
+        <v>4050</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>18/02/2010</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Distribución y almacenamiento de Anhídrido Sulfuroso Planta Camino Putaendo</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5335,25 +5335,25 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Trefrut Ltda</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>09/02/2010</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4370207&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Distribución y almacenamiento de Anhídrido Sulfuroso Planta Camino Putaendo</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,25 +5383,25 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Trefrut Ltda</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>09/02/2010</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4370207&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5431,7 +5431,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F106" t="n">
@@ -5444,12 +5444,12 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5487,17 +5487,17 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5527,25 +5527,25 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>08/01/2010</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias toxicas entre la II y VI region (incluye V region y region Metropolitana) (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5575,25 +5575,25 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Portland S.A.</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>1</v>
+        <v>350</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>30/12/2009</t>
+          <t>08/01/2010</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4277546&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>Transporte terrestre de sustancias toxicas entre la II y VI region (incluye V region y region Metropolitana) (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,15 +5623,15 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Portland S.A.</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>30/12/2009</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -5641,7 +5641,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4277546&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,25 +5671,25 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>15/10/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5727,7 +5727,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>23/09/2009</t>
+          <t>15/10/2009</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -5737,7 +5737,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5775,17 +5775,17 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>18/08/2009</t>
+          <t>23/09/2009</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5815,15 +5815,15 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>22</v>
+        <v>250</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>18/08/2009</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -5833,7 +5833,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5863,25 +5863,25 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>300</v>
+        <v>22</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,25 +5911,25 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>1750</v>
+        <v>300</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>29/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,25 +5959,25 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>250</v>
+        <v>1750</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>29/10/2008</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -6015,7 +6015,7 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -6025,7 +6025,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,25 +6055,25 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>1750</v>
+        <v>250</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>30/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,25 +6103,25 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>20</v>
+        <v>1750</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>16/09/2008</t>
+          <t>30/09/2008</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,25 +6151,25 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>250</v>
+        <v>20</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>16/09/2008</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Transporte Cinco (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,25 +6199,25 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Transportes Cinco Limitada</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>3408</v>
+        <v>250</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>18/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3111632&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas, Transporte Cinco (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6247,25 +6247,25 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes Cinco Limitada</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>20</v>
+        <v>3408</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>18/08/2008</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3111632&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6303,17 +6303,17 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,25 +6343,25 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>500</v>
+        <v>20</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>10/06/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Proyecto Educativo, Universidad de Viña del Mar, Sede San Felipe (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6386,30 +6386,30 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>José Ignacio Martínez Bengoa</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>1903</v>
+        <v>500</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>05/06/2008</t>
+          <t>10/06/2008</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2942321&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Proyecto Educativo, Universidad de Viña del Mar, Sede San Felipe (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6434,20 +6434,20 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>José Ignacio Martínez Bengoa</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>20</v>
+        <v>1903</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>30/05/2008</t>
+          <t>05/06/2008</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -6457,7 +6457,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2942321&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,36 +6472,40 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>CENTRO DE TRATAMIENTO INTEGRAL DE RESIDUOS SOLIDOS LA HORMIGA</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr"/>
+          <t>transporte de residuos peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Servicios GEA Ltda.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>5800</v>
+        <v>20</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>15/05/2008</t>
+          <t>30/05/2008</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2904946&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6535,17 +6539,17 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>17/04/2008</t>
+          <t>15/05/2008</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2850926&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2904946&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6560,40 +6564,36 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>CENTRO DE TRATAMIENTO INTEGRAL DE RESIDUOS SOLIDOS LA HORMIGA</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr"/>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Servicios GEA Ltda.</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>1750</v>
+        <v>5800</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>26/02/2008</t>
+          <t>17/04/2008</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2680876&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2850926&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6608,7 +6608,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6623,25 +6623,25 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>429</v>
+        <v>1750</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>26/02/2008</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2680876&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6656,7 +6656,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6671,25 +6671,25 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>234</v>
+        <v>429</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6704,7 +6704,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6719,15 +6719,15 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -6737,7 +6737,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6752,7 +6752,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6767,15 +6767,15 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -6785,7 +6785,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6800,7 +6800,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Planta depuradora de aguas Conservera Pentzke S.A. (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6810,30 +6810,30 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Empresa de Alimentos y Conservas San Clemente SpA</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>3000</v>
+        <v>300</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>06/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2191252&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6863,7 +6863,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Conservera Pentzke S.A.</t>
+          <t>Empresa de Alimentos y Conservas San Clemente SpA</t>
         </is>
       </c>
       <c r="F136" t="n">
@@ -6871,17 +6871,17 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>30/05/2007</t>
+          <t>06/06/2007</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2179720&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2191252&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6896,7 +6896,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Líquidos de Planta San Felipe Dole Chile S.A. (e-seia)</t>
+          <t>Planta depuradora de aguas Conservera Pentzke S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6911,25 +6911,25 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Dole Chile S.A</t>
+          <t>Conservera Pentzke S.A.</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>10</v>
+        <v>3000</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>11/04/2007</t>
+          <t>30/05/2007</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2099658&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2179720&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6944,7 +6944,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Líquidos de Planta San Felipe Dole Chile S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6954,30 +6954,30 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Dole Chile S.A</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>11/04/2007</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2099658&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -6992,7 +6992,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7011,21 +7011,21 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7040,7 +7040,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7055,25 +7055,25 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7088,7 +7088,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7111,17 +7111,17 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7136,7 +7136,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7151,25 +7151,25 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7184,7 +7184,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las regiones I, II, III, IV, VII y Región Metropolitana (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7199,7 +7199,7 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F143" t="n">
@@ -7207,17 +7207,17 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>22/11/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1821133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7232,7 +7232,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las regiones I, II, III, IV, VII y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7247,7 +7247,7 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F144" t="n">
@@ -7255,17 +7255,17 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>10/11/2006</t>
+          <t>22/11/2006</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1821133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7280,7 +7280,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, VI, VII y RM, "Transportes Bello" (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7295,7 +7295,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F145" t="n">
@@ -7303,17 +7303,17 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>02/11/2006</t>
+          <t>10/11/2006</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7328,7 +7328,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, VI, VII y RM, "Transportes Bello" (e-seia)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7343,7 +7343,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F146" t="n">
@@ -7351,7 +7351,7 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>25/10/2006</t>
+          <t>02/11/2006</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -7361,7 +7361,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7376,7 +7376,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
+          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7391,15 +7391,15 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Trans-residuos</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>28/09/2006</t>
+          <t>25/10/2006</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -7409,7 +7409,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7424,40 +7424,40 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Defensas Fluviales Río Aconcagua para camino Internacional Ruta 60 Ch Sector 1 Los Andes - Panquehue V Región</t>
+          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Sociedad Concesionaria Autopista Los Andes S.A</t>
+          <t>Empresa de Transportes Trans-residuos</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>06/09/2006</t>
+          <t>28/09/2006</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1701224&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7472,30 +7472,30 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
+          <t>Defensas Fluviales Río Aconcagua para camino Internacional Ruta 60 Ch Sector 1 Los Andes - Panquehue V Región</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
+          <t>Sociedad Concesionaria Autopista Los Andes S.A</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>09/08/2006</t>
+          <t>06/09/2006</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -7505,7 +7505,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1701224&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7520,40 +7520,40 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Defensas Fluviales Río Aconcagua para camino Internacional Ruta 60 CH Sector 1 Los Andes - Panquehue V Región</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Sociedad Concesionaria Autopista Los Andes S.A</t>
+          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>20000</v>
+        <v>80</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>23/06/2006</t>
+          <t>09/08/2006</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1485343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7568,40 +7568,40 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
+          <t>Defensas Fluviales Río Aconcagua para camino Internacional Ruta 60 CH Sector 1 Los Andes - Panquehue V Región</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>mario enrique barra diaz</t>
+          <t>Sociedad Concesionaria Autopista Los Andes S.A</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>80</v>
+        <v>20000</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>22/06/2006</t>
+          <t>23/06/2006</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1485343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7616,7 +7616,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7631,25 +7631,25 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>mario enrique barra diaz</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>500</v>
+        <v>80</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>22/06/2006</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7664,7 +7664,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7687,17 +7687,17 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7712,7 +7712,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7727,25 +7727,25 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7760,7 +7760,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>PLAN REGIONAL DE DESARROLLO URBANO Y TERRITORIAL, REGIÓN DE VALPARAÍSO (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7770,30 +7770,30 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región de Valparaíso</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>08/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1331410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7808,7 +7808,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>PLAN REGIONAL DE DESARROLLO URBANO Y TERRITORIAL, REGIÓN DE VALPARAÍSO (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7818,30 +7818,30 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región de Valparaíso</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>08/03/2006</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1331410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7856,7 +7856,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7871,25 +7871,25 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Iris Leiva ALbornoz Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>02/03/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7904,7 +7904,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7919,25 +7919,25 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>Iris Leiva ALbornoz Ltda.</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>02/03/2006</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7952,7 +7952,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7967,7 +7967,7 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F159" t="n">
@@ -7975,17 +7975,17 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8000,7 +8000,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano y Territorial PRDUT V, Región de Valparaíso (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8010,30 +8010,30 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>SEREMI MINVU V REGIÓN</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>16/12/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1169202&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8048,7 +8048,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano y Territorial PRDUT V, Región de Valparaíso (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8058,12 +8058,12 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Transportes Reciclar Limitada</t>
+          <t>SEREMI MINVU V REGIÓN</t>
         </is>
       </c>
       <c r="F161" t="n">
@@ -8071,17 +8071,17 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>12/12/2005</t>
+          <t>16/12/2005</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1150168&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1169202&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8096,7 +8096,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
+          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8111,15 +8111,15 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Transportes Reciclar Limitada</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>3517</v>
+        <v>0</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>15/11/2005</t>
+          <t>12/12/2005</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -8129,7 +8129,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1150168&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8144,7 +8144,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8159,15 +8159,15 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>160</v>
+        <v>3517</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>15/11/2005</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
@@ -8177,7 +8177,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8192,7 +8192,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8207,25 +8207,25 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>03/11/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8240,7 +8240,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
+          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8255,7 +8255,7 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Proactiva Servicios Industriales S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F165" t="n">
@@ -8263,17 +8263,17 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>28/10/2005</t>
+          <t>03/11/2005</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8288,7 +8288,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8303,15 +8303,15 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Proactiva Servicios Industriales S.A.</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>28/10/2005</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
@@ -8321,7 +8321,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8336,7 +8336,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8351,15 +8351,15 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>855</v>
+        <v>200</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>19/04/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
@@ -8369,7 +8369,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8399,7 +8399,7 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F168" t="n">
@@ -8407,17 +8407,17 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>31/03/2005</t>
+          <t>19/04/2005</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8432,7 +8432,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Fabrica de Cerámicos Diamant S.A. (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8442,30 +8442,30 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Ceramicas Diamant S. A.</t>
+          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>12000</v>
+        <v>855</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>07/02/2005</t>
+          <t>31/03/2005</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=591640&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8480,7 +8480,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
+          <t>Fabrica de Cerámicos Diamant S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8490,20 +8490,20 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Los Ríos S.A.</t>
+          <t>Ceramicas Diamant S. A.</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>1</v>
+        <v>12000</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>08/11/2004</t>
+          <t>07/02/2005</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -8513,7 +8513,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=591640&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8528,7 +8528,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
+          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8543,15 +8543,15 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Empresa de Transportes Los Ríos S.A.</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>21/06/2004</t>
+          <t>08/11/2004</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
@@ -8561,7 +8561,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377075&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8576,7 +8576,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Curimon (e-seia)</t>
+          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8586,20 +8586,20 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>ESVAL S.A.</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>993</v>
+        <v>200</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>10/05/2004</t>
+          <t>21/06/2004</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
@@ -8609,7 +8609,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=345465&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377075&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8624,7 +8624,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas Curimon (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8634,20 +8634,20 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>ESVAL S.A.</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>200</v>
+        <v>993</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>09/09/2003</t>
+          <t>10/05/2004</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -8657,7 +8657,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=345465&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8672,7 +8672,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Instalaciones Agroindustrial Agrícola Santis Frut</t>
+          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8682,30 +8682,30 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Agrícola Santis Frut Ltda.</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>440</v>
+        <v>200</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>10/03/2003</t>
+          <t>09/09/2003</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Revocado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6222&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8720,7 +8720,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I y la VI Región</t>
+          <t>Instalaciones Agroindustrial Agrícola Santis Frut</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8730,30 +8730,30 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Transportes Molina Limitada</t>
+          <t>Agrícola Santis Frut Ltda.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>0</v>
+        <v>440</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>07/02/2003</t>
+          <t>10/03/2003</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6186&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6222&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8768,7 +8768,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de sustancias tóxicas entre la II y VI Región (incluye la V Región y Región Metropolitana)</t>
+          <t>Transporte de Sustancias Peligrosas entre la I y la VI Región</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8783,15 +8783,15 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Transportes Molina Limitada</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>31/01/2003</t>
+          <t>07/02/2003</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
@@ -8801,7 +8801,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6180&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6186&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8816,7 +8816,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Transporte de Explosivos Accesorios y Materias Primas Usadas en Tronaduras de la Minería y Obras Civiles</t>
+          <t>Transporte Terrestre de sustancias tóxicas entre la II y VI Región (incluye la V Región y Región Metropolitana)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8831,15 +8831,15 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Explonor S.A.</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>18/12/2002</t>
+          <t>31/01/2003</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -8849,7 +8849,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6128&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6180&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8864,7 +8864,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de Explosivos Accesorios y Materias Primas Usadas en Tronaduras de la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8879,15 +8879,15 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>Explonor S.A.</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>18/11/2002</t>
+          <t>18/12/2002</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
@@ -8897,7 +8897,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6128&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8912,7 +8912,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8927,11 +8927,11 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8940,12 +8940,12 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8960,7 +8960,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento Biológico de Residuos Orgánicos</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8970,30 +8970,30 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Servicios Gea Ltda.</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>17/05/2002</t>
+          <t>18/11/2002</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9008,7 +9008,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Acido Sulfúrico En y Entre Las Regiones I y VI (Transporte Valdatta S.A.)</t>
+          <t>Planta de Tratamiento Biológico de Residuos Orgánicos</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9018,20 +9018,20 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Transportes Valdatta S.A.</t>
+          <t>Servicios Gea Ltda.</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>01/03/2002</t>
+          <t>17/05/2002</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
@@ -9041,7 +9041,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5189&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9056,7 +9056,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Instalaciones Agroindustrial Planta de Tratamientos de los Residuos Industriales Líquidos de la Planta Industrial Agrícola Santis Frut Ltda.</t>
+          <t>Transporte Terrestre de Acido Sulfúrico En y Entre Las Regiones I y VI (Transporte Valdatta S.A.)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9066,30 +9066,30 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Agrícola Santis Frut Ltda.</t>
+          <t>Transportes Valdatta S.A.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>490</v>
+        <v>0</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>22/02/2002</t>
+          <t>01/03/2002</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5130&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5189&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9104,7 +9104,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico en y entre las Regiones I y VI (Transportes Ilzauspe Ltda.)</t>
+          <t>Instalaciones Agroindustrial Planta de Tratamientos de los Residuos Industriales Líquidos de la Planta Industrial Agrícola Santis Frut Ltda.</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9114,30 +9114,30 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Agrícola Santis Frut Ltda.</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>0</v>
+        <v>490</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>23/11/2001</t>
+          <t>22/02/2002</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4833&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5130&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9152,7 +9152,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico en y entre las Regiones I y VI (Transportes Ilzauspe Ltda.)</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9167,25 +9167,25 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>23/11/2001</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4833&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9200,7 +9200,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Expendio de Combustible YPF. Camino Casas Chicas de Quilpué</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9210,20 +9210,20 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Empresa de Transportes PUMA S.A.</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>28/08/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
@@ -9233,7 +9233,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9248,40 +9248,40 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Expansión División Andina</t>
+          <t>Expendio de Combustible YPF. Camino Casas Chicas de Quilpué</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Codelco División Andina</t>
+          <t>Empresa de Transportes PUMA S.A.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>650000</v>
+        <v>30</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>08/06/2001</t>
+          <t>28/08/2001</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3992&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9296,30 +9296,30 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas San Felipe</t>
+          <t>Expansión División Andina</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>ESVAL S.A.</t>
+          <t>Codelco División Andina</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>5240</v>
+        <v>650000</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>28/03/2001</t>
+          <t>08/06/2001</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
@@ -9329,7 +9329,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3814&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3992&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9344,7 +9344,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Estación de Servicio YPF - San Felipe - Putaendo</t>
+          <t>Planta de Tratamiento de Aguas Servidas San Felipe</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9359,15 +9359,15 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Inmobiliaria Don Marcos Ltda.</t>
+          <t>ESVAL S.A.</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>420</v>
+        <v>5240</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>28/07/2000</t>
+          <t>28/03/2001</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
@@ -9377,7 +9377,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3814&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9392,30 +9392,30 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Estación de Servicio YPF - San Felipe - Putaendo</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>Inmobiliaria Don Marcos Ltda.</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>3500</v>
+        <v>420</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>24/07/2000</t>
+          <t>28/07/2000</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
@@ -9425,7 +9425,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3052&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9440,12 +9440,12 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
+          <t>Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -9455,15 +9455,15 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>110</v>
+        <v>3500</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>14/02/2000</t>
+          <t>24/07/2000</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
@@ -9473,7 +9473,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3052&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9488,7 +9488,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Instalación de Estanques Subterráneos para Autoconsumo de Combustibles Terminal de Taxis Colectivos SINTAXFEL</t>
+          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9498,20 +9498,20 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Sindicato de Trabajadores Independientes de Taxistas Colectivos Línea Uno de San Felipe SINTAXFEL</t>
+          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>13/01/2000</t>
+          <t>14/02/2000</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
@@ -9521,7 +9521,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2614&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9536,7 +9536,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Construcción y Operación del Colegio Inglés Greenland College</t>
+          <t>Instalación de Estanques Subterráneos para Autoconsumo de Combustibles Terminal de Taxis Colectivos SINTAXFEL</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9551,15 +9551,15 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Inmobiliaria Greenland Limitada</t>
+          <t>Sindicato de Trabajadores Independientes de Taxistas Colectivos Línea Uno de San Felipe SINTAXFEL</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>360</v>
+        <v>10</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>12/11/1999</t>
+          <t>13/01/2000</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
@@ -9569,7 +9569,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2402&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2614&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9584,7 +9584,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Expendido al Público de Combustible YPF El Molino-San Martín</t>
+          <t>Construcción y Operación del Colegio Inglés Greenland College</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9599,15 +9599,15 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Gino Marcelo Rossi Villenas</t>
+          <t>Inmobiliaria Greenland Limitada</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>60</v>
+        <v>360</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>03/11/1999</t>
+          <t>12/11/1999</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
@@ -9617,7 +9617,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2393&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2402&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9632,7 +9632,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Central de Distribución de Gas Licuado - CURIMON</t>
+          <t>Expendido al Público de Combustible YPF El Molino-San Martín</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9647,15 +9647,15 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Gas Licuado LIPIGAS S.A.</t>
+          <t>Gino Marcelo Rossi Villenas</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>230</v>
+        <v>60</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>21/10/1999</t>
+          <t>03/11/1999</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -9665,7 +9665,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2352&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2393&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9680,7 +9680,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Planta de Producción y Venta de Estructuras de Aluminio</t>
+          <t>Central de Distribución de Gas Licuado - CURIMON</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9695,25 +9695,25 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Vidrios, Aluminios y Marqueteria Maipu Ltda.</t>
+          <t>Gas Licuado LIPIGAS S.A.</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>80</v>
+        <v>230</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>26/05/1999</t>
+          <t>21/10/1999</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1982&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2352&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9728,7 +9728,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
+          <t>Planta de Producción y Venta de Estructuras de Aluminio</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9738,30 +9738,30 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Transcargo Ltda</t>
+          <t>Vidrios, Aluminios y Marqueteria Maipu Ltda.</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>2500</v>
+        <v>80</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>13/04/1999</t>
+          <t>26/05/1999</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1982&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9776,7 +9776,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Sistema de Alcantarillado Sector Punta El Olivo y Loteo Nuevo Algarrobal San Felipe</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9786,20 +9786,20 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de San Felipe</t>
+          <t>Transcargo Ltda</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>470</v>
+        <v>2500</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>27/01/1999</t>
+          <t>13/04/1999</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -9809,7 +9809,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1637&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9824,7 +9824,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Sistema de Alcantarillado Sector Algarrobal San Felipe</t>
+          <t>Sistema de Alcantarillado Sector Punta El Olivo y Loteo Nuevo Algarrobal San Felipe</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9839,11 +9839,11 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>I. Municipalidad de San Felipe</t>
+          <t>Ilustre Municipalidad de San Felipe</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>850</v>
+        <v>470</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -9857,7 +9857,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1639&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1637&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9872,7 +9872,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Parque El Almendral de San Felipe</t>
+          <t>Sistema de Alcantarillado Sector Algarrobal San Felipe</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9887,15 +9887,15 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Inmobiliaria Comercial San Felipe Ltda.</t>
+          <t>I. Municipalidad de San Felipe</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>460</v>
+        <v>850</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>16/09/1997</t>
+          <t>27/01/1999</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
@@ -9905,7 +9905,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1639&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9920,39 +9920,87 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
+          <t>Parque El Almendral de San Felipe</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>Quinta</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>Inmobiliaria Comercial San Felipe Ltda.</t>
+        </is>
+      </c>
+      <c r="F200" t="n">
+        <v>460</v>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>16/09/1997</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=101&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>San Felipe</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>200</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
           <t>Planta de tratamiento de riles provenientes del proceso de la deshidratación de frutos</t>
         </is>
       </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr">
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
         <is>
           <t>Quinta</t>
         </is>
       </c>
-      <c r="E200" t="inlineStr">
+      <c r="E201" t="inlineStr">
         <is>
           <t>Sergio Del Tránsito González León</t>
         </is>
       </c>
-      <c r="F200" t="n">
+      <c r="F201" t="n">
         <v>0</v>
       </c>
-      <c r="G200" t="inlineStr"/>
-      <c r="H200" t="inlineStr">
+      <c r="G201" t="inlineStr"/>
+      <c r="H201" t="inlineStr">
         <is>
           <t>Eliminados</t>
         </is>
       </c>
-      <c r="I200" t="inlineStr">
+      <c r="I201" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142456377&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J200" t="inlineStr">
+      <c r="J201" t="inlineStr">
         <is>
           <t>San Felipe</t>
         </is>

--- a/data/San Felipe.xlsx
+++ b/data/San Felipe.xlsx
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Planta Procesadora de Frutas Secas - Profusec S.A.</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2786,16 +2786,16 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Procesadora de Frutas Secas S.A.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2804,12 +2804,12 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952263&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Planta Procesadora de Frutas Secas - Profusec S.A.</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2834,16 +2834,16 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Procesadora de Frutas Secas S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>2000</v>
+        <v>1200</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2852,12 +2852,12 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952263&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,11 +4807,11 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -4820,12 +4820,12 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,11 +4855,11 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -4868,12 +4868,12 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">

--- a/data/San Felipe.xlsx
+++ b/data/San Felipe.xlsx
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Planta Procesadora de Frutas Secas - Profusec S.A.</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2786,16 +2786,16 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Procesadora de Frutas Secas S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>2000</v>
+        <v>1200</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2804,12 +2804,12 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952263&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Planta Procesadora de Frutas Secas - Profusec S.A.</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2834,16 +2834,16 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Procesadora de Frutas Secas S.A.</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2852,12 +2852,12 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952263&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,11 +4807,11 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -4820,12 +4820,12 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,11 +4855,11 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -4868,12 +4868,12 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">

--- a/data/San Felipe.xlsx
+++ b/data/San Felipe.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/04/2022</t>
+          <t>21/04/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Planta Procesadora de Frutas Secas - Profusec S.A.</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2786,16 +2786,16 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Procesadora de Frutas Secas S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>2000</v>
+        <v>1200</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2804,12 +2804,12 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952263&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Planta Procesadora de Frutas Secas - Profusec S.A.</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2834,16 +2834,16 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Procesadora de Frutas Secas S.A.</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2852,12 +2852,12 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952263&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,11 +4807,11 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -4820,12 +4820,12 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,11 +4855,11 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -4868,12 +4868,12 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">

--- a/data/San Felipe.xlsx
+++ b/data/San Felipe.xlsx
@@ -500,7 +500,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">

--- a/data/San Felipe.xlsx
+++ b/data/San Felipe.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J201"/>
+  <dimension ref="A1:J202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica El Almendral 9 MW</t>
+          <t>Modificación Planta Depuradora de RILes Empresa San Lorenzo S.A.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>GR Temo SpA</t>
+          <t>Sociedad de Inversiones San Lorenzo S.A.</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>9900</v>
+        <v>150</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>21/04/2022</t>
+          <t>18/05/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155641786&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155919195&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Modificación Planta Depuradora de RILes Empresa San Lorenzo S.A.</t>
+          <t>Planta Fotovoltaica El Almendral 9 MW</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones San Lorenzo S.A.</t>
+          <t>GR Temo SpA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>150</v>
+        <v>9900</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>24/09/2021</t>
+          <t>21/04/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153195844&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155641786&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE RILES DE LA PRODUCCIÓN DE PASAS</t>
+          <t>Modificación Planta Depuradora de RILes Empresa San Lorenzo S.A.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -539,21 +539,21 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>23/04/2021</t>
+          <t>24/09/2021</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151534059&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153195844&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ampliación Parque Fotovoltaico Mauco</t>
+          <t>PLANTA DE TRATAMIENTO DE RILES DE LA PRODUCCIÓN DE PASAS</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>PMGD Mauco SpA</t>
+          <t>Sociedad de Inversiones San Lorenzo S.A.</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2400</v>
+        <v>500</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>22/04/2021</t>
+          <t>23/04/2021</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151523276&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151534059&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Riles de la Producción de Pasas</t>
+          <t>Ampliación Parque Fotovoltaico Mauco</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones San Lorenzo S.A.</t>
+          <t>PMGD Mauco SpA</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>500</v>
+        <v>2400</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>24/02/2021</t>
+          <t>22/04/2021</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150834733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151523276&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -687,7 +687,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>21/01/2021</t>
+          <t>24/02/2021</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149745663&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150834733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Repotenciamiento Proyecto PMGD Mauco Solar II</t>
+          <t>Planta de Tratamiento de Riles de la Producción de Pasas</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,25 +727,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>PMGD Mauco SpA</t>
+          <t>Sociedad de Inversiones San Lorenzo S.A.</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2381</v>
+        <v>500</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>22/05/2020</t>
+          <t>21/01/2021</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146646204&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149745663&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Riles de la Producción de Pasas</t>
+          <t>Repotenciamiento Proyecto PMGD Mauco Solar II</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,15 +775,15 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>SOCIEDAD EXPORTADORA SANTIS FRUT LIMITADA</t>
+          <t>PMGD Mauco SpA</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>500</v>
+        <v>2381</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>23/04/2020</t>
+          <t>22/05/2020</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146363195&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146646204&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Almendra</t>
+          <t>Planta de Tratamiento de Riles de la Producción de Pasas</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,15 +823,15 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Solek Chile Services SpA</t>
+          <t>SOCIEDAD EXPORTADORA SANTIS FRUT LIMITADA</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>7500</v>
+        <v>500</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>20/04/2020</t>
+          <t>23/04/2020</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146343726&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146363195&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Peligrosas</t>
+          <t>Parque Fotovoltaico Almendra</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -866,30 +866,30 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Daniel Ocaña Medina</t>
+          <t>Solek Chile Services SpA</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>27/01/2020</t>
+          <t>20/04/2020</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145507755&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146343726&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL PLANTA DE TRATAMIENTO DE RILES DE LA PRODUCCIÓN DE PASAS</t>
+          <t>Transportes de Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -914,30 +914,30 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>SOCIEDAD EXPORTADORA SANTIS FRUT LIMITADA</t>
+          <t>Daniel Ocaña Medina</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>500</v>
+        <v>4000</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>24/01/2020</t>
+          <t>27/01/2020</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145470294&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145507755&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL PLANTA DE TRATAMIENTO DE RILES DE LA PRODUCCIÓN DE PASAS</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -962,30 +962,30 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>SOCIEDAD EXPORTADORA SANTIS FRUT LIMITADA</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>25000</v>
+        <v>500</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>07/01/2020</t>
+          <t>24/01/2020</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145470294&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>DIA Planta de Tratamiento de RILes de la Producción de pasas</t>
+          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1010,30 +1010,30 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>SOCIEDAD EXPORTADORA SANTIS FRUT LIMITADA</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>500</v>
+        <v>25000</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>26/12/2019</t>
+          <t>07/01/2020</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145017793&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Peligrosas</t>
+          <t>DIA Planta de Tratamiento de RILes de la Producción de pasas</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1058,30 +1058,30 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Daniel Ocaña Medina</t>
+          <t>SOCIEDAD EXPORTADORA SANTIS FRUT LIMITADA</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>23/12/2019</t>
+          <t>26/12/2019</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145294997&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145017793&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN PLANTA DE TRATAMIENTO DE RILES SOC. EXPORTADORA SANTIS FRUT LTDA.</t>
+          <t>Transportes de Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1106,20 +1106,20 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones San Lorenzo S.A.</t>
+          <t>Daniel Ocaña Medina</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>23/05/2019</t>
+          <t>23/12/2019</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143274639&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145294997&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN PLANTA DE TRATAMIENTO DE RILES, Soc. Exportadora Santis Frut Ltda.</t>
+          <t>REGULARIZACIÓN PLANTA DE TRATAMIENTO DE RILES SOC. EXPORTADORA SANTIS FRUT LTDA.</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1167,17 +1167,17 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>24/04/2019</t>
+          <t>23/05/2019</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143027895&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143274639&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MODIFICACION PLANTA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LÍQUIDOS A SISTEMA LOMBRIFILTRO</t>
+          <t>REGULARIZACIÓN PLANTA DE TRATAMIENTO DE RILES, Soc. Exportadora Santis Frut Ltda.</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,25 +1207,25 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Exportadores del Agro S. A.</t>
+          <t>Sociedad de Inversiones San Lorenzo S.A.</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>90</v>
+        <v>500</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>22/03/2019</t>
+          <t>24/04/2019</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132664224&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143027895&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Riles Provenientes del Proceso de la Deshidratación de Frutos</t>
+          <t>MODIFICACION PLANTA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LÍQUIDOS A SISTEMA LOMBRIFILTRO</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,25 +1255,25 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Comercial, Exportadora y de Servicios Frutos Secos del Valle Ltda.</t>
+          <t>Exportadores del Agro S. A.</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>20/02/2019</t>
+          <t>22/03/2019</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142527573&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132664224&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Transporte de ácido sulfúrico regiones de Antofagasta Atacama Coquimbo y Valparaíso</t>
+          <t>Planta de Tratamiento de Riles Provenientes del Proceso de la Deshidratación de Frutos</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1298,30 +1298,30 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Eric Alexis Fernando Aravena Aravena, Transporte de Carga y Movimiento de Tierra, Empresa Individual de Responsabilidad Limitada</t>
+          <t>Comercial, Exportadora y de Servicios Frutos Secos del Valle Ltda.</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>4000</v>
+        <v>5</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>27/06/2018</t>
+          <t>20/02/2019</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140826557&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142527573&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana</t>
+          <t>Transporte de ácido sulfúrico regiones de Antofagasta Atacama Coquimbo y Valparaíso</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,15 +1351,15 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>Eric Alexis Fernando Aravena Aravena, Transporte de Carga y Movimiento de Tierra, Empresa Individual de Responsabilidad Limitada</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>40</v>
+        <v>4000</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>31/05/2018</t>
+          <t>27/06/2018</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138785258&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140826557&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MODIFICACION PLANTA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LÍQUIDOS A SISTEMA LOMBRIFILTRO</t>
+          <t>Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1394,30 +1394,30 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Exportadores del Agro S. A.</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>23/11/2017</t>
+          <t>31/05/2018</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132827959&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138785258&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
+          <t>MODIFICACION PLANTA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LÍQUIDOS A SISTEMA LOMBRIFILTRO</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1442,20 +1442,20 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>Exportadores del Agro S. A.</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>10/10/2017</t>
+          <t>23/11/2017</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132756023&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132827959&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE AGUAS RESIDUALES MEDIANTE SISTEMA LOMBRIFILTRO PARA AGROPRODEX S.A.</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1490,20 +1490,20 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Exportadores del Agro S. A.</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>21/06/2017</t>
+          <t>10/10/2017</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132436305&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132756023&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS Y RESIDUOS PELIGROSOS ENTRE LA XV Y XIV REGIÓN DE CHILE</t>
+          <t>PLANTA DE TRATAMIENTO DE AGUAS RESIDUALES MEDIANTE SISTEMA LOMBRIFILTRO PARA AGROPRODEX S.A.</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1538,20 +1538,20 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Transportes Bolivar Limitada</t>
+          <t>Exportadores del Agro S. A.</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>20000</v>
+        <v>87</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>20/06/2017</t>
+          <t>21/06/2017</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132472307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132436305&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana".</t>
+          <t>TRANSPORTE DE SUSTANCIAS Y RESIDUOS PELIGROSOS ENTRE LA XV Y XIV REGIÓN DE CHILE</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,15 +1591,15 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>Transportes Bolivar Limitada</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>37</v>
+        <v>20000</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>12/06/2017</t>
+          <t>20/06/2017</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132387119&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132472307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Remodelación Estadio Fiscal de San Felipe</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana".</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1634,30 +1634,30 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Instituto Nacional de Deportes de Chile</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>16614</v>
+        <v>37</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>09/03/2017</t>
+          <t>12/06/2017</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132209396&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132387119&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Empréstito Cerro El Mauco</t>
+          <t>Remodelación Estadio Fiscal de San Felipe</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,25 +1687,25 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>OHL AUSTRAL S.A</t>
+          <t>Instituto Nacional de Deportes de Chile</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>7265</v>
+        <v>16614</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>08/02/2017</t>
+          <t>09/03/2017</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132131301&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132209396&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
+          <t>Empréstito Cerro El Mauco</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1730,20 +1730,20 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>OHL AUSTRAL S.A</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>37</v>
+        <v>7265</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>30/01/2017</t>
+          <t>08/02/2017</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132131301&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Habilitación de un módulo para acopio de material terreo en el CTI - La Hormiga</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1778,30 +1778,30 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Servicios GEA Ltda.</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>922</v>
+        <v>37</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>20/10/2016</t>
+          <t>30/01/2017</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131882867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>PROYECTO FOTOVOLTAICO ENCON SOLAR</t>
+          <t>Habilitación de un módulo para acopio de material terreo en el CTI - La Hormiga</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,25 +1831,25 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Loa Solar SPA</t>
+          <t>Servicios GEA Ltda.</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>15300</v>
+        <v>922</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>23/12/2015</t>
+          <t>20/10/2016</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131012494&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131882867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Extracción Mecanizada de Áridos Río Aconcagua, Proyecto Camino Internacional Ruta 60CH Sector 1 Tramo 2 Variante Panquehue</t>
+          <t>PROYECTO FOTOVOLTAICO ENCON SOLAR</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,15 +1879,15 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>OHL AUSTRAL S.A</t>
+          <t>Loa Solar SPA</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>10000</v>
+        <v>15300</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>21/09/2015</t>
+          <t>23/12/2015</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130761962&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131012494&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Extracción Mecanizada de Áridos Río Aconcagua, Proyecto Camino Internacional Ruta 60CH Sector 1 Tramo 2 Variante Panquehue</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1922,30 +1922,30 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>OHL AUSTRAL S.A</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>26/01/2015</t>
+          <t>21/09/2015</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130761962&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1983,7 +1983,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>26/12/2014</t>
+          <t>26/01/2015</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,25 +2023,25 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>10</v>
+        <v>5000</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>24/12/2014</t>
+          <t>26/12/2014</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Planta Depuradora de Aguas SANTIS FRUT LTDA.</t>
+          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2066,30 +2066,30 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Omar Peter Santisteban Alejos</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>22/12/2014</t>
+          <t>24/12/2014</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129814159&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Planta Depuradora de Aguas SANTIS FRUT LTDA.</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2114,20 +2114,20 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Omar Peter Santisteban Alejos</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>5000</v>
+        <v>300</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>20/11/2014</t>
+          <t>22/12/2014</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129814159&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Centro de Manejo y Estabilización de Lodos Secundarios, Empresa Conservera Pentzke S.A.</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2162,30 +2162,30 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Conservera Pentzke S.A.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>160</v>
+        <v>5000</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>18/11/2014</t>
+          <t>20/11/2014</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129892252&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
+          <t>Centro de Manejo y Estabilización de Lodos Secundarios, Empresa Conservera Pentzke S.A.</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2210,30 +2210,30 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Conservera Pentzke S.A.</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>6750</v>
+        <v>160</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>13/11/2014</t>
+          <t>18/11/2014</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129892252&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,25 +2263,25 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>5000</v>
+        <v>6750</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>05/11/2014</t>
+          <t>13/11/2014</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Planta Procesadora de Frutas Secas - Profrusec S.A.</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2306,30 +2306,30 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Procesadora de Frutas Secas S.A.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>14/10/2014</t>
+          <t>05/11/2014</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129869574&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Centro de Manejo Y Estabilización de Lodos Secundarios. Empresa Conservera Pentzke S.A.</t>
+          <t>Planta Procesadora de Frutas Secas - Profrusec S.A.</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,25 +2359,25 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Conservera Pentzke S.A.</t>
+          <t>Procesadora de Frutas Secas S.A.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>160</v>
+        <v>2000</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>22/09/2014</t>
+          <t>14/10/2014</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129817865&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129869574&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Planta Procesadora de Frutas Secas - Profusec S.A.</t>
+          <t>Centro de Manejo Y Estabilización de Lodos Secundarios. Empresa Conservera Pentzke S.A.</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,15 +2407,15 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Procesadora de Frutas Secas S.A.</t>
+          <t>Conservera Pentzke S.A.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2000</v>
+        <v>160</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>09/09/2014</t>
+          <t>22/09/2014</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129766998&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129817865&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Centro de Manejo y Estabilización de Lodos Secundarios, Empresa Conservera Pentzke S.A.</t>
+          <t>Planta Procesadora de Frutas Secas - Profusec S.A.</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,15 +2455,15 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Conservera Pentzke S.A.</t>
+          <t>Procesadora de Frutas Secas S.A.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>160</v>
+        <v>2000</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>19/08/2014</t>
+          <t>09/09/2014</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129701711&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129766998&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Centro de Manejo y Estabilización de Lodos Secundarios, Empresa Conservera Pentzke S.A.</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2498,30 +2498,30 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Conservera Pentzke S.A.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>17000</v>
+        <v>160</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>08/08/2014</t>
+          <t>19/08/2014</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129696857&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129701711&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2559,17 +2559,17 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>24/07/2014</t>
+          <t>08/08/2014</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129649559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129696857&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,15 +2599,15 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>30/06/2014</t>
+          <t>24/07/2014</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129649559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Extracción mecanizada de áridos y mejoramiento del rio Aconcagua proyecto camino internacional ruta 60 CH sector 1 tramo 2 variante Panquehue</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2642,30 +2642,30 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>OHL Austral S.A</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>04/04/2014</t>
+          <t>30/06/2014</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129299233&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Defensas Fluviales Tramos 6 y 7 Comunas de Panquehue y San Felipe de la Ruta 60 CH</t>
+          <t>Extracción mecanizada de áridos y mejoramiento del rio Aconcagua proyecto camino internacional ruta 60 CH sector 1 tramo 2 variante Panquehue</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,25 +2695,25 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Sociedad Concesionaria Autopista De Los Andes S.A.</t>
+          <t>OHL Austral S.A</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>32775</v>
+        <v>13000</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>12/03/2014</t>
+          <t>04/04/2014</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129320274&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129299233&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
+          <t>Defensas Fluviales Tramos 6 y 7 Comunas de Panquehue y San Felipe de la Ruta 60 CH</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2738,30 +2738,30 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>VERATRANS SPA</t>
+          <t>Sociedad Concesionaria Autopista De Los Andes S.A.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>800</v>
+        <v>32775</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>12/03/2014</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129320274&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,11 +2791,11 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>VERATRANS SPA</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2804,12 +2804,12 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Planta Procesadora de Frutas Secas - Profusec S.A.</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2834,16 +2834,16 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Procesadora de Frutas Secas S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>2000</v>
+        <v>1200</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2852,12 +2852,12 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952263&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2895,17 +2895,17 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>12/12/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128861297&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952263&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
+          <t>Planta Procesadora de Frutas Secas - Profusec S.A.</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2930,20 +2930,20 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Procesadora de Frutas Secas S.A.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>08/11/2013</t>
+          <t>12/12/2013</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128861297&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSALTISA CHILE LTDA</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,25 +2983,25 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2050</v>
+        <v>5000</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>19/07/2013</t>
+          <t>08/11/2013</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8365483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSALTISA CHILE LTDA</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,15 +3031,15 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>0</v>
+        <v>2050</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>21/06/2013</t>
+          <t>19/07/2013</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8365483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,25 +3079,25 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>2050</v>
+        <v>0</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>31/05/2013</t>
+          <t>21/06/2013</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,25 +3127,25 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>250</v>
+        <v>2050</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>31/05/2013</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3183,17 +3183,17 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3231,7 +3231,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,25 +3271,25 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1500</v>
+        <v>250</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>22/02/2013</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Aumento de la Capacidad de Procesamiento, Optimización de Planta Bellavista y Ampliación de Embalse de Relave</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3314,20 +3314,20 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>minera clarita chile s.a</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>31/10/2012</t>
+          <t>22/02/2013</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7439753&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>BODEGAS DE CAL SAN FELIPE</t>
+          <t>Aumento de la Capacidad de Procesamiento, Optimización de Planta Bellavista y Ampliación de Embalse de Relave</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,15 +3367,15 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Transportes Servired Ltda</t>
+          <t>minera clarita chile s.a</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>24/09/2012</t>
+          <t>31/10/2012</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7269881&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7439753&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>"Estacionamientos Subterráneos y Superficie, Plaza de Armas de San Felipe"</t>
+          <t>BODEGAS DE CAL SAN FELIPE</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,25 +3415,25 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Sociedad Concesionaria de Estacionamientos de San Felipe</t>
+          <t>Transportes Servired Ltda</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>9500</v>
+        <v>1000</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>28/08/2012</t>
+          <t>24/09/2012</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7270812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7269881&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>"Estacionamientos Subterráneos y Superficie, Plaza de Armas de San Felipe"</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3458,30 +3458,30 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Sociedad Concesionaria de Estacionamientos de San Felipe</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>15000</v>
+        <v>9500</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>31/07/2012</t>
+          <t>28/08/2012</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7270812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>"TRANSPORTE INTERREGIONAL DE ÓXIDO DE CALCIO"</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,15 +3511,15 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>706</v>
+        <v>15000</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>10/07/2012</t>
+          <t>31/07/2012</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7094187&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>SiSTEMA DE TRATAMIENTO Y DISPOSICIÓN DE RILES DE CARTER FRUITS AGROINDUSTRIAL S.A</t>
+          <t>"TRANSPORTE INTERREGIONAL DE ÓXIDO DE CALCIO"</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3554,20 +3554,20 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>CARTER FRUITS AGROINDUSTRIAL S.A</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>50</v>
+        <v>706</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>03/07/2012</t>
+          <t>10/07/2012</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7072163&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7094187&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO Y DISPOSICIÓN DE RILES DE CARTER FRUITS AGROINDUSTRIAL S.A</t>
+          <t>SiSTEMA DE TRATAMIENTO Y DISPOSICIÓN DE RILES DE CARTER FRUITS AGROINDUSTRIAL S.A</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3615,17 +3615,17 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>22/06/2012</t>
+          <t>03/07/2012</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7034845&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7072163&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Óxido de Calcio</t>
+          <t>SISTEMA DE TRATAMIENTO Y DISPOSICIÓN DE RILES DE CARTER FRUITS AGROINDUSTRIAL S.A</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3650,20 +3650,20 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>CARTER FRUITS AGROINDUSTRIAL S.A</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>706</v>
+        <v>50</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>20/06/2012</t>
+          <t>22/06/2012</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7034845&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,15 +3703,15 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>5000</v>
+        <v>706</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>20/06/2012</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO Y DISPOSICIÓN DE RILES DE CARTER FRUITS AGROINDUSTRIAL S.A</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3746,20 +3746,20 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>CARTER FRUITS AGROINDUSTRIAL S.A</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>50</v>
+        <v>5000</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>04/05/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6866711&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>SISTEMA DE TRATAMIENTO Y DISPOSICIÓN DE RILES DE CARTER FRUITS AGROINDUSTRIAL S.A</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3794,20 +3794,20 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>CARTER FRUITS AGROINDUSTRIAL S.A</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>27/03/2012</t>
+          <t>04/05/2012</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6866711&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,15 +3847,15 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>27/03/2012</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>"Manejo Integral de Residuos Orgánicos Mediante Sistema de Compostaje"</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3890,30 +3890,30 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Conservera Pentzke S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>17/02/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6616804&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Manejo Integral de Residuos Orgánicos Mediante Sistema de Compostaje</t>
+          <t>"Manejo Integral de Residuos Orgánicos Mediante Sistema de Compostaje"</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3951,17 +3951,17 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>14/02/2012</t>
+          <t>17/02/2012</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6571052&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6616804&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Manejo Integral de Residuos Orgánicos Mediante Sistema de Compostaje</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3986,20 +3986,20 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Conservera Pentzke S.A.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>14/02/2012</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6571052&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,15 +4039,15 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -4057,7 +4057,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE RILES NEW AGRA</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4082,30 +4082,30 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>AGROINDUSTRIA NEW AGRA LIMITADA</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>22/12/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6391483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>PLANTA DE TRATAMIENTO DE RILES NEW AGRA</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4130,30 +4130,30 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>AGROINDUSTRIA NEW AGRA LIMITADA</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>21/11/2011</t>
+          <t>22/12/2011</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6391483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,15 +4183,15 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Transportes Alcayaga y Rovira Ltda.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>08/11/2011</t>
+          <t>21/11/2011</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6183206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,15 +4231,15 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Transportes Alcayaga y Rovira Ltda.</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>319</v>
+        <v>200</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>04/10/2011</t>
+          <t>08/11/2011</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6183206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>"Transporte de Cal Viva"</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,25 +4279,25 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Transportes Servired Ltda</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>9000</v>
+        <v>319</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>30/05/2011</t>
+          <t>04/10/2011</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5670904&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
+          <t>"Transporte de Cal Viva"</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4335,17 +4335,17 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>11/05/2011</t>
+          <t>30/05/2011</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5670904&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
+          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,25 +4375,25 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Transportes Servired Ltda</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>250</v>
+        <v>9000</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>27/04/2011</t>
+          <t>11/05/2011</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
+          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4431,17 +4431,17 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>15/04/2011</t>
+          <t>27/04/2011</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
+          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,25 +4471,25 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>12000</v>
+        <v>250</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>14/04/2011</t>
+          <t>15/04/2011</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5537784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4527,17 +4527,17 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>29/03/2011</t>
+          <t>14/04/2011</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5485763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5537784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas y Residuos Peligrosos entre la XV Región de Arica y Parinacota hasta la VI Región del Libertador General Bernardo O'Higgins y la XIII Región Metropolitana de Santiago</t>
+          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4567,25 +4567,25 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>5042</v>
+        <v>12000</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>24/03/2011</t>
+          <t>29/03/2011</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5460886&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5485763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES Y XIII REGION METROPOLITANA TRANSPORTE DE SUSTANCIAS PELGROSAS Y RESIDUOS PEL</t>
+          <t>Transporte de Sustancias Peligrosas y Residuos Peligrosos entre la XV Región de Arica y Parinacota hasta la VI Región del Libertador General Bernardo O'Higgins y la XIII Región Metropolitana de Santiago</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4623,17 +4623,17 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>07/03/2011</t>
+          <t>24/03/2011</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5413116&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5460886&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION METROPOLITANA .</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES Y XIII REGION METROPOLITANA TRANSPORTE DE SUSTANCIAS PELGROSAS Y RESIDUOS PEL</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4667,11 +4667,11 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>4800</v>
+        <v>5042</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>09/02/2011</t>
+          <t>07/03/2011</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5103366&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5413116&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION METROPOLITANA .</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,15 +4711,15 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>19000</v>
+        <v>4800</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>01/12/2010</t>
+          <t>09/02/2011</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5062785&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5103366&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4763,11 +4763,11 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>17700</v>
+        <v>19000</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>28/09/2010</t>
+          <t>01/12/2010</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4949829&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5062785&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,25 +4807,25 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>563</v>
+        <v>17700</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>24/09/2010</t>
+          <t>28/09/2010</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4949829&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,11 +4855,11 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -4868,12 +4868,12 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,25 +4903,25 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>1750</v>
+        <v>4800</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>23/08/2010</t>
+          <t>24/09/2010</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4865154&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4959,17 +4959,17 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>11/08/2010</t>
+          <t>23/08/2010</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4865154&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,25 +4999,25 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>300</v>
+        <v>1750</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>11/08/2010</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5047,25 +5047,25 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>1750</v>
+        <v>300</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>07/06/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribucion de anhídrido Sulfuroso Planta camino Putaendo</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5095,15 +5095,15 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Trefrut Ltda</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>20</v>
+        <v>1750</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>13/05/2010</t>
+          <t>07/06/2010</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -5113,7 +5113,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4565010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Almacenamiento y Distribucion de anhídrido Sulfuroso Planta camino Putaendo</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,25 +5143,25 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Trefrut Ltda</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>4050</v>
+        <v>20</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>03/05/2010</t>
+          <t>13/05/2010</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4565010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,15 +5191,15 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>250</v>
+        <v>4050</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>03/05/2010</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -5209,7 +5209,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5239,25 +5239,25 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>4050</v>
+        <v>250</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>24/03/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos, Transportes Bello</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5295,7 +5295,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>18/02/2010</t>
+          <t>24/03/2010</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -5305,7 +5305,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de residuos peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5335,25 +5335,25 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>250</v>
+        <v>4050</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>18/02/2010</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Distribución y almacenamiento de Anhídrido Sulfuroso Planta Camino Putaendo</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,25 +5383,25 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Trefrut Ltda</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>09/02/2010</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4370207&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Distribución y almacenamiento de Anhídrido Sulfuroso Planta Camino Putaendo</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5431,25 +5431,25 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Trefrut Ltda</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>09/02/2010</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4370207&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,7 +5479,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F107" t="n">
@@ -5492,12 +5492,12 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5535,17 +5535,17 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5575,25 +5575,25 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>08/01/2010</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias toxicas entre la II y VI region (incluye V region y region Metropolitana) (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,25 +5623,25 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Portland S.A.</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>1</v>
+        <v>350</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>30/12/2009</t>
+          <t>08/01/2010</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4277546&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>Transporte terrestre de sustancias toxicas entre la II y VI region (incluye V region y region Metropolitana) (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,15 +5671,15 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Portland S.A.</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>30/12/2009</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -5689,7 +5689,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4277546&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,25 +5719,25 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>15/10/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5775,7 +5775,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>23/09/2009</t>
+          <t>15/10/2009</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -5785,7 +5785,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5823,17 +5823,17 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>18/08/2009</t>
+          <t>23/09/2009</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5863,15 +5863,15 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>22</v>
+        <v>250</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>18/08/2009</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -5881,7 +5881,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,25 +5911,25 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>300</v>
+        <v>22</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,25 +5959,25 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>1750</v>
+        <v>300</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>29/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,25 +6007,25 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>250</v>
+        <v>1750</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>29/10/2008</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6063,7 +6063,7 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -6073,7 +6073,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,25 +6103,25 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>1750</v>
+        <v>250</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>30/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,25 +6151,25 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>20</v>
+        <v>1750</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>16/09/2008</t>
+          <t>30/09/2008</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,25 +6199,25 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>250</v>
+        <v>20</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>16/09/2008</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Transporte Cinco (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6247,25 +6247,25 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Transportes Cinco Limitada</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>3408</v>
+        <v>250</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>18/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3111632&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas, Transporte Cinco (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6295,25 +6295,25 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes Cinco Limitada</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>20</v>
+        <v>3408</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>18/08/2008</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3111632&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6351,17 +6351,17 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6391,25 +6391,25 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>500</v>
+        <v>20</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>10/06/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Proyecto Educativo, Universidad de Viña del Mar, Sede San Felipe (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6434,30 +6434,30 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>José Ignacio Martínez Bengoa</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>1903</v>
+        <v>500</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>05/06/2008</t>
+          <t>10/06/2008</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2942321&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Proyecto Educativo, Universidad de Viña del Mar, Sede San Felipe (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6482,20 +6482,20 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>José Ignacio Martínez Bengoa</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>20</v>
+        <v>1903</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>30/05/2008</t>
+          <t>05/06/2008</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -6505,7 +6505,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2942321&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,36 +6520,40 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>CENTRO DE TRATAMIENTO INTEGRAL DE RESIDUOS SOLIDOS LA HORMIGA</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr"/>
+          <t>transporte de residuos peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Servicios GEA Ltda.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>5800</v>
+        <v>20</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>15/05/2008</t>
+          <t>30/05/2008</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2904946&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6583,17 +6587,17 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>17/04/2008</t>
+          <t>15/05/2008</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2850926&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2904946&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6608,40 +6612,36 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>CENTRO DE TRATAMIENTO INTEGRAL DE RESIDUOS SOLIDOS LA HORMIGA</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr"/>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Servicios GEA Ltda.</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>1750</v>
+        <v>5800</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>26/02/2008</t>
+          <t>17/04/2008</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2680876&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2850926&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6656,7 +6656,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6671,25 +6671,25 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>429</v>
+        <v>1750</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>26/02/2008</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2680876&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6704,7 +6704,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6719,25 +6719,25 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>234</v>
+        <v>429</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6752,7 +6752,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6767,15 +6767,15 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -6785,7 +6785,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6800,7 +6800,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6815,15 +6815,15 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -6833,7 +6833,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6848,7 +6848,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Planta depuradora de aguas Conservera Pentzke S.A. (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6858,30 +6858,30 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Empresa de Alimentos y Conservas San Clemente SpA</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>3000</v>
+        <v>300</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>06/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2191252&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6911,7 +6911,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Conservera Pentzke S.A.</t>
+          <t>Empresa de Alimentos y Conservas San Clemente SpA</t>
         </is>
       </c>
       <c r="F137" t="n">
@@ -6919,17 +6919,17 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>30/05/2007</t>
+          <t>06/06/2007</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2179720&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2191252&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6944,7 +6944,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Líquidos de Planta San Felipe Dole Chile S.A. (e-seia)</t>
+          <t>Planta depuradora de aguas Conservera Pentzke S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6959,25 +6959,25 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Dole Chile S.A</t>
+          <t>Conservera Pentzke S.A.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>10</v>
+        <v>3000</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>11/04/2007</t>
+          <t>30/05/2007</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2099658&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2179720&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -6992,7 +6992,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Líquidos de Planta San Felipe Dole Chile S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7002,30 +7002,30 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Dole Chile S.A</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>11/04/2007</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2099658&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7040,7 +7040,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7059,21 +7059,21 @@
         </is>
       </c>
       <c r="F140" t="n">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7088,7 +7088,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7103,25 +7103,25 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7136,7 +7136,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7159,17 +7159,17 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7184,7 +7184,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7199,25 +7199,25 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7232,7 +7232,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las regiones I, II, III, IV, VII y Región Metropolitana (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7247,7 +7247,7 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F144" t="n">
@@ -7255,17 +7255,17 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>22/11/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1821133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7280,7 +7280,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las regiones I, II, III, IV, VII y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7295,7 +7295,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F145" t="n">
@@ -7303,17 +7303,17 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>10/11/2006</t>
+          <t>22/11/2006</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1821133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7328,7 +7328,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, VI, VII y RM, "Transportes Bello" (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7343,7 +7343,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F146" t="n">
@@ -7351,17 +7351,17 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>02/11/2006</t>
+          <t>10/11/2006</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7376,7 +7376,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, VI, VII y RM, "Transportes Bello" (e-seia)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7391,7 +7391,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F147" t="n">
@@ -7399,7 +7399,7 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>25/10/2006</t>
+          <t>02/11/2006</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -7409,7 +7409,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7424,7 +7424,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
+          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7439,15 +7439,15 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Trans-residuos</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>28/09/2006</t>
+          <t>25/10/2006</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -7457,7 +7457,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7472,40 +7472,40 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Defensas Fluviales Río Aconcagua para camino Internacional Ruta 60 Ch Sector 1 Los Andes - Panquehue V Región</t>
+          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Sociedad Concesionaria Autopista Los Andes S.A</t>
+          <t>Empresa de Transportes Trans-residuos</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>06/09/2006</t>
+          <t>28/09/2006</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1701224&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7520,30 +7520,30 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
+          <t>Defensas Fluviales Río Aconcagua para camino Internacional Ruta 60 Ch Sector 1 Los Andes - Panquehue V Región</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
+          <t>Sociedad Concesionaria Autopista Los Andes S.A</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>09/08/2006</t>
+          <t>06/09/2006</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -7553,7 +7553,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1701224&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7568,40 +7568,40 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Defensas Fluviales Río Aconcagua para camino Internacional Ruta 60 CH Sector 1 Los Andes - Panquehue V Región</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Sociedad Concesionaria Autopista Los Andes S.A</t>
+          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>20000</v>
+        <v>80</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>23/06/2006</t>
+          <t>09/08/2006</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1485343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7616,40 +7616,40 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
+          <t>Defensas Fluviales Río Aconcagua para camino Internacional Ruta 60 CH Sector 1 Los Andes - Panquehue V Región</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>mario enrique barra diaz</t>
+          <t>Sociedad Concesionaria Autopista Los Andes S.A</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>80</v>
+        <v>20000</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>22/06/2006</t>
+          <t>23/06/2006</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1485343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7664,7 +7664,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7679,25 +7679,25 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>mario enrique barra diaz</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>500</v>
+        <v>80</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>22/06/2006</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7712,7 +7712,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7735,17 +7735,17 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7760,7 +7760,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7775,25 +7775,25 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7808,7 +7808,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>PLAN REGIONAL DE DESARROLLO URBANO Y TERRITORIAL, REGIÓN DE VALPARAÍSO (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7818,30 +7818,30 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región de Valparaíso</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>08/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1331410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7856,7 +7856,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>PLAN REGIONAL DE DESARROLLO URBANO Y TERRITORIAL, REGIÓN DE VALPARAÍSO (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7866,30 +7866,30 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región de Valparaíso</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>08/03/2006</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1331410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7904,7 +7904,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7919,25 +7919,25 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Iris Leiva ALbornoz Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>02/03/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7952,7 +7952,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7967,25 +7967,25 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>Iris Leiva ALbornoz Ltda.</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>02/03/2006</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8000,7 +8000,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8015,7 +8015,7 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F160" t="n">
@@ -8023,17 +8023,17 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8048,7 +8048,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano y Territorial PRDUT V, Región de Valparaíso (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8058,30 +8058,30 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>SEREMI MINVU V REGIÓN</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>16/12/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1169202&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8096,7 +8096,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano y Territorial PRDUT V, Región de Valparaíso (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8106,12 +8106,12 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Transportes Reciclar Limitada</t>
+          <t>SEREMI MINVU V REGIÓN</t>
         </is>
       </c>
       <c r="F162" t="n">
@@ -8119,17 +8119,17 @@
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>12/12/2005</t>
+          <t>16/12/2005</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1150168&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1169202&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8144,7 +8144,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
+          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8159,15 +8159,15 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Transportes Reciclar Limitada</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>3517</v>
+        <v>0</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>15/11/2005</t>
+          <t>12/12/2005</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
@@ -8177,7 +8177,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1150168&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8192,7 +8192,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8207,15 +8207,15 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>160</v>
+        <v>3517</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>15/11/2005</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
@@ -8225,7 +8225,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8240,7 +8240,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8255,25 +8255,25 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>03/11/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8288,7 +8288,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
+          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8303,7 +8303,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Proactiva Servicios Industriales S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F166" t="n">
@@ -8311,17 +8311,17 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>28/10/2005</t>
+          <t>03/11/2005</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8336,7 +8336,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8351,15 +8351,15 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Proactiva Servicios Industriales S.A.</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>28/10/2005</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
@@ -8369,7 +8369,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8384,7 +8384,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8399,15 +8399,15 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>855</v>
+        <v>200</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>19/04/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
@@ -8417,7 +8417,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8447,7 +8447,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F169" t="n">
@@ -8455,17 +8455,17 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>31/03/2005</t>
+          <t>19/04/2005</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8480,7 +8480,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Fabrica de Cerámicos Diamant S.A. (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8490,30 +8490,30 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Ceramicas Diamant S. A.</t>
+          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>12000</v>
+        <v>855</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>07/02/2005</t>
+          <t>31/03/2005</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=591640&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8528,7 +8528,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
+          <t>Fabrica de Cerámicos Diamant S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8538,20 +8538,20 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Los Ríos S.A.</t>
+          <t>Ceramicas Diamant S. A.</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>1</v>
+        <v>12000</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>08/11/2004</t>
+          <t>07/02/2005</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
@@ -8561,7 +8561,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=591640&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8576,7 +8576,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
+          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8591,15 +8591,15 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Empresa de Transportes Los Ríos S.A.</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>21/06/2004</t>
+          <t>08/11/2004</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
@@ -8609,7 +8609,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377075&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8624,7 +8624,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Curimon (e-seia)</t>
+          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8634,20 +8634,20 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>ESVAL S.A.</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>993</v>
+        <v>200</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>10/05/2004</t>
+          <t>21/06/2004</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -8657,7 +8657,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=345465&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377075&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8672,7 +8672,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas Curimon (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8682,20 +8682,20 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>ESVAL S.A.</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>200</v>
+        <v>993</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>09/09/2003</t>
+          <t>10/05/2004</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -8705,7 +8705,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=345465&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8720,7 +8720,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Instalaciones Agroindustrial Agrícola Santis Frut</t>
+          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8730,30 +8730,30 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Agrícola Santis Frut Ltda.</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>440</v>
+        <v>200</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>10/03/2003</t>
+          <t>09/09/2003</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Revocado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6222&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8768,7 +8768,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I y la VI Región</t>
+          <t>Instalaciones Agroindustrial Agrícola Santis Frut</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8778,30 +8778,30 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Transportes Molina Limitada</t>
+          <t>Agrícola Santis Frut Ltda.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>0</v>
+        <v>440</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>07/02/2003</t>
+          <t>10/03/2003</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6186&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6222&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8816,7 +8816,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de sustancias tóxicas entre la II y VI Región (incluye la V Región y Región Metropolitana)</t>
+          <t>Transporte de Sustancias Peligrosas entre la I y la VI Región</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8831,15 +8831,15 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Transportes Molina Limitada</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>31/01/2003</t>
+          <t>07/02/2003</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -8849,7 +8849,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6180&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6186&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8864,7 +8864,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Transporte de Explosivos Accesorios y Materias Primas Usadas en Tronaduras de la Minería y Obras Civiles</t>
+          <t>Transporte Terrestre de sustancias tóxicas entre la II y VI Región (incluye la V Región y Región Metropolitana)</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8879,15 +8879,15 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Explonor S.A.</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>18/12/2002</t>
+          <t>31/01/2003</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
@@ -8897,7 +8897,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6128&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6180&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8912,7 +8912,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de Explosivos Accesorios y Materias Primas Usadas en Tronaduras de la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8927,15 +8927,15 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>Explonor S.A.</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>18/11/2002</t>
+          <t>18/12/2002</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
@@ -8945,7 +8945,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6128&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8960,7 +8960,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8975,11 +8975,11 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -8988,12 +8988,12 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9008,7 +9008,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento Biológico de Residuos Orgánicos</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9018,30 +9018,30 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Servicios Gea Ltda.</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>17/05/2002</t>
+          <t>18/11/2002</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9056,7 +9056,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Acido Sulfúrico En y Entre Las Regiones I y VI (Transporte Valdatta S.A.)</t>
+          <t>Planta de Tratamiento Biológico de Residuos Orgánicos</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9066,20 +9066,20 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Transportes Valdatta S.A.</t>
+          <t>Servicios Gea Ltda.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>01/03/2002</t>
+          <t>17/05/2002</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
@@ -9089,7 +9089,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5189&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9104,7 +9104,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Instalaciones Agroindustrial Planta de Tratamientos de los Residuos Industriales Líquidos de la Planta Industrial Agrícola Santis Frut Ltda.</t>
+          <t>Transporte Terrestre de Acido Sulfúrico En y Entre Las Regiones I y VI (Transporte Valdatta S.A.)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9114,30 +9114,30 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Agrícola Santis Frut Ltda.</t>
+          <t>Transportes Valdatta S.A.</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>490</v>
+        <v>0</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>22/02/2002</t>
+          <t>01/03/2002</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5130&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5189&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9152,7 +9152,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico en y entre las Regiones I y VI (Transportes Ilzauspe Ltda.)</t>
+          <t>Instalaciones Agroindustrial Planta de Tratamientos de los Residuos Industriales Líquidos de la Planta Industrial Agrícola Santis Frut Ltda.</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9162,30 +9162,30 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Agrícola Santis Frut Ltda.</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>0</v>
+        <v>490</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>23/11/2001</t>
+          <t>22/02/2002</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4833&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5130&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9200,7 +9200,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico en y entre las Regiones I y VI (Transportes Ilzauspe Ltda.)</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9215,25 +9215,25 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>23/11/2001</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4833&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9248,7 +9248,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Expendio de Combustible YPF. Camino Casas Chicas de Quilpué</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9258,20 +9258,20 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Empresa de Transportes PUMA S.A.</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>28/08/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
@@ -9281,7 +9281,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9296,40 +9296,40 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Expansión División Andina</t>
+          <t>Expendio de Combustible YPF. Camino Casas Chicas de Quilpué</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Codelco División Andina</t>
+          <t>Empresa de Transportes PUMA S.A.</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>650000</v>
+        <v>30</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>08/06/2001</t>
+          <t>28/08/2001</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3992&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9344,30 +9344,30 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas San Felipe</t>
+          <t>Expansión División Andina</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>ESVAL S.A.</t>
+          <t>Codelco División Andina</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>5240</v>
+        <v>650000</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>28/03/2001</t>
+          <t>08/06/2001</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
@@ -9377,7 +9377,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3814&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3992&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9392,7 +9392,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Estación de Servicio YPF - San Felipe - Putaendo</t>
+          <t>Planta de Tratamiento de Aguas Servidas San Felipe</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9407,15 +9407,15 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Inmobiliaria Don Marcos Ltda.</t>
+          <t>ESVAL S.A.</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>420</v>
+        <v>5240</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>28/07/2000</t>
+          <t>28/03/2001</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
@@ -9425,7 +9425,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3814&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9440,30 +9440,30 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Estación de Servicio YPF - San Felipe - Putaendo</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>Inmobiliaria Don Marcos Ltda.</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>3500</v>
+        <v>420</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>24/07/2000</t>
+          <t>28/07/2000</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
@@ -9473,7 +9473,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3052&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9488,12 +9488,12 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
+          <t>Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -9503,15 +9503,15 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>110</v>
+        <v>3500</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>14/02/2000</t>
+          <t>24/07/2000</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
@@ -9521,7 +9521,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3052&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9536,7 +9536,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Instalación de Estanques Subterráneos para Autoconsumo de Combustibles Terminal de Taxis Colectivos SINTAXFEL</t>
+          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9546,20 +9546,20 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Sindicato de Trabajadores Independientes de Taxistas Colectivos Línea Uno de San Felipe SINTAXFEL</t>
+          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>13/01/2000</t>
+          <t>14/02/2000</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
@@ -9569,7 +9569,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2614&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9584,7 +9584,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Construcción y Operación del Colegio Inglés Greenland College</t>
+          <t>Instalación de Estanques Subterráneos para Autoconsumo de Combustibles Terminal de Taxis Colectivos SINTAXFEL</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9599,15 +9599,15 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Inmobiliaria Greenland Limitada</t>
+          <t>Sindicato de Trabajadores Independientes de Taxistas Colectivos Línea Uno de San Felipe SINTAXFEL</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>360</v>
+        <v>10</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>12/11/1999</t>
+          <t>13/01/2000</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
@@ -9617,7 +9617,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2402&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2614&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9632,7 +9632,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Expendido al Público de Combustible YPF El Molino-San Martín</t>
+          <t>Construcción y Operación del Colegio Inglés Greenland College</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9647,15 +9647,15 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Gino Marcelo Rossi Villenas</t>
+          <t>Inmobiliaria Greenland Limitada</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>60</v>
+        <v>360</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>03/11/1999</t>
+          <t>12/11/1999</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -9665,7 +9665,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2393&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2402&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9680,7 +9680,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Central de Distribución de Gas Licuado - CURIMON</t>
+          <t>Expendido al Público de Combustible YPF El Molino-San Martín</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9695,15 +9695,15 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Gas Licuado LIPIGAS S.A.</t>
+          <t>Gino Marcelo Rossi Villenas</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>230</v>
+        <v>60</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>21/10/1999</t>
+          <t>03/11/1999</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -9713,7 +9713,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2352&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2393&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9728,7 +9728,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Planta de Producción y Venta de Estructuras de Aluminio</t>
+          <t>Central de Distribución de Gas Licuado - CURIMON</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9743,25 +9743,25 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Vidrios, Aluminios y Marqueteria Maipu Ltda.</t>
+          <t>Gas Licuado LIPIGAS S.A.</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>80</v>
+        <v>230</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>26/05/1999</t>
+          <t>21/10/1999</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1982&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2352&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9776,7 +9776,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
+          <t>Planta de Producción y Venta de Estructuras de Aluminio</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9786,30 +9786,30 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Transcargo Ltda</t>
+          <t>Vidrios, Aluminios y Marqueteria Maipu Ltda.</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>2500</v>
+        <v>80</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>13/04/1999</t>
+          <t>26/05/1999</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1982&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9824,7 +9824,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Sistema de Alcantarillado Sector Punta El Olivo y Loteo Nuevo Algarrobal San Felipe</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9834,20 +9834,20 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de San Felipe</t>
+          <t>Transcargo Ltda</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>470</v>
+        <v>2500</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>27/01/1999</t>
+          <t>13/04/1999</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
@@ -9857,7 +9857,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1637&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9872,7 +9872,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Sistema de Alcantarillado Sector Algarrobal San Felipe</t>
+          <t>Sistema de Alcantarillado Sector Punta El Olivo y Loteo Nuevo Algarrobal San Felipe</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9887,11 +9887,11 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>I. Municipalidad de San Felipe</t>
+          <t>Ilustre Municipalidad de San Felipe</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>850</v>
+        <v>470</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -9905,7 +9905,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1639&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1637&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9920,7 +9920,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Parque El Almendral de San Felipe</t>
+          <t>Sistema de Alcantarillado Sector Algarrobal San Felipe</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9935,15 +9935,15 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Inmobiliaria Comercial San Felipe Ltda.</t>
+          <t>I. Municipalidad de San Felipe</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>460</v>
+        <v>850</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>16/09/1997</t>
+          <t>27/01/1999</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
@@ -9953,7 +9953,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1639&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9968,39 +9968,87 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
+          <t>Parque El Almendral de San Felipe</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>Quinta</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>Inmobiliaria Comercial San Felipe Ltda.</t>
+        </is>
+      </c>
+      <c r="F201" t="n">
+        <v>460</v>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>16/09/1997</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=101&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>San Felipe</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>201</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
           <t>Planta de tratamiento de riles provenientes del proceso de la deshidratación de frutos</t>
         </is>
       </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr">
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
         <is>
           <t>Quinta</t>
         </is>
       </c>
-      <c r="E201" t="inlineStr">
+      <c r="E202" t="inlineStr">
         <is>
           <t>Sergio Del Tránsito González León</t>
         </is>
       </c>
-      <c r="F201" t="n">
+      <c r="F202" t="n">
         <v>0</v>
       </c>
-      <c r="G201" t="inlineStr"/>
-      <c r="H201" t="inlineStr">
+      <c r="G202" t="inlineStr"/>
+      <c r="H202" t="inlineStr">
         <is>
           <t>Eliminados</t>
         </is>
       </c>
-      <c r="I201" t="inlineStr">
+      <c r="I202" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142456377&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J201" t="inlineStr">
+      <c r="J202" t="inlineStr">
         <is>
           <t>San Felipe</t>
         </is>

--- a/data/San Felipe.xlsx
+++ b/data/San Felipe.xlsx
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Planta Procesadora de Frutas Secas - Profusec S.A.</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2834,16 +2834,16 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Procesadora de Frutas Secas S.A.</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2852,12 +2852,12 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952263&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Planta Procesadora de Frutas Secas - Profusec S.A.</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2882,16 +2882,16 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Procesadora de Frutas Secas S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2000</v>
+        <v>1200</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2900,12 +2900,12 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952263&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,11 +4855,11 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -4868,12 +4868,12 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,11 +4903,11 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -4916,12 +4916,12 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">

--- a/data/San Felipe.xlsx
+++ b/data/San Felipe.xlsx
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Planta Procesadora de Frutas Secas - Profusec S.A.</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2834,16 +2834,16 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Procesadora de Frutas Secas S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>2000</v>
+        <v>1200</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2852,12 +2852,12 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952263&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Planta Procesadora de Frutas Secas - Profusec S.A.</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2882,16 +2882,16 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Procesadora de Frutas Secas S.A.</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2900,12 +2900,12 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952263&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,11 +4855,11 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -4868,12 +4868,12 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,11 +4903,11 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -4916,12 +4916,12 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">

--- a/data/San Felipe.xlsx
+++ b/data/San Felipe.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/05/2022</t>
+          <t>24/05/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/San Felipe.xlsx
+++ b/data/San Felipe.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J202"/>
+  <dimension ref="A1:J203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,17 +447,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>24/05/2022</t>
+          <t>18/06/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155919195&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156307052&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica El Almendral 9 MW</t>
+          <t>Modificación Planta Depuradora de RILes Empresa San Lorenzo S.A.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>GR Temo SpA</t>
+          <t>Sociedad de Inversiones San Lorenzo S.A.</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>9900</v>
+        <v>150</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>21/04/2022</t>
+          <t>24/05/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155641786&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155919195&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Modificación Planta Depuradora de RILes Empresa San Lorenzo S.A.</t>
+          <t>Planta Fotovoltaica El Almendral 9 MW</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones San Lorenzo S.A.</t>
+          <t>GR Temo SpA</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>150</v>
+        <v>9900</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>24/09/2021</t>
+          <t>21/04/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153195844&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155641786&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE RILES DE LA PRODUCCIÓN DE PASAS</t>
+          <t>Modificación Planta Depuradora de RILes Empresa San Lorenzo S.A.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -587,21 +587,21 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>23/04/2021</t>
+          <t>24/09/2021</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151534059&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153195844&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ampliación Parque Fotovoltaico Mauco</t>
+          <t>PLANTA DE TRATAMIENTO DE RILES DE LA PRODUCCIÓN DE PASAS</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>PMGD Mauco SpA</t>
+          <t>Sociedad de Inversiones San Lorenzo S.A.</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2400</v>
+        <v>500</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>22/04/2021</t>
+          <t>23/04/2021</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151523276&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151534059&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Riles de la Producción de Pasas</t>
+          <t>Ampliación Parque Fotovoltaico Mauco</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones San Lorenzo S.A.</t>
+          <t>PMGD Mauco SpA</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>500</v>
+        <v>2400</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>24/02/2021</t>
+          <t>22/04/2021</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150834733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151523276&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>21/01/2021</t>
+          <t>24/02/2021</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149745663&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150834733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Repotenciamiento Proyecto PMGD Mauco Solar II</t>
+          <t>Planta de Tratamiento de Riles de la Producción de Pasas</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,25 +775,25 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>PMGD Mauco SpA</t>
+          <t>Sociedad de Inversiones San Lorenzo S.A.</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2381</v>
+        <v>500</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>22/05/2020</t>
+          <t>21/01/2021</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146646204&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149745663&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Riles de la Producción de Pasas</t>
+          <t>Repotenciamiento Proyecto PMGD Mauco Solar II</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,15 +823,15 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>SOCIEDAD EXPORTADORA SANTIS FRUT LIMITADA</t>
+          <t>PMGD Mauco SpA</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>500</v>
+        <v>2381</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>23/04/2020</t>
+          <t>22/05/2020</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146363195&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146646204&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Almendra</t>
+          <t>Planta de Tratamiento de Riles de la Producción de Pasas</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,15 +871,15 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Solek Chile Services SpA</t>
+          <t>SOCIEDAD EXPORTADORA SANTIS FRUT LIMITADA</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>7500</v>
+        <v>500</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>20/04/2020</t>
+          <t>23/04/2020</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146343726&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146363195&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Peligrosas</t>
+          <t>Parque Fotovoltaico Almendra</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -914,30 +914,30 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Daniel Ocaña Medina</t>
+          <t>Solek Chile Services SpA</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>27/01/2020</t>
+          <t>20/04/2020</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145507755&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146343726&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL PLANTA DE TRATAMIENTO DE RILES DE LA PRODUCCIÓN DE PASAS</t>
+          <t>Transportes de Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -962,30 +962,30 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>SOCIEDAD EXPORTADORA SANTIS FRUT LIMITADA</t>
+          <t>Daniel Ocaña Medina</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>500</v>
+        <v>4000</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>24/01/2020</t>
+          <t>27/01/2020</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145470294&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145507755&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL PLANTA DE TRATAMIENTO DE RILES DE LA PRODUCCIÓN DE PASAS</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1010,30 +1010,30 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>SOCIEDAD EXPORTADORA SANTIS FRUT LIMITADA</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>25000</v>
+        <v>500</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>07/01/2020</t>
+          <t>24/01/2020</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145470294&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>DIA Planta de Tratamiento de RILes de la Producción de pasas</t>
+          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1058,30 +1058,30 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>SOCIEDAD EXPORTADORA SANTIS FRUT LIMITADA</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>500</v>
+        <v>25000</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>26/12/2019</t>
+          <t>07/01/2020</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145017793&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Peligrosas</t>
+          <t>DIA Planta de Tratamiento de RILes de la Producción de pasas</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1106,30 +1106,30 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Daniel Ocaña Medina</t>
+          <t>SOCIEDAD EXPORTADORA SANTIS FRUT LIMITADA</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>23/12/2019</t>
+          <t>26/12/2019</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145294997&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145017793&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN PLANTA DE TRATAMIENTO DE RILES SOC. EXPORTADORA SANTIS FRUT LTDA.</t>
+          <t>Transportes de Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1154,20 +1154,20 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones San Lorenzo S.A.</t>
+          <t>Daniel Ocaña Medina</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>23/05/2019</t>
+          <t>23/12/2019</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143274639&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145294997&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN PLANTA DE TRATAMIENTO DE RILES, Soc. Exportadora Santis Frut Ltda.</t>
+          <t>REGULARIZACIÓN PLANTA DE TRATAMIENTO DE RILES SOC. EXPORTADORA SANTIS FRUT LTDA.</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1215,17 +1215,17 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>24/04/2019</t>
+          <t>23/05/2019</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143027895&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143274639&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MODIFICACION PLANTA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LÍQUIDOS A SISTEMA LOMBRIFILTRO</t>
+          <t>REGULARIZACIÓN PLANTA DE TRATAMIENTO DE RILES, Soc. Exportadora Santis Frut Ltda.</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,25 +1255,25 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Exportadores del Agro S. A.</t>
+          <t>Sociedad de Inversiones San Lorenzo S.A.</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>90</v>
+        <v>500</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>22/03/2019</t>
+          <t>24/04/2019</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132664224&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143027895&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Riles Provenientes del Proceso de la Deshidratación de Frutos</t>
+          <t>MODIFICACION PLANTA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LÍQUIDOS A SISTEMA LOMBRIFILTRO</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,25 +1303,25 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Comercial, Exportadora y de Servicios Frutos Secos del Valle Ltda.</t>
+          <t>Exportadores del Agro S. A.</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>20/02/2019</t>
+          <t>22/03/2019</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142527573&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132664224&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Transporte de ácido sulfúrico regiones de Antofagasta Atacama Coquimbo y Valparaíso</t>
+          <t>Planta de Tratamiento de Riles Provenientes del Proceso de la Deshidratación de Frutos</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1346,30 +1346,30 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Eric Alexis Fernando Aravena Aravena, Transporte de Carga y Movimiento de Tierra, Empresa Individual de Responsabilidad Limitada</t>
+          <t>Comercial, Exportadora y de Servicios Frutos Secos del Valle Ltda.</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>4000</v>
+        <v>5</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>27/06/2018</t>
+          <t>20/02/2019</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140826557&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142527573&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana</t>
+          <t>Transporte de ácido sulfúrico regiones de Antofagasta Atacama Coquimbo y Valparaíso</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,15 +1399,15 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>Eric Alexis Fernando Aravena Aravena, Transporte de Carga y Movimiento de Tierra, Empresa Individual de Responsabilidad Limitada</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>40</v>
+        <v>4000</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>31/05/2018</t>
+          <t>27/06/2018</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138785258&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140826557&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>MODIFICACION PLANTA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LÍQUIDOS A SISTEMA LOMBRIFILTRO</t>
+          <t>Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1442,30 +1442,30 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Exportadores del Agro S. A.</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>23/11/2017</t>
+          <t>31/05/2018</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132827959&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138785258&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
+          <t>MODIFICACION PLANTA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LÍQUIDOS A SISTEMA LOMBRIFILTRO</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1490,20 +1490,20 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>Exportadores del Agro S. A.</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>10/10/2017</t>
+          <t>23/11/2017</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132756023&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132827959&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE AGUAS RESIDUALES MEDIANTE SISTEMA LOMBRIFILTRO PARA AGROPRODEX S.A.</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1538,20 +1538,20 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Exportadores del Agro S. A.</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>21/06/2017</t>
+          <t>10/10/2017</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132436305&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132756023&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS Y RESIDUOS PELIGROSOS ENTRE LA XV Y XIV REGIÓN DE CHILE</t>
+          <t>PLANTA DE TRATAMIENTO DE AGUAS RESIDUALES MEDIANTE SISTEMA LOMBRIFILTRO PARA AGROPRODEX S.A.</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1586,20 +1586,20 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Transportes Bolivar Limitada</t>
+          <t>Exportadores del Agro S. A.</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>20000</v>
+        <v>87</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>20/06/2017</t>
+          <t>21/06/2017</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132472307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132436305&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana".</t>
+          <t>TRANSPORTE DE SUSTANCIAS Y RESIDUOS PELIGROSOS ENTRE LA XV Y XIV REGIÓN DE CHILE</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,15 +1639,15 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>Transportes Bolivar Limitada</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>37</v>
+        <v>20000</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>12/06/2017</t>
+          <t>20/06/2017</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132387119&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132472307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Remodelación Estadio Fiscal de San Felipe</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana".</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1682,30 +1682,30 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Instituto Nacional de Deportes de Chile</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>16614</v>
+        <v>37</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>09/03/2017</t>
+          <t>12/06/2017</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132209396&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132387119&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Empréstito Cerro El Mauco</t>
+          <t>Remodelación Estadio Fiscal de San Felipe</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,25 +1735,25 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>OHL AUSTRAL S.A</t>
+          <t>Instituto Nacional de Deportes de Chile</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>7265</v>
+        <v>16614</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>08/02/2017</t>
+          <t>09/03/2017</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132131301&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132209396&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
+          <t>Empréstito Cerro El Mauco</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1778,20 +1778,20 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>OHL AUSTRAL S.A</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>37</v>
+        <v>7265</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>30/01/2017</t>
+          <t>08/02/2017</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132131301&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Habilitación de un módulo para acopio de material terreo en el CTI - La Hormiga</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1826,30 +1826,30 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Servicios GEA Ltda.</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>922</v>
+        <v>37</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>20/10/2016</t>
+          <t>30/01/2017</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131882867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>PROYECTO FOTOVOLTAICO ENCON SOLAR</t>
+          <t>Habilitación de un módulo para acopio de material terreo en el CTI - La Hormiga</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,25 +1879,25 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Loa Solar SPA</t>
+          <t>Servicios GEA Ltda.</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>15300</v>
+        <v>922</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>23/12/2015</t>
+          <t>20/10/2016</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131012494&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131882867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Extracción Mecanizada de Áridos Río Aconcagua, Proyecto Camino Internacional Ruta 60CH Sector 1 Tramo 2 Variante Panquehue</t>
+          <t>PROYECTO FOTOVOLTAICO ENCON SOLAR</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,15 +1927,15 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>OHL AUSTRAL S.A</t>
+          <t>Loa Solar SPA</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>10000</v>
+        <v>15300</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>21/09/2015</t>
+          <t>23/12/2015</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130761962&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131012494&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Extracción Mecanizada de Áridos Río Aconcagua, Proyecto Camino Internacional Ruta 60CH Sector 1 Tramo 2 Variante Panquehue</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1970,30 +1970,30 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>OHL AUSTRAL S.A</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>26/01/2015</t>
+          <t>21/09/2015</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130761962&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2031,7 +2031,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>26/12/2014</t>
+          <t>26/01/2015</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,25 +2071,25 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>10</v>
+        <v>5000</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>24/12/2014</t>
+          <t>26/12/2014</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Planta Depuradora de Aguas SANTIS FRUT LTDA.</t>
+          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2114,30 +2114,30 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Omar Peter Santisteban Alejos</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>22/12/2014</t>
+          <t>24/12/2014</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129814159&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Planta Depuradora de Aguas SANTIS FRUT LTDA.</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2162,20 +2162,20 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Omar Peter Santisteban Alejos</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>5000</v>
+        <v>300</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>20/11/2014</t>
+          <t>22/12/2014</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129814159&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Centro de Manejo y Estabilización de Lodos Secundarios, Empresa Conservera Pentzke S.A.</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2210,30 +2210,30 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Conservera Pentzke S.A.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>160</v>
+        <v>5000</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>18/11/2014</t>
+          <t>20/11/2014</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129892252&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
+          <t>Centro de Manejo y Estabilización de Lodos Secundarios, Empresa Conservera Pentzke S.A.</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2258,30 +2258,30 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Conservera Pentzke S.A.</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>6750</v>
+        <v>160</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>13/11/2014</t>
+          <t>18/11/2014</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129892252&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,25 +2311,25 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>5000</v>
+        <v>6750</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>05/11/2014</t>
+          <t>13/11/2014</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Planta Procesadora de Frutas Secas - Profrusec S.A.</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2354,30 +2354,30 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Procesadora de Frutas Secas S.A.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>14/10/2014</t>
+          <t>05/11/2014</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129869574&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Centro de Manejo Y Estabilización de Lodos Secundarios. Empresa Conservera Pentzke S.A.</t>
+          <t>Planta Procesadora de Frutas Secas - Profrusec S.A.</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,25 +2407,25 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Conservera Pentzke S.A.</t>
+          <t>Procesadora de Frutas Secas S.A.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>160</v>
+        <v>2000</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>22/09/2014</t>
+          <t>14/10/2014</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129817865&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129869574&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Planta Procesadora de Frutas Secas - Profusec S.A.</t>
+          <t>Centro de Manejo Y Estabilización de Lodos Secundarios. Empresa Conservera Pentzke S.A.</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,15 +2455,15 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Procesadora de Frutas Secas S.A.</t>
+          <t>Conservera Pentzke S.A.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2000</v>
+        <v>160</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>09/09/2014</t>
+          <t>22/09/2014</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129766998&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129817865&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Centro de Manejo y Estabilización de Lodos Secundarios, Empresa Conservera Pentzke S.A.</t>
+          <t>Planta Procesadora de Frutas Secas - Profusec S.A.</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,15 +2503,15 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Conservera Pentzke S.A.</t>
+          <t>Procesadora de Frutas Secas S.A.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>160</v>
+        <v>2000</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>19/08/2014</t>
+          <t>09/09/2014</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129701711&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129766998&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Centro de Manejo y Estabilización de Lodos Secundarios, Empresa Conservera Pentzke S.A.</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2546,30 +2546,30 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Conservera Pentzke S.A.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>17000</v>
+        <v>160</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>08/08/2014</t>
+          <t>19/08/2014</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129696857&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129701711&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2607,17 +2607,17 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>24/07/2014</t>
+          <t>08/08/2014</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129649559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129696857&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2647,15 +2647,15 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>30/06/2014</t>
+          <t>24/07/2014</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129649559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Extracción mecanizada de áridos y mejoramiento del rio Aconcagua proyecto camino internacional ruta 60 CH sector 1 tramo 2 variante Panquehue</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2690,30 +2690,30 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>OHL Austral S.A</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>04/04/2014</t>
+          <t>30/06/2014</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129299233&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Defensas Fluviales Tramos 6 y 7 Comunas de Panquehue y San Felipe de la Ruta 60 CH</t>
+          <t>Extracción mecanizada de áridos y mejoramiento del rio Aconcagua proyecto camino internacional ruta 60 CH sector 1 tramo 2 variante Panquehue</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,25 +2743,25 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Sociedad Concesionaria Autopista De Los Andes S.A.</t>
+          <t>OHL Austral S.A</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>32775</v>
+        <v>13000</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>12/03/2014</t>
+          <t>04/04/2014</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129320274&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129299233&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
+          <t>Defensas Fluviales Tramos 6 y 7 Comunas de Panquehue y San Felipe de la Ruta 60 CH</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2786,30 +2786,30 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>VERATRANS SPA</t>
+          <t>Sociedad Concesionaria Autopista De Los Andes S.A.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>800</v>
+        <v>32775</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>12/03/2014</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129320274&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Planta Procesadora de Frutas Secas - Profusec S.A.</t>
+          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2834,16 +2834,16 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Procesadora de Frutas Secas S.A.</t>
+          <t>VERATRANS SPA</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2852,12 +2852,12 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952263&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2943,17 +2943,17 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>12/12/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128861297&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952263&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
+          <t>Planta Procesadora de Frutas Secas - Profusec S.A.</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2978,20 +2978,20 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Procesadora de Frutas Secas S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>08/11/2013</t>
+          <t>12/12/2013</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128861297&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSALTISA CHILE LTDA</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,25 +3031,25 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2050</v>
+        <v>5000</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>19/07/2013</t>
+          <t>08/11/2013</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8365483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSALTISA CHILE LTDA</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,15 +3079,15 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>2050</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>21/06/2013</t>
+          <t>19/07/2013</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8365483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,25 +3127,25 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>2050</v>
+        <v>0</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>31/05/2013</t>
+          <t>21/06/2013</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,25 +3175,25 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>250</v>
+        <v>2050</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>31/05/2013</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3231,17 +3231,17 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3279,7 +3279,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,25 +3319,25 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1500</v>
+        <v>250</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>22/02/2013</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Aumento de la Capacidad de Procesamiento, Optimización de Planta Bellavista y Ampliación de Embalse de Relave</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3362,20 +3362,20 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>minera clarita chile s.a</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>31/10/2012</t>
+          <t>22/02/2013</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7439753&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>BODEGAS DE CAL SAN FELIPE</t>
+          <t>Aumento de la Capacidad de Procesamiento, Optimización de Planta Bellavista y Ampliación de Embalse de Relave</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,15 +3415,15 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Transportes Servired Ltda</t>
+          <t>minera clarita chile s.a</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>24/09/2012</t>
+          <t>31/10/2012</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3433,7 +3433,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7269881&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7439753&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>"Estacionamientos Subterráneos y Superficie, Plaza de Armas de San Felipe"</t>
+          <t>BODEGAS DE CAL SAN FELIPE</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,25 +3463,25 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Sociedad Concesionaria de Estacionamientos de San Felipe</t>
+          <t>Transportes Servired Ltda</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>9500</v>
+        <v>1000</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>28/08/2012</t>
+          <t>24/09/2012</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7270812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7269881&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>"Estacionamientos Subterráneos y Superficie, Plaza de Armas de San Felipe"</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3506,30 +3506,30 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Sociedad Concesionaria de Estacionamientos de San Felipe</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>15000</v>
+        <v>9500</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>31/07/2012</t>
+          <t>28/08/2012</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7270812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>"TRANSPORTE INTERREGIONAL DE ÓXIDO DE CALCIO"</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,15 +3559,15 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>706</v>
+        <v>15000</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>10/07/2012</t>
+          <t>31/07/2012</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7094187&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>SiSTEMA DE TRATAMIENTO Y DISPOSICIÓN DE RILES DE CARTER FRUITS AGROINDUSTRIAL S.A</t>
+          <t>"TRANSPORTE INTERREGIONAL DE ÓXIDO DE CALCIO"</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3602,20 +3602,20 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>CARTER FRUITS AGROINDUSTRIAL S.A</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>50</v>
+        <v>706</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>03/07/2012</t>
+          <t>10/07/2012</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7072163&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7094187&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO Y DISPOSICIÓN DE RILES DE CARTER FRUITS AGROINDUSTRIAL S.A</t>
+          <t>SiSTEMA DE TRATAMIENTO Y DISPOSICIÓN DE RILES DE CARTER FRUITS AGROINDUSTRIAL S.A</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3663,17 +3663,17 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>22/06/2012</t>
+          <t>03/07/2012</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7034845&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7072163&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Óxido de Calcio</t>
+          <t>SISTEMA DE TRATAMIENTO Y DISPOSICIÓN DE RILES DE CARTER FRUITS AGROINDUSTRIAL S.A</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3698,20 +3698,20 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>CARTER FRUITS AGROINDUSTRIAL S.A</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>706</v>
+        <v>50</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>20/06/2012</t>
+          <t>22/06/2012</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7034845&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,15 +3751,15 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>5000</v>
+        <v>706</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>20/06/2012</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO Y DISPOSICIÓN DE RILES DE CARTER FRUITS AGROINDUSTRIAL S.A</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3794,20 +3794,20 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>CARTER FRUITS AGROINDUSTRIAL S.A</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>50</v>
+        <v>5000</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>04/05/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6866711&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>SISTEMA DE TRATAMIENTO Y DISPOSICIÓN DE RILES DE CARTER FRUITS AGROINDUSTRIAL S.A</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3842,20 +3842,20 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>CARTER FRUITS AGROINDUSTRIAL S.A</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>27/03/2012</t>
+          <t>04/05/2012</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6866711&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,15 +3895,15 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>27/03/2012</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>"Manejo Integral de Residuos Orgánicos Mediante Sistema de Compostaje"</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3938,30 +3938,30 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Conservera Pentzke S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>17/02/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6616804&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Manejo Integral de Residuos Orgánicos Mediante Sistema de Compostaje</t>
+          <t>"Manejo Integral de Residuos Orgánicos Mediante Sistema de Compostaje"</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3999,17 +3999,17 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>14/02/2012</t>
+          <t>17/02/2012</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6571052&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6616804&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Manejo Integral de Residuos Orgánicos Mediante Sistema de Compostaje</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4034,20 +4034,20 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Conservera Pentzke S.A.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>14/02/2012</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -4057,7 +4057,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6571052&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,15 +4087,15 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -4105,7 +4105,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE RILES NEW AGRA</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4130,30 +4130,30 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>AGROINDUSTRIA NEW AGRA LIMITADA</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>22/12/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6391483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>PLANTA DE TRATAMIENTO DE RILES NEW AGRA</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4178,30 +4178,30 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>AGROINDUSTRIA NEW AGRA LIMITADA</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>21/11/2011</t>
+          <t>22/12/2011</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6391483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,15 +4231,15 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Transportes Alcayaga y Rovira Ltda.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>08/11/2011</t>
+          <t>21/11/2011</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6183206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,15 +4279,15 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Transportes Alcayaga y Rovira Ltda.</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>319</v>
+        <v>200</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>04/10/2011</t>
+          <t>08/11/2011</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -4297,7 +4297,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6183206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>"Transporte de Cal Viva"</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,25 +4327,25 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Transportes Servired Ltda</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>9000</v>
+        <v>319</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>30/05/2011</t>
+          <t>04/10/2011</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5670904&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
+          <t>"Transporte de Cal Viva"</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4383,17 +4383,17 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>11/05/2011</t>
+          <t>30/05/2011</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5670904&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
+          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,25 +4423,25 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Transportes Servired Ltda</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>250</v>
+        <v>9000</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>27/04/2011</t>
+          <t>11/05/2011</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
+          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4479,17 +4479,17 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>15/04/2011</t>
+          <t>27/04/2011</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
+          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,25 +4519,25 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>12000</v>
+        <v>250</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>14/04/2011</t>
+          <t>15/04/2011</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5537784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4575,17 +4575,17 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>29/03/2011</t>
+          <t>14/04/2011</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5485763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5537784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas y Residuos Peligrosos entre la XV Región de Arica y Parinacota hasta la VI Región del Libertador General Bernardo O'Higgins y la XIII Región Metropolitana de Santiago</t>
+          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4615,25 +4615,25 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>5042</v>
+        <v>12000</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>24/03/2011</t>
+          <t>29/03/2011</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5460886&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5485763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES Y XIII REGION METROPOLITANA TRANSPORTE DE SUSTANCIAS PELGROSAS Y RESIDUOS PEL</t>
+          <t>Transporte de Sustancias Peligrosas y Residuos Peligrosos entre la XV Región de Arica y Parinacota hasta la VI Región del Libertador General Bernardo O'Higgins y la XIII Región Metropolitana de Santiago</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4671,17 +4671,17 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>07/03/2011</t>
+          <t>24/03/2011</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5413116&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5460886&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION METROPOLITANA .</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES Y XIII REGION METROPOLITANA TRANSPORTE DE SUSTANCIAS PELGROSAS Y RESIDUOS PEL</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4715,11 +4715,11 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>4800</v>
+        <v>5042</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>09/02/2011</t>
+          <t>07/03/2011</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5103366&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5413116&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION METROPOLITANA .</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4759,15 +4759,15 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>19000</v>
+        <v>4800</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>01/12/2010</t>
+          <t>09/02/2011</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5062785&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5103366&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4811,11 +4811,11 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>17700</v>
+        <v>19000</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>28/09/2010</t>
+          <t>01/12/2010</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -4825,7 +4825,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4949829&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5062785&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,15 +4855,15 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>4800</v>
+        <v>17700</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>24/09/2010</t>
+          <t>28/09/2010</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -4873,7 +4873,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4949829&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,25 +4951,25 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>1750</v>
+        <v>4800</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>23/08/2010</t>
+          <t>24/09/2010</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4865154&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -5007,17 +5007,17 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>11/08/2010</t>
+          <t>23/08/2010</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4865154&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5047,25 +5047,25 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>300</v>
+        <v>1750</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>11/08/2010</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5095,25 +5095,25 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>1750</v>
+        <v>300</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>07/06/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribucion de anhídrido Sulfuroso Planta camino Putaendo</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,15 +5143,15 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Trefrut Ltda</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>20</v>
+        <v>1750</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>13/05/2010</t>
+          <t>07/06/2010</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -5161,7 +5161,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4565010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Almacenamiento y Distribucion de anhídrido Sulfuroso Planta camino Putaendo</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,25 +5191,25 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Trefrut Ltda</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>4050</v>
+        <v>20</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>03/05/2010</t>
+          <t>13/05/2010</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4565010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5239,15 +5239,15 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>250</v>
+        <v>4050</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>03/05/2010</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5287,25 +5287,25 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>4050</v>
+        <v>250</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>24/03/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos, Transportes Bello</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5343,7 +5343,7 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>18/02/2010</t>
+          <t>24/03/2010</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -5353,7 +5353,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de residuos peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,25 +5383,25 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>250</v>
+        <v>4050</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>18/02/2010</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Distribución y almacenamiento de Anhídrido Sulfuroso Planta Camino Putaendo</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5431,25 +5431,25 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Trefrut Ltda</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>09/02/2010</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4370207&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Distribución y almacenamiento de Anhídrido Sulfuroso Planta Camino Putaendo</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,25 +5479,25 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Trefrut Ltda</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>09/02/2010</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4370207&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5527,7 +5527,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F108" t="n">
@@ -5540,12 +5540,12 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5583,17 +5583,17 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,25 +5623,25 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>08/01/2010</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias toxicas entre la II y VI region (incluye V region y region Metropolitana) (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,25 +5671,25 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Portland S.A.</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>1</v>
+        <v>350</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>30/12/2009</t>
+          <t>08/01/2010</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4277546&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>Transporte terrestre de sustancias toxicas entre la II y VI region (incluye V region y region Metropolitana) (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,15 +5719,15 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Portland S.A.</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>30/12/2009</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -5737,7 +5737,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4277546&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,25 +5767,25 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>15/10/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5823,7 +5823,7 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>23/09/2009</t>
+          <t>15/10/2009</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -5833,7 +5833,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5871,17 +5871,17 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>18/08/2009</t>
+          <t>23/09/2009</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5911,15 +5911,15 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>22</v>
+        <v>250</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>18/08/2009</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -5929,7 +5929,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,25 +5959,25 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>300</v>
+        <v>22</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,25 +6007,25 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>1750</v>
+        <v>300</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>29/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,25 +6055,25 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>250</v>
+        <v>1750</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>29/10/2008</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6111,7 +6111,7 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -6121,7 +6121,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,25 +6151,25 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>1750</v>
+        <v>250</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>30/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,25 +6199,25 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>20</v>
+        <v>1750</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>16/09/2008</t>
+          <t>30/09/2008</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6247,25 +6247,25 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>250</v>
+        <v>20</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>16/09/2008</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Transporte Cinco (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6295,25 +6295,25 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Transportes Cinco Limitada</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>3408</v>
+        <v>250</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>18/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3111632&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas, Transporte Cinco (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,25 +6343,25 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes Cinco Limitada</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>20</v>
+        <v>3408</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>18/08/2008</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3111632&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6399,17 +6399,17 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6439,25 +6439,25 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>500</v>
+        <v>20</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>10/06/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Proyecto Educativo, Universidad de Viña del Mar, Sede San Felipe (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6482,30 +6482,30 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>José Ignacio Martínez Bengoa</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>1903</v>
+        <v>500</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>05/06/2008</t>
+          <t>10/06/2008</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2942321&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Proyecto Educativo, Universidad de Viña del Mar, Sede San Felipe (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6530,20 +6530,20 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>José Ignacio Martínez Bengoa</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>20</v>
+        <v>1903</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>30/05/2008</t>
+          <t>05/06/2008</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -6553,7 +6553,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2942321&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,36 +6568,40 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>CENTRO DE TRATAMIENTO INTEGRAL DE RESIDUOS SOLIDOS LA HORMIGA</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr"/>
+          <t>transporte de residuos peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Servicios GEA Ltda.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>5800</v>
+        <v>20</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>15/05/2008</t>
+          <t>30/05/2008</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2904946&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6631,17 +6635,17 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>17/04/2008</t>
+          <t>15/05/2008</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2850926&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2904946&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6656,40 +6660,36 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>CENTRO DE TRATAMIENTO INTEGRAL DE RESIDUOS SOLIDOS LA HORMIGA</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr"/>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Servicios GEA Ltda.</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>1750</v>
+        <v>5800</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>26/02/2008</t>
+          <t>17/04/2008</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2680876&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2850926&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6704,7 +6704,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6719,25 +6719,25 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>429</v>
+        <v>1750</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>26/02/2008</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2680876&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6752,7 +6752,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6767,25 +6767,25 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>234</v>
+        <v>429</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6800,7 +6800,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6815,15 +6815,15 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -6833,7 +6833,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6848,7 +6848,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6863,15 +6863,15 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -6881,7 +6881,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6896,7 +6896,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Planta depuradora de aguas Conservera Pentzke S.A. (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6906,30 +6906,30 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Empresa de Alimentos y Conservas San Clemente SpA</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>3000</v>
+        <v>300</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>06/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2191252&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6959,7 +6959,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Conservera Pentzke S.A.</t>
+          <t>Empresa de Alimentos y Conservas San Clemente SpA</t>
         </is>
       </c>
       <c r="F138" t="n">
@@ -6967,17 +6967,17 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>30/05/2007</t>
+          <t>06/06/2007</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2179720&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2191252&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -6992,7 +6992,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Líquidos de Planta San Felipe Dole Chile S.A. (e-seia)</t>
+          <t>Planta depuradora de aguas Conservera Pentzke S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7007,25 +7007,25 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Dole Chile S.A</t>
+          <t>Conservera Pentzke S.A.</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>10</v>
+        <v>3000</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>11/04/2007</t>
+          <t>30/05/2007</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2099658&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2179720&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7040,7 +7040,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Líquidos de Planta San Felipe Dole Chile S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7050,30 +7050,30 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Dole Chile S.A</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>11/04/2007</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2099658&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7088,7 +7088,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7107,21 +7107,21 @@
         </is>
       </c>
       <c r="F141" t="n">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7136,7 +7136,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7151,25 +7151,25 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7184,7 +7184,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7207,17 +7207,17 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7232,7 +7232,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7247,25 +7247,25 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7280,7 +7280,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las regiones I, II, III, IV, VII y Región Metropolitana (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7295,7 +7295,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F145" t="n">
@@ -7303,17 +7303,17 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>22/11/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1821133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7328,7 +7328,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las regiones I, II, III, IV, VII y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7343,7 +7343,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F146" t="n">
@@ -7351,17 +7351,17 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>10/11/2006</t>
+          <t>22/11/2006</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1821133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7376,7 +7376,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, VI, VII y RM, "Transportes Bello" (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7391,7 +7391,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F147" t="n">
@@ -7399,17 +7399,17 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>02/11/2006</t>
+          <t>10/11/2006</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7424,7 +7424,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, VI, VII y RM, "Transportes Bello" (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7439,7 +7439,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F148" t="n">
@@ -7447,7 +7447,7 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>25/10/2006</t>
+          <t>02/11/2006</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -7457,7 +7457,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7472,7 +7472,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
+          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7487,15 +7487,15 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Trans-residuos</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F149" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>28/09/2006</t>
+          <t>25/10/2006</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -7505,7 +7505,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7520,40 +7520,40 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Defensas Fluviales Río Aconcagua para camino Internacional Ruta 60 Ch Sector 1 Los Andes - Panquehue V Región</t>
+          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Sociedad Concesionaria Autopista Los Andes S.A</t>
+          <t>Empresa de Transportes Trans-residuos</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>06/09/2006</t>
+          <t>28/09/2006</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1701224&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7568,30 +7568,30 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
+          <t>Defensas Fluviales Río Aconcagua para camino Internacional Ruta 60 Ch Sector 1 Los Andes - Panquehue V Región</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
+          <t>Sociedad Concesionaria Autopista Los Andes S.A</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>09/08/2006</t>
+          <t>06/09/2006</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -7601,7 +7601,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1701224&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7616,40 +7616,40 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Defensas Fluviales Río Aconcagua para camino Internacional Ruta 60 CH Sector 1 Los Andes - Panquehue V Región</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Sociedad Concesionaria Autopista Los Andes S.A</t>
+          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>20000</v>
+        <v>80</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>23/06/2006</t>
+          <t>09/08/2006</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1485343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7664,40 +7664,40 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
+          <t>Defensas Fluviales Río Aconcagua para camino Internacional Ruta 60 CH Sector 1 Los Andes - Panquehue V Región</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>mario enrique barra diaz</t>
+          <t>Sociedad Concesionaria Autopista Los Andes S.A</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>80</v>
+        <v>20000</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>22/06/2006</t>
+          <t>23/06/2006</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1485343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7712,7 +7712,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7727,25 +7727,25 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>mario enrique barra diaz</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>500</v>
+        <v>80</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>22/06/2006</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7760,7 +7760,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7783,17 +7783,17 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7808,7 +7808,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7823,25 +7823,25 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7856,7 +7856,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>PLAN REGIONAL DE DESARROLLO URBANO Y TERRITORIAL, REGIÓN DE VALPARAÍSO (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7866,30 +7866,30 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región de Valparaíso</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>08/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1331410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7904,7 +7904,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>PLAN REGIONAL DE DESARROLLO URBANO Y TERRITORIAL, REGIÓN DE VALPARAÍSO (e-seia)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7914,30 +7914,30 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región de Valparaíso</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>08/03/2006</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1331410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7952,7 +7952,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7967,25 +7967,25 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Iris Leiva ALbornoz Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>02/03/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8000,7 +8000,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8015,25 +8015,25 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>Iris Leiva ALbornoz Ltda.</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>02/03/2006</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8048,7 +8048,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8063,7 +8063,7 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F161" t="n">
@@ -8071,17 +8071,17 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8096,7 +8096,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano y Territorial PRDUT V, Región de Valparaíso (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8106,30 +8106,30 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>SEREMI MINVU V REGIÓN</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>16/12/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1169202&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8144,7 +8144,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano y Territorial PRDUT V, Región de Valparaíso (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8154,12 +8154,12 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Transportes Reciclar Limitada</t>
+          <t>SEREMI MINVU V REGIÓN</t>
         </is>
       </c>
       <c r="F163" t="n">
@@ -8167,17 +8167,17 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>12/12/2005</t>
+          <t>16/12/2005</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1150168&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1169202&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8192,7 +8192,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
+          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8207,15 +8207,15 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Transportes Reciclar Limitada</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>3517</v>
+        <v>0</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>15/11/2005</t>
+          <t>12/12/2005</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
@@ -8225,7 +8225,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1150168&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8240,7 +8240,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8255,15 +8255,15 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>160</v>
+        <v>3517</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>15/11/2005</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
@@ -8273,7 +8273,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8288,7 +8288,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8303,25 +8303,25 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>03/11/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8336,7 +8336,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
+          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8351,7 +8351,7 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Proactiva Servicios Industriales S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F167" t="n">
@@ -8359,17 +8359,17 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>28/10/2005</t>
+          <t>03/11/2005</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8384,7 +8384,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8399,15 +8399,15 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Proactiva Servicios Industriales S.A.</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>28/10/2005</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
@@ -8417,7 +8417,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8432,7 +8432,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8447,15 +8447,15 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>855</v>
+        <v>200</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>19/04/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
@@ -8465,7 +8465,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8495,7 +8495,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F170" t="n">
@@ -8503,17 +8503,17 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>31/03/2005</t>
+          <t>19/04/2005</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8528,7 +8528,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Fabrica de Cerámicos Diamant S.A. (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8538,30 +8538,30 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Ceramicas Diamant S. A.</t>
+          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>12000</v>
+        <v>855</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>07/02/2005</t>
+          <t>31/03/2005</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=591640&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8576,7 +8576,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
+          <t>Fabrica de Cerámicos Diamant S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8586,20 +8586,20 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Los Ríos S.A.</t>
+          <t>Ceramicas Diamant S. A.</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>1</v>
+        <v>12000</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>08/11/2004</t>
+          <t>07/02/2005</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
@@ -8609,7 +8609,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=591640&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8624,7 +8624,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
+          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8639,15 +8639,15 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Empresa de Transportes Los Ríos S.A.</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>21/06/2004</t>
+          <t>08/11/2004</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -8657,7 +8657,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377075&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8672,7 +8672,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Curimon (e-seia)</t>
+          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8682,20 +8682,20 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>ESVAL S.A.</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>993</v>
+        <v>200</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>10/05/2004</t>
+          <t>21/06/2004</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -8705,7 +8705,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=345465&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377075&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8720,7 +8720,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas Curimon (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8730,20 +8730,20 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>ESVAL S.A.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>200</v>
+        <v>993</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>09/09/2003</t>
+          <t>10/05/2004</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
@@ -8753,7 +8753,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=345465&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8768,7 +8768,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Instalaciones Agroindustrial Agrícola Santis Frut</t>
+          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8778,30 +8778,30 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Agrícola Santis Frut Ltda.</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>440</v>
+        <v>200</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>10/03/2003</t>
+          <t>09/09/2003</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Revocado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6222&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8816,7 +8816,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I y la VI Región</t>
+          <t>Instalaciones Agroindustrial Agrícola Santis Frut</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8826,30 +8826,30 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Transportes Molina Limitada</t>
+          <t>Agrícola Santis Frut Ltda.</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>0</v>
+        <v>440</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>07/02/2003</t>
+          <t>10/03/2003</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6186&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6222&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8864,7 +8864,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de sustancias tóxicas entre la II y VI Región (incluye la V Región y Región Metropolitana)</t>
+          <t>Transporte de Sustancias Peligrosas entre la I y la VI Región</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8879,15 +8879,15 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Transportes Molina Limitada</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>31/01/2003</t>
+          <t>07/02/2003</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
@@ -8897,7 +8897,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6180&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6186&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8912,7 +8912,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Transporte de Explosivos Accesorios y Materias Primas Usadas en Tronaduras de la Minería y Obras Civiles</t>
+          <t>Transporte Terrestre de sustancias tóxicas entre la II y VI Región (incluye la V Región y Región Metropolitana)</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8927,15 +8927,15 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Explonor S.A.</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>18/12/2002</t>
+          <t>31/01/2003</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
@@ -8945,7 +8945,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6128&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6180&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8960,7 +8960,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de Explosivos Accesorios y Materias Primas Usadas en Tronaduras de la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8975,15 +8975,15 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>Explonor S.A.</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>18/11/2002</t>
+          <t>18/12/2002</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
@@ -8993,7 +8993,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6128&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9008,7 +9008,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9023,11 +9023,11 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9036,12 +9036,12 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9056,7 +9056,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento Biológico de Residuos Orgánicos</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9066,30 +9066,30 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Servicios Gea Ltda.</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>17/05/2002</t>
+          <t>18/11/2002</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9104,7 +9104,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Acido Sulfúrico En y Entre Las Regiones I y VI (Transporte Valdatta S.A.)</t>
+          <t>Planta de Tratamiento Biológico de Residuos Orgánicos</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9114,20 +9114,20 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Transportes Valdatta S.A.</t>
+          <t>Servicios Gea Ltda.</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>01/03/2002</t>
+          <t>17/05/2002</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
@@ -9137,7 +9137,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5189&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9152,7 +9152,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Instalaciones Agroindustrial Planta de Tratamientos de los Residuos Industriales Líquidos de la Planta Industrial Agrícola Santis Frut Ltda.</t>
+          <t>Transporte Terrestre de Acido Sulfúrico En y Entre Las Regiones I y VI (Transporte Valdatta S.A.)</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9162,30 +9162,30 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Agrícola Santis Frut Ltda.</t>
+          <t>Transportes Valdatta S.A.</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>490</v>
+        <v>0</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>22/02/2002</t>
+          <t>01/03/2002</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5130&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5189&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9200,7 +9200,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico en y entre las Regiones I y VI (Transportes Ilzauspe Ltda.)</t>
+          <t>Instalaciones Agroindustrial Planta de Tratamientos de los Residuos Industriales Líquidos de la Planta Industrial Agrícola Santis Frut Ltda.</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9210,30 +9210,30 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Agrícola Santis Frut Ltda.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>0</v>
+        <v>490</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>23/11/2001</t>
+          <t>22/02/2002</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4833&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5130&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9248,7 +9248,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico en y entre las Regiones I y VI (Transportes Ilzauspe Ltda.)</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9263,25 +9263,25 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>23/11/2001</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4833&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9296,7 +9296,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Expendio de Combustible YPF. Camino Casas Chicas de Quilpué</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9306,20 +9306,20 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Empresa de Transportes PUMA S.A.</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>28/08/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
@@ -9329,7 +9329,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9344,40 +9344,40 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Expansión División Andina</t>
+          <t>Expendio de Combustible YPF. Camino Casas Chicas de Quilpué</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Codelco División Andina</t>
+          <t>Empresa de Transportes PUMA S.A.</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>650000</v>
+        <v>30</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>08/06/2001</t>
+          <t>28/08/2001</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3992&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9392,30 +9392,30 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas San Felipe</t>
+          <t>Expansión División Andina</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>ESVAL S.A.</t>
+          <t>Codelco División Andina</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>5240</v>
+        <v>650000</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>28/03/2001</t>
+          <t>08/06/2001</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
@@ -9425,7 +9425,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3814&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3992&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9440,7 +9440,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Estación de Servicio YPF - San Felipe - Putaendo</t>
+          <t>Planta de Tratamiento de Aguas Servidas San Felipe</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9455,15 +9455,15 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Inmobiliaria Don Marcos Ltda.</t>
+          <t>ESVAL S.A.</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>420</v>
+        <v>5240</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>28/07/2000</t>
+          <t>28/03/2001</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
@@ -9473,7 +9473,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3814&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9488,30 +9488,30 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Estación de Servicio YPF - San Felipe - Putaendo</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>Inmobiliaria Don Marcos Ltda.</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>3500</v>
+        <v>420</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>24/07/2000</t>
+          <t>28/07/2000</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
@@ -9521,7 +9521,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3052&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9536,12 +9536,12 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
+          <t>Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -9551,15 +9551,15 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>110</v>
+        <v>3500</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>14/02/2000</t>
+          <t>24/07/2000</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
@@ -9569,7 +9569,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3052&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9584,7 +9584,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Instalación de Estanques Subterráneos para Autoconsumo de Combustibles Terminal de Taxis Colectivos SINTAXFEL</t>
+          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9594,20 +9594,20 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Sindicato de Trabajadores Independientes de Taxistas Colectivos Línea Uno de San Felipe SINTAXFEL</t>
+          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>13/01/2000</t>
+          <t>14/02/2000</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
@@ -9617,7 +9617,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2614&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9632,7 +9632,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Construcción y Operación del Colegio Inglés Greenland College</t>
+          <t>Instalación de Estanques Subterráneos para Autoconsumo de Combustibles Terminal de Taxis Colectivos SINTAXFEL</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9647,15 +9647,15 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Inmobiliaria Greenland Limitada</t>
+          <t>Sindicato de Trabajadores Independientes de Taxistas Colectivos Línea Uno de San Felipe SINTAXFEL</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>360</v>
+        <v>10</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>12/11/1999</t>
+          <t>13/01/2000</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -9665,7 +9665,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2402&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2614&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9680,7 +9680,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Expendido al Público de Combustible YPF El Molino-San Martín</t>
+          <t>Construcción y Operación del Colegio Inglés Greenland College</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9695,15 +9695,15 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Gino Marcelo Rossi Villenas</t>
+          <t>Inmobiliaria Greenland Limitada</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>60</v>
+        <v>360</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>03/11/1999</t>
+          <t>12/11/1999</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -9713,7 +9713,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2393&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2402&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9728,7 +9728,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Central de Distribución de Gas Licuado - CURIMON</t>
+          <t>Expendido al Público de Combustible YPF El Molino-San Martín</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9743,15 +9743,15 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Gas Licuado LIPIGAS S.A.</t>
+          <t>Gino Marcelo Rossi Villenas</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>230</v>
+        <v>60</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>21/10/1999</t>
+          <t>03/11/1999</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -9761,7 +9761,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2352&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2393&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9776,7 +9776,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Planta de Producción y Venta de Estructuras de Aluminio</t>
+          <t>Central de Distribución de Gas Licuado - CURIMON</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9791,25 +9791,25 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Vidrios, Aluminios y Marqueteria Maipu Ltda.</t>
+          <t>Gas Licuado LIPIGAS S.A.</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>80</v>
+        <v>230</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>26/05/1999</t>
+          <t>21/10/1999</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1982&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2352&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9824,7 +9824,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
+          <t>Planta de Producción y Venta de Estructuras de Aluminio</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9834,30 +9834,30 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Transcargo Ltda</t>
+          <t>Vidrios, Aluminios y Marqueteria Maipu Ltda.</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>2500</v>
+        <v>80</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>13/04/1999</t>
+          <t>26/05/1999</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1982&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9872,7 +9872,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Sistema de Alcantarillado Sector Punta El Olivo y Loteo Nuevo Algarrobal San Felipe</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9882,20 +9882,20 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de San Felipe</t>
+          <t>Transcargo Ltda</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>470</v>
+        <v>2500</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>27/01/1999</t>
+          <t>13/04/1999</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
@@ -9905,7 +9905,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1637&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9920,7 +9920,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Sistema de Alcantarillado Sector Algarrobal San Felipe</t>
+          <t>Sistema de Alcantarillado Sector Punta El Olivo y Loteo Nuevo Algarrobal San Felipe</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9935,11 +9935,11 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>I. Municipalidad de San Felipe</t>
+          <t>Ilustre Municipalidad de San Felipe</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>850</v>
+        <v>470</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
@@ -9953,7 +9953,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1639&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1637&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9968,7 +9968,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Parque El Almendral de San Felipe</t>
+          <t>Sistema de Alcantarillado Sector Algarrobal San Felipe</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9983,15 +9983,15 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Inmobiliaria Comercial San Felipe Ltda.</t>
+          <t>I. Municipalidad de San Felipe</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>460</v>
+        <v>850</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>16/09/1997</t>
+          <t>27/01/1999</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
@@ -10001,7 +10001,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1639&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10016,39 +10016,87 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
+          <t>Parque El Almendral de San Felipe</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>Quinta</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>Inmobiliaria Comercial San Felipe Ltda.</t>
+        </is>
+      </c>
+      <c r="F202" t="n">
+        <v>460</v>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>16/09/1997</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=101&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>San Felipe</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>202</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
           <t>Planta de tratamiento de riles provenientes del proceso de la deshidratación de frutos</t>
         </is>
       </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D202" t="inlineStr">
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
         <is>
           <t>Quinta</t>
         </is>
       </c>
-      <c r="E202" t="inlineStr">
+      <c r="E203" t="inlineStr">
         <is>
           <t>Sergio Del Tránsito González León</t>
         </is>
       </c>
-      <c r="F202" t="n">
+      <c r="F203" t="n">
         <v>0</v>
       </c>
-      <c r="G202" t="inlineStr"/>
-      <c r="H202" t="inlineStr">
+      <c r="G203" t="inlineStr"/>
+      <c r="H203" t="inlineStr">
         <is>
           <t>Eliminados</t>
         </is>
       </c>
-      <c r="I202" t="inlineStr">
+      <c r="I203" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142456377&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J202" t="inlineStr">
+      <c r="J203" t="inlineStr">
         <is>
           <t>San Felipe</t>
         </is>

--- a/data/San Felipe.xlsx
+++ b/data/San Felipe.xlsx
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Planta Procesadora de Frutas Secas - Profusec S.A.</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2882,16 +2882,16 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Procesadora de Frutas Secas S.A.</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2900,12 +2900,12 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952263&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Planta Procesadora de Frutas Secas - Profusec S.A.</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2930,16 +2930,16 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Procesadora de Frutas Secas S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>2000</v>
+        <v>1200</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2948,12 +2948,12 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952263&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,11 +4903,11 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -4916,12 +4916,12 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,11 +4951,11 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -4964,12 +4964,12 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">

--- a/data/San Felipe.xlsx
+++ b/data/San Felipe.xlsx
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Planta Procesadora de Frutas Secas - Profusec S.A.</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2882,16 +2882,16 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Procesadora de Frutas Secas S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>2000</v>
+        <v>1200</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2900,12 +2900,12 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952263&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Planta Procesadora de Frutas Secas - Profusec S.A.</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2930,16 +2930,16 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Procesadora de Frutas Secas S.A.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2948,12 +2948,12 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952263&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,11 +4903,11 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -4916,12 +4916,12 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,11 +4951,11 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -4964,12 +4964,12 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">

--- a/data/San Felipe.xlsx
+++ b/data/San Felipe.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/06/2022</t>
+          <t>28/06/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/San Felipe.xlsx
+++ b/data/San Felipe.xlsx
@@ -783,7 +783,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>21/01/2021</t>
+          <t>18/01/2021</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">

--- a/data/San Felipe.xlsx
+++ b/data/San Felipe.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J203"/>
+  <dimension ref="A1:J204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Modificación Planta Depuradora de RILes Empresa San Lorenzo S.A.</t>
+          <t>DISTRIBUCIÓN DE ANHIDRIDO SULFUROSO ENTRE LAS REGIONES V, VI, VII Y METROPOLITANA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -434,30 +434,30 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones San Lorenzo S.A.</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>28/06/2022</t>
+          <t>06/02/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156307052&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154728377&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -495,17 +495,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>24/05/2022</t>
+          <t>28/06/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155919195&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156307052&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica El Almendral 9 MW</t>
+          <t>Modificación Planta Depuradora de RILes Empresa San Lorenzo S.A.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>GR Temo SpA</t>
+          <t>Sociedad de Inversiones San Lorenzo S.A.</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>9900</v>
+        <v>150</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>21/04/2022</t>
+          <t>24/05/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155641786&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155919195&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Modificación Planta Depuradora de RILes Empresa San Lorenzo S.A.</t>
+          <t>Planta Fotovoltaica El Almendral 9 MW</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones San Lorenzo S.A.</t>
+          <t>GR Temo SpA</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>150</v>
+        <v>9900</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>24/09/2021</t>
+          <t>21/04/2022</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153195844&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155641786&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE RILES DE LA PRODUCCIÓN DE PASAS</t>
+          <t>Modificación Planta Depuradora de RILes Empresa San Lorenzo S.A.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -635,21 +635,21 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>23/04/2021</t>
+          <t>24/09/2021</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151534059&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153195844&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ampliación Parque Fotovoltaico Mauco</t>
+          <t>PLANTA DE TRATAMIENTO DE RILES DE LA PRODUCCIÓN DE PASAS</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>PMGD Mauco SpA</t>
+          <t>Sociedad de Inversiones San Lorenzo S.A.</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2400</v>
+        <v>500</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>22/04/2021</t>
+          <t>23/04/2021</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151523276&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151534059&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Riles de la Producción de Pasas</t>
+          <t>Ampliación Parque Fotovoltaico Mauco</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,25 +727,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones San Lorenzo S.A.</t>
+          <t>PMGD Mauco SpA</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>500</v>
+        <v>2400</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>24/02/2021</t>
+          <t>22/04/2021</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150834733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151523276&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -783,7 +783,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>18/01/2021</t>
+          <t>24/02/2021</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149745663&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150834733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Repotenciamiento Proyecto PMGD Mauco Solar II</t>
+          <t>Planta de Tratamiento de Riles de la Producción de Pasas</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,25 +823,25 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>PMGD Mauco SpA</t>
+          <t>Sociedad de Inversiones San Lorenzo S.A.</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2381</v>
+        <v>500</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>22/05/2020</t>
+          <t>18/01/2021</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146646204&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149745663&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Riles de la Producción de Pasas</t>
+          <t>Repotenciamiento Proyecto PMGD Mauco Solar II</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,15 +871,15 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>SOCIEDAD EXPORTADORA SANTIS FRUT LIMITADA</t>
+          <t>PMGD Mauco SpA</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>500</v>
+        <v>2381</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>23/04/2020</t>
+          <t>22/05/2020</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146363195&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146646204&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Almendra</t>
+          <t>Planta de Tratamiento de Riles de la Producción de Pasas</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,15 +919,15 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Solek Chile Services SpA</t>
+          <t>SOCIEDAD EXPORTADORA SANTIS FRUT LIMITADA</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>7500</v>
+        <v>500</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>20/04/2020</t>
+          <t>23/04/2020</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146343726&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146363195&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Peligrosas</t>
+          <t>Parque Fotovoltaico Almendra</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -962,30 +962,30 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Daniel Ocaña Medina</t>
+          <t>Solek Chile Services SpA</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>27/01/2020</t>
+          <t>20/04/2020</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145507755&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146343726&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL PLANTA DE TRATAMIENTO DE RILES DE LA PRODUCCIÓN DE PASAS</t>
+          <t>Transportes de Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1010,30 +1010,30 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>SOCIEDAD EXPORTADORA SANTIS FRUT LIMITADA</t>
+          <t>Daniel Ocaña Medina</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>500</v>
+        <v>4000</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>24/01/2020</t>
+          <t>27/01/2020</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145470294&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145507755&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL PLANTA DE TRATAMIENTO DE RILES DE LA PRODUCCIÓN DE PASAS</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1058,30 +1058,30 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>SOCIEDAD EXPORTADORA SANTIS FRUT LIMITADA</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>25000</v>
+        <v>500</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>07/01/2020</t>
+          <t>24/01/2020</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145470294&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>DIA Planta de Tratamiento de RILes de la Producción de pasas</t>
+          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1106,30 +1106,30 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>SOCIEDAD EXPORTADORA SANTIS FRUT LIMITADA</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>500</v>
+        <v>25000</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>26/12/2019</t>
+          <t>07/01/2020</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145017793&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Peligrosas</t>
+          <t>DIA Planta de Tratamiento de RILes de la Producción de pasas</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1154,30 +1154,30 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Daniel Ocaña Medina</t>
+          <t>SOCIEDAD EXPORTADORA SANTIS FRUT LIMITADA</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>23/12/2019</t>
+          <t>26/12/2019</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145294997&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145017793&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN PLANTA DE TRATAMIENTO DE RILES SOC. EXPORTADORA SANTIS FRUT LTDA.</t>
+          <t>Transportes de Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1202,20 +1202,20 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones San Lorenzo S.A.</t>
+          <t>Daniel Ocaña Medina</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>23/05/2019</t>
+          <t>23/12/2019</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143274639&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145294997&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN PLANTA DE TRATAMIENTO DE RILES, Soc. Exportadora Santis Frut Ltda.</t>
+          <t>REGULARIZACIÓN PLANTA DE TRATAMIENTO DE RILES SOC. EXPORTADORA SANTIS FRUT LTDA.</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1263,17 +1263,17 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>24/04/2019</t>
+          <t>23/05/2019</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143027895&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143274639&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MODIFICACION PLANTA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LÍQUIDOS A SISTEMA LOMBRIFILTRO</t>
+          <t>REGULARIZACIÓN PLANTA DE TRATAMIENTO DE RILES, Soc. Exportadora Santis Frut Ltda.</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,25 +1303,25 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Exportadores del Agro S. A.</t>
+          <t>Sociedad de Inversiones San Lorenzo S.A.</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>90</v>
+        <v>500</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>22/03/2019</t>
+          <t>24/04/2019</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132664224&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143027895&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Riles Provenientes del Proceso de la Deshidratación de Frutos</t>
+          <t>MODIFICACION PLANTA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LÍQUIDOS A SISTEMA LOMBRIFILTRO</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,25 +1351,25 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Comercial, Exportadora y de Servicios Frutos Secos del Valle Ltda.</t>
+          <t>Exportadores del Agro S. A.</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>20/02/2019</t>
+          <t>22/03/2019</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142527573&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132664224&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Transporte de ácido sulfúrico regiones de Antofagasta Atacama Coquimbo y Valparaíso</t>
+          <t>Planta de Tratamiento de Riles Provenientes del Proceso de la Deshidratación de Frutos</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1394,30 +1394,30 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Eric Alexis Fernando Aravena Aravena, Transporte de Carga y Movimiento de Tierra, Empresa Individual de Responsabilidad Limitada</t>
+          <t>Comercial, Exportadora y de Servicios Frutos Secos del Valle Ltda.</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>4000</v>
+        <v>5</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>27/06/2018</t>
+          <t>20/02/2019</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140826557&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142527573&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana</t>
+          <t>Transporte de ácido sulfúrico regiones de Antofagasta Atacama Coquimbo y Valparaíso</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,15 +1447,15 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>Eric Alexis Fernando Aravena Aravena, Transporte de Carga y Movimiento de Tierra, Empresa Individual de Responsabilidad Limitada</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>40</v>
+        <v>4000</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>31/05/2018</t>
+          <t>27/06/2018</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138785258&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140826557&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MODIFICACION PLANTA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LÍQUIDOS A SISTEMA LOMBRIFILTRO</t>
+          <t>Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1490,30 +1490,30 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Exportadores del Agro S. A.</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>23/11/2017</t>
+          <t>31/05/2018</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132827959&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138785258&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
+          <t>MODIFICACION PLANTA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LÍQUIDOS A SISTEMA LOMBRIFILTRO</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1538,20 +1538,20 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>Exportadores del Agro S. A.</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>10/10/2017</t>
+          <t>23/11/2017</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132756023&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132827959&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE AGUAS RESIDUALES MEDIANTE SISTEMA LOMBRIFILTRO PARA AGROPRODEX S.A.</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1586,20 +1586,20 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Exportadores del Agro S. A.</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>21/06/2017</t>
+          <t>10/10/2017</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132436305&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132756023&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS Y RESIDUOS PELIGROSOS ENTRE LA XV Y XIV REGIÓN DE CHILE</t>
+          <t>PLANTA DE TRATAMIENTO DE AGUAS RESIDUALES MEDIANTE SISTEMA LOMBRIFILTRO PARA AGROPRODEX S.A.</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1634,20 +1634,20 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Transportes Bolivar Limitada</t>
+          <t>Exportadores del Agro S. A.</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>20000</v>
+        <v>87</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>20/06/2017</t>
+          <t>21/06/2017</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132472307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132436305&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana".</t>
+          <t>TRANSPORTE DE SUSTANCIAS Y RESIDUOS PELIGROSOS ENTRE LA XV Y XIV REGIÓN DE CHILE</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,15 +1687,15 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>Transportes Bolivar Limitada</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>37</v>
+        <v>20000</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>12/06/2017</t>
+          <t>20/06/2017</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132387119&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132472307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Remodelación Estadio Fiscal de San Felipe</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana".</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1730,30 +1730,30 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Instituto Nacional de Deportes de Chile</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>16614</v>
+        <v>37</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>09/03/2017</t>
+          <t>12/06/2017</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132209396&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132387119&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Empréstito Cerro El Mauco</t>
+          <t>Remodelación Estadio Fiscal de San Felipe</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,25 +1783,25 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>OHL AUSTRAL S.A</t>
+          <t>Instituto Nacional de Deportes de Chile</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>7265</v>
+        <v>16614</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>08/02/2017</t>
+          <t>09/03/2017</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132131301&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132209396&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
+          <t>Empréstito Cerro El Mauco</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1826,20 +1826,20 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>OHL AUSTRAL S.A</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>37</v>
+        <v>7265</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>30/01/2017</t>
+          <t>08/02/2017</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132131301&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Habilitación de un módulo para acopio de material terreo en el CTI - La Hormiga</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1874,30 +1874,30 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Servicios GEA Ltda.</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>922</v>
+        <v>37</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>20/10/2016</t>
+          <t>30/01/2017</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131882867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>PROYECTO FOTOVOLTAICO ENCON SOLAR</t>
+          <t>Habilitación de un módulo para acopio de material terreo en el CTI - La Hormiga</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,25 +1927,25 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Loa Solar SPA</t>
+          <t>Servicios GEA Ltda.</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>15300</v>
+        <v>922</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>23/12/2015</t>
+          <t>20/10/2016</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131012494&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131882867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Extracción Mecanizada de Áridos Río Aconcagua, Proyecto Camino Internacional Ruta 60CH Sector 1 Tramo 2 Variante Panquehue</t>
+          <t>PROYECTO FOTOVOLTAICO ENCON SOLAR</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,15 +1975,15 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>OHL AUSTRAL S.A</t>
+          <t>Loa Solar SPA</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>10000</v>
+        <v>15300</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>21/09/2015</t>
+          <t>23/12/2015</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130761962&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131012494&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Extracción Mecanizada de Áridos Río Aconcagua, Proyecto Camino Internacional Ruta 60CH Sector 1 Tramo 2 Variante Panquehue</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2018,30 +2018,30 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>OHL AUSTRAL S.A</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>26/01/2015</t>
+          <t>21/09/2015</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130761962&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2079,7 +2079,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>26/12/2014</t>
+          <t>26/01/2015</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,25 +2119,25 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>10</v>
+        <v>5000</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>24/12/2014</t>
+          <t>26/12/2014</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Planta Depuradora de Aguas SANTIS FRUT LTDA.</t>
+          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2162,30 +2162,30 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Omar Peter Santisteban Alejos</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>22/12/2014</t>
+          <t>24/12/2014</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129814159&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Planta Depuradora de Aguas SANTIS FRUT LTDA.</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2210,20 +2210,20 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Omar Peter Santisteban Alejos</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>5000</v>
+        <v>300</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>20/11/2014</t>
+          <t>22/12/2014</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129814159&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Centro de Manejo y Estabilización de Lodos Secundarios, Empresa Conservera Pentzke S.A.</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2258,30 +2258,30 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Conservera Pentzke S.A.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>160</v>
+        <v>5000</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>18/11/2014</t>
+          <t>20/11/2014</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129892252&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
+          <t>Centro de Manejo y Estabilización de Lodos Secundarios, Empresa Conservera Pentzke S.A.</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2306,30 +2306,30 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Conservera Pentzke S.A.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>6750</v>
+        <v>160</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>13/11/2014</t>
+          <t>18/11/2014</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129892252&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,25 +2359,25 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>5000</v>
+        <v>6750</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>05/11/2014</t>
+          <t>13/11/2014</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Planta Procesadora de Frutas Secas - Profrusec S.A.</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2402,30 +2402,30 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Procesadora de Frutas Secas S.A.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>14/10/2014</t>
+          <t>05/11/2014</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129869574&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Centro de Manejo Y Estabilización de Lodos Secundarios. Empresa Conservera Pentzke S.A.</t>
+          <t>Planta Procesadora de Frutas Secas - Profrusec S.A.</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,25 +2455,25 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Conservera Pentzke S.A.</t>
+          <t>Procesadora de Frutas Secas S.A.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>160</v>
+        <v>2000</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>22/09/2014</t>
+          <t>14/10/2014</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129817865&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129869574&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Planta Procesadora de Frutas Secas - Profusec S.A.</t>
+          <t>Centro de Manejo Y Estabilización de Lodos Secundarios. Empresa Conservera Pentzke S.A.</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,15 +2503,15 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Procesadora de Frutas Secas S.A.</t>
+          <t>Conservera Pentzke S.A.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2000</v>
+        <v>160</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>09/09/2014</t>
+          <t>22/09/2014</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129766998&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129817865&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Centro de Manejo y Estabilización de Lodos Secundarios, Empresa Conservera Pentzke S.A.</t>
+          <t>Planta Procesadora de Frutas Secas - Profusec S.A.</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,15 +2551,15 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Conservera Pentzke S.A.</t>
+          <t>Procesadora de Frutas Secas S.A.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>160</v>
+        <v>2000</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>19/08/2014</t>
+          <t>09/09/2014</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129701711&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129766998&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Centro de Manejo y Estabilización de Lodos Secundarios, Empresa Conservera Pentzke S.A.</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2594,30 +2594,30 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Conservera Pentzke S.A.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>17000</v>
+        <v>160</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>08/08/2014</t>
+          <t>19/08/2014</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129696857&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129701711&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2655,17 +2655,17 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>24/07/2014</t>
+          <t>08/08/2014</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129649559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129696857&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,15 +2695,15 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>30/06/2014</t>
+          <t>24/07/2014</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129649559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Extracción mecanizada de áridos y mejoramiento del rio Aconcagua proyecto camino internacional ruta 60 CH sector 1 tramo 2 variante Panquehue</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2738,30 +2738,30 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>OHL Austral S.A</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>04/04/2014</t>
+          <t>30/06/2014</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129299233&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Defensas Fluviales Tramos 6 y 7 Comunas de Panquehue y San Felipe de la Ruta 60 CH</t>
+          <t>Extracción mecanizada de áridos y mejoramiento del rio Aconcagua proyecto camino internacional ruta 60 CH sector 1 tramo 2 variante Panquehue</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,25 +2791,25 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Sociedad Concesionaria Autopista De Los Andes S.A.</t>
+          <t>OHL Austral S.A</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>32775</v>
+        <v>13000</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>12/03/2014</t>
+          <t>04/04/2014</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129320274&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129299233&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
+          <t>Defensas Fluviales Tramos 6 y 7 Comunas de Panquehue y San Felipe de la Ruta 60 CH</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2834,30 +2834,30 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>VERATRANS SPA</t>
+          <t>Sociedad Concesionaria Autopista De Los Andes S.A.</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>800</v>
+        <v>32775</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>12/03/2014</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129320274&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,11 +2887,11 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>VERATRANS SPA</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2900,12 +2900,12 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Planta Procesadora de Frutas Secas - Profusec S.A.</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2930,16 +2930,16 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Procesadora de Frutas Secas S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>2000</v>
+        <v>1200</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2948,12 +2948,12 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952263&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2991,17 +2991,17 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>12/12/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128861297&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952263&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
+          <t>Planta Procesadora de Frutas Secas - Profusec S.A.</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3026,20 +3026,20 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Procesadora de Frutas Secas S.A.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>08/11/2013</t>
+          <t>12/12/2013</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128861297&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSALTISA CHILE LTDA</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,25 +3079,25 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>2050</v>
+        <v>5000</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>19/07/2013</t>
+          <t>08/11/2013</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8365483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSALTISA CHILE LTDA</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,15 +3127,15 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>0</v>
+        <v>2050</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>21/06/2013</t>
+          <t>19/07/2013</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8365483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,25 +3175,25 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>2050</v>
+        <v>0</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>31/05/2013</t>
+          <t>21/06/2013</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,25 +3223,25 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>250</v>
+        <v>2050</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>31/05/2013</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3279,17 +3279,17 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3327,7 +3327,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,25 +3367,25 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1500</v>
+        <v>250</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>22/02/2013</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Aumento de la Capacidad de Procesamiento, Optimización de Planta Bellavista y Ampliación de Embalse de Relave</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3410,20 +3410,20 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>minera clarita chile s.a</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>31/10/2012</t>
+          <t>22/02/2013</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3433,7 +3433,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7439753&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>BODEGAS DE CAL SAN FELIPE</t>
+          <t>Aumento de la Capacidad de Procesamiento, Optimización de Planta Bellavista y Ampliación de Embalse de Relave</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,15 +3463,15 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Transportes Servired Ltda</t>
+          <t>minera clarita chile s.a</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>24/09/2012</t>
+          <t>31/10/2012</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7269881&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7439753&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>"Estacionamientos Subterráneos y Superficie, Plaza de Armas de San Felipe"</t>
+          <t>BODEGAS DE CAL SAN FELIPE</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,25 +3511,25 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Sociedad Concesionaria de Estacionamientos de San Felipe</t>
+          <t>Transportes Servired Ltda</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>9500</v>
+        <v>1000</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>28/08/2012</t>
+          <t>24/09/2012</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7270812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7269881&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>"Estacionamientos Subterráneos y Superficie, Plaza de Armas de San Felipe"</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3554,30 +3554,30 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Sociedad Concesionaria de Estacionamientos de San Felipe</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>15000</v>
+        <v>9500</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>31/07/2012</t>
+          <t>28/08/2012</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7270812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>"TRANSPORTE INTERREGIONAL DE ÓXIDO DE CALCIO"</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,15 +3607,15 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>706</v>
+        <v>15000</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>10/07/2012</t>
+          <t>31/07/2012</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7094187&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>SiSTEMA DE TRATAMIENTO Y DISPOSICIÓN DE RILES DE CARTER FRUITS AGROINDUSTRIAL S.A</t>
+          <t>"TRANSPORTE INTERREGIONAL DE ÓXIDO DE CALCIO"</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3650,20 +3650,20 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>CARTER FRUITS AGROINDUSTRIAL S.A</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>50</v>
+        <v>706</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>03/07/2012</t>
+          <t>10/07/2012</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7072163&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7094187&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO Y DISPOSICIÓN DE RILES DE CARTER FRUITS AGROINDUSTRIAL S.A</t>
+          <t>SiSTEMA DE TRATAMIENTO Y DISPOSICIÓN DE RILES DE CARTER FRUITS AGROINDUSTRIAL S.A</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3711,17 +3711,17 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>22/06/2012</t>
+          <t>03/07/2012</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7034845&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7072163&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Óxido de Calcio</t>
+          <t>SISTEMA DE TRATAMIENTO Y DISPOSICIÓN DE RILES DE CARTER FRUITS AGROINDUSTRIAL S.A</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3746,20 +3746,20 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>CARTER FRUITS AGROINDUSTRIAL S.A</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>706</v>
+        <v>50</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>20/06/2012</t>
+          <t>22/06/2012</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7034845&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,15 +3799,15 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>5000</v>
+        <v>706</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>20/06/2012</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO Y DISPOSICIÓN DE RILES DE CARTER FRUITS AGROINDUSTRIAL S.A</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3842,20 +3842,20 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>CARTER FRUITS AGROINDUSTRIAL S.A</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>50</v>
+        <v>5000</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>04/05/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6866711&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>SISTEMA DE TRATAMIENTO Y DISPOSICIÓN DE RILES DE CARTER FRUITS AGROINDUSTRIAL S.A</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3890,20 +3890,20 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>CARTER FRUITS AGROINDUSTRIAL S.A</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>27/03/2012</t>
+          <t>04/05/2012</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6866711&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,15 +3943,15 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>27/03/2012</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>"Manejo Integral de Residuos Orgánicos Mediante Sistema de Compostaje"</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3986,30 +3986,30 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Conservera Pentzke S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>17/02/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6616804&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Manejo Integral de Residuos Orgánicos Mediante Sistema de Compostaje</t>
+          <t>"Manejo Integral de Residuos Orgánicos Mediante Sistema de Compostaje"</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4047,17 +4047,17 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>14/02/2012</t>
+          <t>17/02/2012</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6571052&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6616804&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Manejo Integral de Residuos Orgánicos Mediante Sistema de Compostaje</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4082,20 +4082,20 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Conservera Pentzke S.A.</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>14/02/2012</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -4105,7 +4105,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6571052&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,15 +4135,15 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE RILES NEW AGRA</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4178,30 +4178,30 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>AGROINDUSTRIA NEW AGRA LIMITADA</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>22/12/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6391483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>PLANTA DE TRATAMIENTO DE RILES NEW AGRA</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4226,30 +4226,30 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>AGROINDUSTRIA NEW AGRA LIMITADA</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>21/11/2011</t>
+          <t>22/12/2011</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6391483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4279,15 +4279,15 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Transportes Alcayaga y Rovira Ltda.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>08/11/2011</t>
+          <t>21/11/2011</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -4297,7 +4297,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6183206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,15 +4327,15 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Transportes Alcayaga y Rovira Ltda.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>319</v>
+        <v>200</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>04/10/2011</t>
+          <t>08/11/2011</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6183206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>"Transporte de Cal Viva"</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,25 +4375,25 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Transportes Servired Ltda</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>9000</v>
+        <v>319</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>30/05/2011</t>
+          <t>04/10/2011</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5670904&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
+          <t>"Transporte de Cal Viva"</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4431,17 +4431,17 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>11/05/2011</t>
+          <t>30/05/2011</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5670904&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
+          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,25 +4471,25 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Transportes Servired Ltda</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>250</v>
+        <v>9000</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>27/04/2011</t>
+          <t>11/05/2011</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
+          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4527,17 +4527,17 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>15/04/2011</t>
+          <t>27/04/2011</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
+          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4567,25 +4567,25 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>12000</v>
+        <v>250</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>14/04/2011</t>
+          <t>15/04/2011</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5537784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4623,17 +4623,17 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>29/03/2011</t>
+          <t>14/04/2011</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5485763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5537784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas y Residuos Peligrosos entre la XV Región de Arica y Parinacota hasta la VI Región del Libertador General Bernardo O'Higgins y la XIII Región Metropolitana de Santiago</t>
+          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,25 +4663,25 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>5042</v>
+        <v>12000</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>24/03/2011</t>
+          <t>29/03/2011</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5460886&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5485763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES Y XIII REGION METROPOLITANA TRANSPORTE DE SUSTANCIAS PELGROSAS Y RESIDUOS PEL</t>
+          <t>Transporte de Sustancias Peligrosas y Residuos Peligrosos entre la XV Región de Arica y Parinacota hasta la VI Región del Libertador General Bernardo O'Higgins y la XIII Región Metropolitana de Santiago</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4719,17 +4719,17 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>07/03/2011</t>
+          <t>24/03/2011</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5413116&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5460886&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION METROPOLITANA .</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES Y XIII REGION METROPOLITANA TRANSPORTE DE SUSTANCIAS PELGROSAS Y RESIDUOS PEL</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4763,11 +4763,11 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>4800</v>
+        <v>5042</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>09/02/2011</t>
+          <t>07/03/2011</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5103366&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5413116&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION METROPOLITANA .</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,15 +4807,15 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>19000</v>
+        <v>4800</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>01/12/2010</t>
+          <t>09/02/2011</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -4825,7 +4825,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5062785&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5103366&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4859,11 +4859,11 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>17700</v>
+        <v>19000</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>28/09/2010</t>
+          <t>01/12/2010</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -4873,7 +4873,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4949829&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5062785&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,25 +4903,25 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>563</v>
+        <v>17700</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>24/09/2010</t>
+          <t>28/09/2010</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4949829&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,11 +4951,11 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -4964,12 +4964,12 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,25 +4999,25 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>1750</v>
+        <v>4800</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>23/08/2010</t>
+          <t>24/09/2010</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4865154&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5055,17 +5055,17 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>11/08/2010</t>
+          <t>23/08/2010</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4865154&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5095,25 +5095,25 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>300</v>
+        <v>1750</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>11/08/2010</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,25 +5143,25 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>1750</v>
+        <v>300</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>07/06/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribucion de anhídrido Sulfuroso Planta camino Putaendo</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,15 +5191,15 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Trefrut Ltda</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>20</v>
+        <v>1750</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>13/05/2010</t>
+          <t>07/06/2010</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -5209,7 +5209,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4565010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Almacenamiento y Distribucion de anhídrido Sulfuroso Planta camino Putaendo</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5239,25 +5239,25 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Trefrut Ltda</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>4050</v>
+        <v>20</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>03/05/2010</t>
+          <t>13/05/2010</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4565010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5287,15 +5287,15 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>250</v>
+        <v>4050</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>03/05/2010</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -5305,7 +5305,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5335,25 +5335,25 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>4050</v>
+        <v>250</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>24/03/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos, Transportes Bello</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5391,7 +5391,7 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>18/02/2010</t>
+          <t>24/03/2010</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -5401,7 +5401,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de residuos peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5431,25 +5431,25 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>250</v>
+        <v>4050</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>18/02/2010</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Distribución y almacenamiento de Anhídrido Sulfuroso Planta Camino Putaendo</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,25 +5479,25 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Trefrut Ltda</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>09/02/2010</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4370207&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Distribución y almacenamiento de Anhídrido Sulfuroso Planta Camino Putaendo</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5527,25 +5527,25 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Trefrut Ltda</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>09/02/2010</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4370207&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5575,7 +5575,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F109" t="n">
@@ -5588,12 +5588,12 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5631,17 +5631,17 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,25 +5671,25 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>08/01/2010</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias toxicas entre la II y VI region (incluye V region y region Metropolitana) (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,25 +5719,25 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Portland S.A.</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>1</v>
+        <v>350</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>30/12/2009</t>
+          <t>08/01/2010</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4277546&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>Transporte terrestre de sustancias toxicas entre la II y VI region (incluye V region y region Metropolitana) (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,15 +5767,15 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Portland S.A.</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>30/12/2009</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -5785,7 +5785,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4277546&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5815,25 +5815,25 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>15/10/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5871,7 +5871,7 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>23/09/2009</t>
+          <t>15/10/2009</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -5881,7 +5881,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5919,17 +5919,17 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>18/08/2009</t>
+          <t>23/09/2009</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5959,15 +5959,15 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F117" t="n">
-        <v>22</v>
+        <v>250</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>18/08/2009</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -5977,7 +5977,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,25 +6007,25 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>300</v>
+        <v>22</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,25 +6055,25 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>1750</v>
+        <v>300</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>29/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,25 +6103,25 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>250</v>
+        <v>1750</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>29/10/2008</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6159,7 +6159,7 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -6169,7 +6169,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,25 +6199,25 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>1750</v>
+        <v>250</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>30/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6247,25 +6247,25 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>20</v>
+        <v>1750</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>16/09/2008</t>
+          <t>30/09/2008</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6295,25 +6295,25 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>250</v>
+        <v>20</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>16/09/2008</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Transporte Cinco (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,25 +6343,25 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Transportes Cinco Limitada</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>3408</v>
+        <v>250</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>18/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3111632&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas, Transporte Cinco (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6391,25 +6391,25 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes Cinco Limitada</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>20</v>
+        <v>3408</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>18/08/2008</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3111632&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6447,17 +6447,17 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6487,25 +6487,25 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F128" t="n">
-        <v>500</v>
+        <v>20</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>10/06/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Proyecto Educativo, Universidad de Viña del Mar, Sede San Felipe (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6530,30 +6530,30 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>José Ignacio Martínez Bengoa</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>1903</v>
+        <v>500</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>05/06/2008</t>
+          <t>10/06/2008</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2942321&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Proyecto Educativo, Universidad de Viña del Mar, Sede San Felipe (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6578,20 +6578,20 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>José Ignacio Martínez Bengoa</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>20</v>
+        <v>1903</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>30/05/2008</t>
+          <t>05/06/2008</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -6601,7 +6601,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2942321&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,36 +6616,40 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>CENTRO DE TRATAMIENTO INTEGRAL DE RESIDUOS SOLIDOS LA HORMIGA</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr"/>
+          <t>transporte de residuos peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Servicios GEA Ltda.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>5800</v>
+        <v>20</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>15/05/2008</t>
+          <t>30/05/2008</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2904946&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6679,17 +6683,17 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>17/04/2008</t>
+          <t>15/05/2008</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2850926&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2904946&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6704,40 +6708,36 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>CENTRO DE TRATAMIENTO INTEGRAL DE RESIDUOS SOLIDOS LA HORMIGA</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr"/>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Servicios GEA Ltda.</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>1750</v>
+        <v>5800</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>26/02/2008</t>
+          <t>17/04/2008</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2680876&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2850926&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6752,7 +6752,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6767,25 +6767,25 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>429</v>
+        <v>1750</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>26/02/2008</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2680876&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6800,7 +6800,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6815,25 +6815,25 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>234</v>
+        <v>429</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6848,7 +6848,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6863,15 +6863,15 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -6881,7 +6881,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6896,7 +6896,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6911,15 +6911,15 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -6929,7 +6929,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6944,7 +6944,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Planta depuradora de aguas Conservera Pentzke S.A. (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6954,30 +6954,30 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Empresa de Alimentos y Conservas San Clemente SpA</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>3000</v>
+        <v>300</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>06/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2191252&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7007,7 +7007,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Conservera Pentzke S.A.</t>
+          <t>Empresa de Alimentos y Conservas San Clemente SpA</t>
         </is>
       </c>
       <c r="F139" t="n">
@@ -7015,17 +7015,17 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>30/05/2007</t>
+          <t>06/06/2007</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2179720&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2191252&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7040,7 +7040,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Líquidos de Planta San Felipe Dole Chile S.A. (e-seia)</t>
+          <t>Planta depuradora de aguas Conservera Pentzke S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7055,25 +7055,25 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Dole Chile S.A</t>
+          <t>Conservera Pentzke S.A.</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>10</v>
+        <v>3000</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>11/04/2007</t>
+          <t>30/05/2007</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2099658&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2179720&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7088,7 +7088,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Líquidos de Planta San Felipe Dole Chile S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7098,30 +7098,30 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Dole Chile S.A</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>11/04/2007</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2099658&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7136,7 +7136,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7155,21 +7155,21 @@
         </is>
       </c>
       <c r="F142" t="n">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7184,7 +7184,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7199,25 +7199,25 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7232,7 +7232,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7255,17 +7255,17 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7280,7 +7280,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7295,25 +7295,25 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7328,7 +7328,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las regiones I, II, III, IV, VII y Región Metropolitana (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7343,7 +7343,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F146" t="n">
@@ -7351,17 +7351,17 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>22/11/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1821133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7376,7 +7376,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las regiones I, II, III, IV, VII y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7391,7 +7391,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F147" t="n">
@@ -7399,17 +7399,17 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>10/11/2006</t>
+          <t>22/11/2006</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1821133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7424,7 +7424,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, VI, VII y RM, "Transportes Bello" (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7439,7 +7439,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F148" t="n">
@@ -7447,17 +7447,17 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>02/11/2006</t>
+          <t>10/11/2006</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7472,7 +7472,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, VI, VII y RM, "Transportes Bello" (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7487,7 +7487,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F149" t="n">
@@ -7495,7 +7495,7 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>25/10/2006</t>
+          <t>02/11/2006</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -7505,7 +7505,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7520,7 +7520,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
+          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7535,15 +7535,15 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Trans-residuos</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>28/09/2006</t>
+          <t>25/10/2006</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -7553,7 +7553,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7568,40 +7568,40 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Defensas Fluviales Río Aconcagua para camino Internacional Ruta 60 Ch Sector 1 Los Andes - Panquehue V Región</t>
+          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Sociedad Concesionaria Autopista Los Andes S.A</t>
+          <t>Empresa de Transportes Trans-residuos</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>06/09/2006</t>
+          <t>28/09/2006</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1701224&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7616,30 +7616,30 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
+          <t>Defensas Fluviales Río Aconcagua para camino Internacional Ruta 60 Ch Sector 1 Los Andes - Panquehue V Región</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
+          <t>Sociedad Concesionaria Autopista Los Andes S.A</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>09/08/2006</t>
+          <t>06/09/2006</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -7649,7 +7649,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1701224&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7664,40 +7664,40 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Defensas Fluviales Río Aconcagua para camino Internacional Ruta 60 CH Sector 1 Los Andes - Panquehue V Región</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Sociedad Concesionaria Autopista Los Andes S.A</t>
+          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>20000</v>
+        <v>80</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>23/06/2006</t>
+          <t>09/08/2006</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1485343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7712,40 +7712,40 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
+          <t>Defensas Fluviales Río Aconcagua para camino Internacional Ruta 60 CH Sector 1 Los Andes - Panquehue V Región</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>mario enrique barra diaz</t>
+          <t>Sociedad Concesionaria Autopista Los Andes S.A</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>80</v>
+        <v>20000</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>22/06/2006</t>
+          <t>23/06/2006</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1485343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7760,7 +7760,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7775,25 +7775,25 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>mario enrique barra diaz</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>500</v>
+        <v>80</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>22/06/2006</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7808,7 +7808,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7831,17 +7831,17 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7856,7 +7856,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7871,25 +7871,25 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7904,7 +7904,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>PLAN REGIONAL DE DESARROLLO URBANO Y TERRITORIAL, REGIÓN DE VALPARAÍSO (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7914,30 +7914,30 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región de Valparaíso</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>08/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1331410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7952,7 +7952,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>PLAN REGIONAL DE DESARROLLO URBANO Y TERRITORIAL, REGIÓN DE VALPARAÍSO (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7962,30 +7962,30 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región de Valparaíso</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>08/03/2006</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1331410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8000,7 +8000,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8015,25 +8015,25 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Iris Leiva ALbornoz Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>02/03/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8048,7 +8048,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8063,25 +8063,25 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>Iris Leiva ALbornoz Ltda.</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>02/03/2006</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8096,7 +8096,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8111,7 +8111,7 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F162" t="n">
@@ -8119,17 +8119,17 @@
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8144,7 +8144,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano y Territorial PRDUT V, Región de Valparaíso (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8154,30 +8154,30 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>SEREMI MINVU V REGIÓN</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>16/12/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1169202&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8192,7 +8192,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano y Territorial PRDUT V, Región de Valparaíso (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8202,12 +8202,12 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Transportes Reciclar Limitada</t>
+          <t>SEREMI MINVU V REGIÓN</t>
         </is>
       </c>
       <c r="F164" t="n">
@@ -8215,17 +8215,17 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>12/12/2005</t>
+          <t>16/12/2005</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1150168&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1169202&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8240,7 +8240,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
+          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8255,15 +8255,15 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Transportes Reciclar Limitada</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>3517</v>
+        <v>0</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>15/11/2005</t>
+          <t>12/12/2005</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
@@ -8273,7 +8273,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1150168&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8288,7 +8288,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8303,15 +8303,15 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>160</v>
+        <v>3517</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>15/11/2005</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
@@ -8321,7 +8321,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8336,7 +8336,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8351,25 +8351,25 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>03/11/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8384,7 +8384,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
+          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8399,7 +8399,7 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Proactiva Servicios Industriales S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F168" t="n">
@@ -8407,17 +8407,17 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>28/10/2005</t>
+          <t>03/11/2005</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8432,7 +8432,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8447,15 +8447,15 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Proactiva Servicios Industriales S.A.</t>
         </is>
       </c>
       <c r="F169" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>28/10/2005</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
@@ -8465,7 +8465,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8480,7 +8480,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8495,15 +8495,15 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>855</v>
+        <v>200</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>19/04/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -8513,7 +8513,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8543,7 +8543,7 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F171" t="n">
@@ -8551,17 +8551,17 @@
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>31/03/2005</t>
+          <t>19/04/2005</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8576,7 +8576,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Fabrica de Cerámicos Diamant S.A. (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -8586,30 +8586,30 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Ceramicas Diamant S. A.</t>
+          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
         </is>
       </c>
       <c r="F172" t="n">
-        <v>12000</v>
+        <v>855</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>07/02/2005</t>
+          <t>31/03/2005</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=591640&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8624,7 +8624,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
+          <t>Fabrica de Cerámicos Diamant S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8634,20 +8634,20 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Los Ríos S.A.</t>
+          <t>Ceramicas Diamant S. A.</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>1</v>
+        <v>12000</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>08/11/2004</t>
+          <t>07/02/2005</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -8657,7 +8657,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=591640&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8672,7 +8672,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
+          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8687,15 +8687,15 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Empresa de Transportes Los Ríos S.A.</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>21/06/2004</t>
+          <t>08/11/2004</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -8705,7 +8705,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377075&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8720,7 +8720,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Curimon (e-seia)</t>
+          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8730,20 +8730,20 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>ESVAL S.A.</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>993</v>
+        <v>200</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>10/05/2004</t>
+          <t>21/06/2004</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
@@ -8753,7 +8753,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=345465&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377075&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8768,7 +8768,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas Curimon (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8778,20 +8778,20 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>ESVAL S.A.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>200</v>
+        <v>993</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>09/09/2003</t>
+          <t>10/05/2004</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
@@ -8801,7 +8801,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=345465&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8816,7 +8816,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Instalaciones Agroindustrial Agrícola Santis Frut</t>
+          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8826,30 +8826,30 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Agrícola Santis Frut Ltda.</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>440</v>
+        <v>200</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>10/03/2003</t>
+          <t>09/09/2003</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Revocado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6222&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8864,7 +8864,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I y la VI Región</t>
+          <t>Instalaciones Agroindustrial Agrícola Santis Frut</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8874,30 +8874,30 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Transportes Molina Limitada</t>
+          <t>Agrícola Santis Frut Ltda.</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>0</v>
+        <v>440</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>07/02/2003</t>
+          <t>10/03/2003</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6186&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6222&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8912,7 +8912,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de sustancias tóxicas entre la II y VI Región (incluye la V Región y Región Metropolitana)</t>
+          <t>Transporte de Sustancias Peligrosas entre la I y la VI Región</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8927,15 +8927,15 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Transportes Molina Limitada</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>31/01/2003</t>
+          <t>07/02/2003</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
@@ -8945,7 +8945,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6180&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6186&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8960,7 +8960,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Transporte de Explosivos Accesorios y Materias Primas Usadas en Tronaduras de la Minería y Obras Civiles</t>
+          <t>Transporte Terrestre de sustancias tóxicas entre la II y VI Región (incluye la V Región y Región Metropolitana)</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8975,15 +8975,15 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Explonor S.A.</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>18/12/2002</t>
+          <t>31/01/2003</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
@@ -8993,7 +8993,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6128&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6180&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9008,7 +9008,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de Explosivos Accesorios y Materias Primas Usadas en Tronaduras de la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9023,15 +9023,15 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>Explonor S.A.</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>18/11/2002</t>
+          <t>18/12/2002</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
@@ -9041,7 +9041,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6128&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9056,7 +9056,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9071,11 +9071,11 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9084,12 +9084,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9104,7 +9104,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento Biológico de Residuos Orgánicos</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9114,30 +9114,30 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Servicios Gea Ltda.</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>17/05/2002</t>
+          <t>18/11/2002</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9152,7 +9152,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Acido Sulfúrico En y Entre Las Regiones I y VI (Transporte Valdatta S.A.)</t>
+          <t>Planta de Tratamiento Biológico de Residuos Orgánicos</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9162,20 +9162,20 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Transportes Valdatta S.A.</t>
+          <t>Servicios Gea Ltda.</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>01/03/2002</t>
+          <t>17/05/2002</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
@@ -9185,7 +9185,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5189&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9200,7 +9200,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Instalaciones Agroindustrial Planta de Tratamientos de los Residuos Industriales Líquidos de la Planta Industrial Agrícola Santis Frut Ltda.</t>
+          <t>Transporte Terrestre de Acido Sulfúrico En y Entre Las Regiones I y VI (Transporte Valdatta S.A.)</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9210,30 +9210,30 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Agrícola Santis Frut Ltda.</t>
+          <t>Transportes Valdatta S.A.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>490</v>
+        <v>0</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>22/02/2002</t>
+          <t>01/03/2002</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5130&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5189&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9248,7 +9248,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico en y entre las Regiones I y VI (Transportes Ilzauspe Ltda.)</t>
+          <t>Instalaciones Agroindustrial Planta de Tratamientos de los Residuos Industriales Líquidos de la Planta Industrial Agrícola Santis Frut Ltda.</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9258,30 +9258,30 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Agrícola Santis Frut Ltda.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>0</v>
+        <v>490</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>23/11/2001</t>
+          <t>22/02/2002</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4833&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5130&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9296,7 +9296,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico en y entre las Regiones I y VI (Transportes Ilzauspe Ltda.)</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9311,25 +9311,25 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>23/11/2001</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4833&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9344,7 +9344,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Expendio de Combustible YPF. Camino Casas Chicas de Quilpué</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9354,20 +9354,20 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Empresa de Transportes PUMA S.A.</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>28/08/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
@@ -9377,7 +9377,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9392,40 +9392,40 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Expansión División Andina</t>
+          <t>Expendio de Combustible YPF. Camino Casas Chicas de Quilpué</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Codelco División Andina</t>
+          <t>Empresa de Transportes PUMA S.A.</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>650000</v>
+        <v>30</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>08/06/2001</t>
+          <t>28/08/2001</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3992&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9440,30 +9440,30 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas San Felipe</t>
+          <t>Expansión División Andina</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>ESVAL S.A.</t>
+          <t>Codelco División Andina</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>5240</v>
+        <v>650000</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>28/03/2001</t>
+          <t>08/06/2001</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
@@ -9473,7 +9473,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3814&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3992&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9488,7 +9488,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Estación de Servicio YPF - San Felipe - Putaendo</t>
+          <t>Planta de Tratamiento de Aguas Servidas San Felipe</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -9503,15 +9503,15 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Inmobiliaria Don Marcos Ltda.</t>
+          <t>ESVAL S.A.</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>420</v>
+        <v>5240</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>28/07/2000</t>
+          <t>28/03/2001</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
@@ -9521,7 +9521,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3814&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9536,30 +9536,30 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Estación de Servicio YPF - San Felipe - Putaendo</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>Inmobiliaria Don Marcos Ltda.</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>3500</v>
+        <v>420</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>24/07/2000</t>
+          <t>28/07/2000</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
@@ -9569,7 +9569,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3052&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9584,12 +9584,12 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
+          <t>Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -9599,15 +9599,15 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>110</v>
+        <v>3500</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>14/02/2000</t>
+          <t>24/07/2000</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
@@ -9617,7 +9617,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3052&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9632,7 +9632,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Instalación de Estanques Subterráneos para Autoconsumo de Combustibles Terminal de Taxis Colectivos SINTAXFEL</t>
+          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9642,20 +9642,20 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Sindicato de Trabajadores Independientes de Taxistas Colectivos Línea Uno de San Felipe SINTAXFEL</t>
+          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>13/01/2000</t>
+          <t>14/02/2000</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -9665,7 +9665,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2614&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9680,7 +9680,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Construcción y Operación del Colegio Inglés Greenland College</t>
+          <t>Instalación de Estanques Subterráneos para Autoconsumo de Combustibles Terminal de Taxis Colectivos SINTAXFEL</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9695,15 +9695,15 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Inmobiliaria Greenland Limitada</t>
+          <t>Sindicato de Trabajadores Independientes de Taxistas Colectivos Línea Uno de San Felipe SINTAXFEL</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>360</v>
+        <v>10</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>12/11/1999</t>
+          <t>13/01/2000</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -9713,7 +9713,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2402&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2614&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9728,7 +9728,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Expendido al Público de Combustible YPF El Molino-San Martín</t>
+          <t>Construcción y Operación del Colegio Inglés Greenland College</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9743,15 +9743,15 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Gino Marcelo Rossi Villenas</t>
+          <t>Inmobiliaria Greenland Limitada</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>60</v>
+        <v>360</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>03/11/1999</t>
+          <t>12/11/1999</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -9761,7 +9761,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2393&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2402&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9776,7 +9776,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Central de Distribución de Gas Licuado - CURIMON</t>
+          <t>Expendido al Público de Combustible YPF El Molino-San Martín</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9791,15 +9791,15 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Gas Licuado LIPIGAS S.A.</t>
+          <t>Gino Marcelo Rossi Villenas</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>230</v>
+        <v>60</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>21/10/1999</t>
+          <t>03/11/1999</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -9809,7 +9809,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2352&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2393&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9824,7 +9824,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Planta de Producción y Venta de Estructuras de Aluminio</t>
+          <t>Central de Distribución de Gas Licuado - CURIMON</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9839,25 +9839,25 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Vidrios, Aluminios y Marqueteria Maipu Ltda.</t>
+          <t>Gas Licuado LIPIGAS S.A.</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>80</v>
+        <v>230</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>26/05/1999</t>
+          <t>21/10/1999</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1982&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2352&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9872,7 +9872,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
+          <t>Planta de Producción y Venta de Estructuras de Aluminio</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9882,30 +9882,30 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Transcargo Ltda</t>
+          <t>Vidrios, Aluminios y Marqueteria Maipu Ltda.</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>2500</v>
+        <v>80</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>13/04/1999</t>
+          <t>26/05/1999</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1982&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9920,7 +9920,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Sistema de Alcantarillado Sector Punta El Olivo y Loteo Nuevo Algarrobal San Felipe</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9930,20 +9930,20 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de San Felipe</t>
+          <t>Transcargo Ltda</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>470</v>
+        <v>2500</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>27/01/1999</t>
+          <t>13/04/1999</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
@@ -9953,7 +9953,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1637&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9968,7 +9968,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Sistema de Alcantarillado Sector Algarrobal San Felipe</t>
+          <t>Sistema de Alcantarillado Sector Punta El Olivo y Loteo Nuevo Algarrobal San Felipe</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9983,11 +9983,11 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>I. Municipalidad de San Felipe</t>
+          <t>Ilustre Municipalidad de San Felipe</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>850</v>
+        <v>470</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
@@ -10001,7 +10001,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1639&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1637&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10016,7 +10016,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Parque El Almendral de San Felipe</t>
+          <t>Sistema de Alcantarillado Sector Algarrobal San Felipe</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10031,15 +10031,15 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Inmobiliaria Comercial San Felipe Ltda.</t>
+          <t>I. Municipalidad de San Felipe</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>460</v>
+        <v>850</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>16/09/1997</t>
+          <t>27/01/1999</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
@@ -10049,7 +10049,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1639&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10064,39 +10064,87 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
+          <t>Parque El Almendral de San Felipe</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>Quinta</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>Inmobiliaria Comercial San Felipe Ltda.</t>
+        </is>
+      </c>
+      <c r="F203" t="n">
+        <v>460</v>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>16/09/1997</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=101&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>San Felipe</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>203</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
           <t>Planta de tratamiento de riles provenientes del proceso de la deshidratación de frutos</t>
         </is>
       </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D203" t="inlineStr">
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
         <is>
           <t>Quinta</t>
         </is>
       </c>
-      <c r="E203" t="inlineStr">
+      <c r="E204" t="inlineStr">
         <is>
           <t>Sergio Del Tránsito González León</t>
         </is>
       </c>
-      <c r="F203" t="n">
+      <c r="F204" t="n">
         <v>0</v>
       </c>
-      <c r="G203" t="inlineStr"/>
-      <c r="H203" t="inlineStr">
+      <c r="G204" t="inlineStr"/>
+      <c r="H204" t="inlineStr">
         <is>
           <t>Eliminados</t>
         </is>
       </c>
-      <c r="I203" t="inlineStr">
+      <c r="I204" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142456377&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J203" t="inlineStr">
+      <c r="J204" t="inlineStr">
         <is>
           <t>San Felipe</t>
         </is>

--- a/data/San Felipe.xlsx
+++ b/data/San Felipe.xlsx
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Planta Procesadora de Frutas Secas - Profusec S.A.</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2930,16 +2930,16 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Procesadora de Frutas Secas S.A.</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2948,12 +2948,12 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952263&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Planta Procesadora de Frutas Secas - Profusec S.A.</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2978,16 +2978,16 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Procesadora de Frutas Secas S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2000</v>
+        <v>1200</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2996,12 +2996,12 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952263&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,11 +4951,11 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -4964,12 +4964,12 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,11 +4999,11 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -5012,12 +5012,12 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">

--- a/data/San Felipe.xlsx
+++ b/data/San Felipe.xlsx
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Planta Procesadora de Frutas Secas - Profusec S.A.</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2930,16 +2930,16 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Procesadora de Frutas Secas S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>2000</v>
+        <v>1200</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2948,12 +2948,12 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952263&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Planta Procesadora de Frutas Secas - Profusec S.A.</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2978,16 +2978,16 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Procesadora de Frutas Secas S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2996,12 +2996,12 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952263&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,11 +4951,11 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -4964,12 +4964,12 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,11 +4999,11 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -5012,12 +5012,12 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">

--- a/data/San Felipe.xlsx
+++ b/data/San Felipe.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>06/02/2023</t>
+          <t>10/02/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/San Felipe.xlsx
+++ b/data/San Felipe.xlsx
@@ -596,7 +596,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Planta Procesadora de Frutas Secas - Profusec S.A.</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2930,16 +2930,16 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Procesadora de Frutas Secas S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>2000</v>
+        <v>1200</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2948,12 +2948,12 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952263&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Planta Procesadora de Frutas Secas - Profusec S.A.</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2978,16 +2978,16 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Procesadora de Frutas Secas S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2996,12 +2996,12 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952263&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,11 +4951,11 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -4964,12 +4964,12 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,11 +4999,11 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -5012,12 +5012,12 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">

--- a/data/San Felipe.xlsx
+++ b/data/San Felipe.xlsx
@@ -9455,7 +9455,7 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Codelco División Andina</t>
+          <t>Codelco Chile División Andina</t>
         </is>
       </c>
       <c r="F190" t="n">

--- a/data/San Felipe.xlsx
+++ b/data/San Felipe.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J204"/>
+  <dimension ref="A1:J205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DISTRIBUCIÓN DE ANHIDRIDO SULFUROSO ENTRE LAS REGIONES V, VI, VII Y METROPOLITANA</t>
+          <t>Parque Fotovoltaico Doña Pierina</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -434,30 +434,30 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>Grupotec Chile SpA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>30</v>
+        <v>9000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>10/02/2023</t>
+          <t>18/12/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154728377&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160821638&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Modificación Planta Depuradora de RILes Empresa San Lorenzo S.A.</t>
+          <t>DISTRIBUCIÓN DE ANHIDRIDO SULFUROSO ENTRE LAS REGIONES V, VI, VII Y METROPOLITANA</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -482,20 +482,20 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones San Lorenzo S.A.</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>28/06/2022</t>
+          <t>10/02/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156307052&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154728377&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -543,17 +543,17 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>24/05/2022</t>
+          <t>28/06/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155919195&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156307052&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Planta Fotovoltaica El Almendral 9 MW</t>
+          <t>Modificación Planta Depuradora de RILes Empresa San Lorenzo S.A.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>GR Temo SpA</t>
+          <t>Sociedad de Inversiones San Lorenzo S.A.</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>9900</v>
+        <v>150</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>21/04/2022</t>
+          <t>24/05/2022</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155641786&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155919195&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Modificación Planta Depuradora de RILes Empresa San Lorenzo S.A.</t>
+          <t>Planta Fotovoltaica El Almendral 9 MW</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones San Lorenzo S.A.</t>
+          <t>GR Temo SpA</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>150</v>
+        <v>9900</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>24/09/2021</t>
+          <t>21/04/2022</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153195844&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155641786&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE RILES DE LA PRODUCCIÓN DE PASAS</t>
+          <t>Modificación Planta Depuradora de RILes Empresa San Lorenzo S.A.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -683,21 +683,21 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>23/04/2021</t>
+          <t>24/09/2021</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151534059&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2153195844&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ampliación Parque Fotovoltaico Mauco</t>
+          <t>PLANTA DE TRATAMIENTO DE RILES DE LA PRODUCCIÓN DE PASAS</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,25 +727,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>PMGD Mauco SpA</t>
+          <t>Sociedad de Inversiones San Lorenzo S.A.</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2400</v>
+        <v>500</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>22/04/2021</t>
+          <t>23/04/2021</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151523276&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151534059&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Riles de la Producción de Pasas</t>
+          <t>Ampliación Parque Fotovoltaico Mauco</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,25 +775,25 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones San Lorenzo S.A.</t>
+          <t>PMGD Mauco SpA</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>500</v>
+        <v>2400</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>24/02/2021</t>
+          <t>22/04/2021</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150834733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151523276&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>18/01/2021</t>
+          <t>24/02/2021</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149745663&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2150834733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Repotenciamiento Proyecto PMGD Mauco Solar II</t>
+          <t>Planta de Tratamiento de Riles de la Producción de Pasas</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,25 +871,25 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>PMGD Mauco SpA</t>
+          <t>Sociedad de Inversiones San Lorenzo S.A.</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2381</v>
+        <v>500</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>22/05/2020</t>
+          <t>18/01/2021</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146646204&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2149745663&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Riles de la Producción de Pasas</t>
+          <t>Repotenciamiento Proyecto PMGD Mauco Solar II</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,15 +919,15 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>SOCIEDAD EXPORTADORA SANTIS FRUT LIMITADA</t>
+          <t>PMGD Mauco SpA</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>500</v>
+        <v>2381</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>23/04/2020</t>
+          <t>22/05/2020</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146363195&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146646204&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Almendra</t>
+          <t>Planta de Tratamiento de Riles de la Producción de Pasas</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,15 +967,15 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Solek Chile Services SpA</t>
+          <t>SOCIEDAD EXPORTADORA SANTIS FRUT LIMITADA</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>7500</v>
+        <v>500</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>20/04/2020</t>
+          <t>23/04/2020</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146343726&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146363195&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Peligrosas</t>
+          <t>Parque Fotovoltaico Almendra</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1010,30 +1010,30 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Daniel Ocaña Medina</t>
+          <t>Solek Chile Services SpA</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>4000</v>
+        <v>7500</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>27/01/2020</t>
+          <t>20/04/2020</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145507755&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2146343726&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL PLANTA DE TRATAMIENTO DE RILES DE LA PRODUCCIÓN DE PASAS</t>
+          <t>Transportes de Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1058,30 +1058,30 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>SOCIEDAD EXPORTADORA SANTIS FRUT LIMITADA</t>
+          <t>Daniel Ocaña Medina</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>500</v>
+        <v>4000</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>24/01/2020</t>
+          <t>27/01/2020</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145470294&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145507755&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL PLANTA DE TRATAMIENTO DE RILES DE LA PRODUCCIÓN DE PASAS</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1106,30 +1106,30 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>SOCIEDAD EXPORTADORA SANTIS FRUT LIMITADA</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>25000</v>
+        <v>500</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>07/01/2020</t>
+          <t>24/01/2020</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145470294&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>DIA Planta de Tratamiento de RILes de la Producción de pasas</t>
+          <t>Ampliación de la Actividad de Transporte de Sustancias Peligrosas de ENAEX Servicios S.A.</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1154,30 +1154,30 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>SOCIEDAD EXPORTADORA SANTIS FRUT LIMITADA</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>500</v>
+        <v>25000</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>26/12/2019</t>
+          <t>07/01/2020</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145017793&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145325740&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Peligrosas</t>
+          <t>DIA Planta de Tratamiento de RILes de la Producción de pasas</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1202,30 +1202,30 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Daniel Ocaña Medina</t>
+          <t>SOCIEDAD EXPORTADORA SANTIS FRUT LIMITADA</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>23/12/2019</t>
+          <t>26/12/2019</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145294997&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145017793&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN PLANTA DE TRATAMIENTO DE RILES SOC. EXPORTADORA SANTIS FRUT LTDA.</t>
+          <t>Transportes de Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1250,20 +1250,20 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones San Lorenzo S.A.</t>
+          <t>Daniel Ocaña Medina</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>23/05/2019</t>
+          <t>23/12/2019</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143274639&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2145294997&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN PLANTA DE TRATAMIENTO DE RILES, Soc. Exportadora Santis Frut Ltda.</t>
+          <t>REGULARIZACIÓN PLANTA DE TRATAMIENTO DE RILES SOC. EXPORTADORA SANTIS FRUT LTDA.</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1311,17 +1311,17 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>24/04/2019</t>
+          <t>23/05/2019</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143027895&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143274639&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MODIFICACION PLANTA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LÍQUIDOS A SISTEMA LOMBRIFILTRO</t>
+          <t>REGULARIZACIÓN PLANTA DE TRATAMIENTO DE RILES, Soc. Exportadora Santis Frut Ltda.</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,25 +1351,25 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Exportadores del Agro S. A.</t>
+          <t>Sociedad de Inversiones San Lorenzo S.A.</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>90</v>
+        <v>500</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>22/03/2019</t>
+          <t>24/04/2019</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132664224&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2143027895&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Riles Provenientes del Proceso de la Deshidratación de Frutos</t>
+          <t>MODIFICACION PLANTA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LÍQUIDOS A SISTEMA LOMBRIFILTRO</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,25 +1399,25 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Comercial, Exportadora y de Servicios Frutos Secos del Valle Ltda.</t>
+          <t>Exportadores del Agro S. A.</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>20/02/2019</t>
+          <t>22/03/2019</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142527573&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132664224&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Transporte de ácido sulfúrico regiones de Antofagasta Atacama Coquimbo y Valparaíso</t>
+          <t>Planta de Tratamiento de Riles Provenientes del Proceso de la Deshidratación de Frutos</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1442,30 +1442,30 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Eric Alexis Fernando Aravena Aravena, Transporte de Carga y Movimiento de Tierra, Empresa Individual de Responsabilidad Limitada</t>
+          <t>Comercial, Exportadora y de Servicios Frutos Secos del Valle Ltda.</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>4000</v>
+        <v>5</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>27/06/2018</t>
+          <t>20/02/2019</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140826557&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142527573&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana</t>
+          <t>Transporte de ácido sulfúrico regiones de Antofagasta Atacama Coquimbo y Valparaíso</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,15 +1495,15 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>Eric Alexis Fernando Aravena Aravena, Transporte de Carga y Movimiento de Tierra, Empresa Individual de Responsabilidad Limitada</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>40</v>
+        <v>4000</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>31/05/2018</t>
+          <t>27/06/2018</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138785258&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2140826557&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MODIFICACION PLANTA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LÍQUIDOS A SISTEMA LOMBRIFILTRO</t>
+          <t>Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1538,30 +1538,30 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Exportadores del Agro S. A.</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>23/11/2017</t>
+          <t>31/05/2018</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132827959&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2138785258&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
+          <t>MODIFICACION PLANTA DE TRATAMIENTO DE RESIDUOS INDUSTRIALES LÍQUIDOS A SISTEMA LOMBRIFILTRO</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1586,20 +1586,20 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>Exportadores del Agro S. A.</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>10/10/2017</t>
+          <t>23/11/2017</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132756023&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132827959&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE AGUAS RESIDUALES MEDIANTE SISTEMA LOMBRIFILTRO PARA AGROPRODEX S.A.</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1634,20 +1634,20 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Exportadores del Agro S. A.</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>21/06/2017</t>
+          <t>10/10/2017</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132436305&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132756023&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS Y RESIDUOS PELIGROSOS ENTRE LA XV Y XIV REGIÓN DE CHILE</t>
+          <t>PLANTA DE TRATAMIENTO DE AGUAS RESIDUALES MEDIANTE SISTEMA LOMBRIFILTRO PARA AGROPRODEX S.A.</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1682,20 +1682,20 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Transportes Bolivar Limitada</t>
+          <t>Exportadores del Agro S. A.</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>20000</v>
+        <v>87</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>20/06/2017</t>
+          <t>21/06/2017</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132472307&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132436305&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana".</t>
+          <t>TRANSPORTE DE SUSTANCIAS Y RESIDUOS PELIGROSOS ENTRE LA XV Y XIV REGIÓN DE CHILE</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,15 +1735,15 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>Transportes Bolivar Limitada</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>37</v>
+        <v>20000</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>12/06/2017</t>
+          <t>20/06/2017</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132387119&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132472307&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Remodelación Estadio Fiscal de San Felipe</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana".</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1778,30 +1778,30 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Instituto Nacional de Deportes de Chile</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>16614</v>
+        <v>37</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>09/03/2017</t>
+          <t>12/06/2017</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132209396&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132387119&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Empréstito Cerro El Mauco</t>
+          <t>Remodelación Estadio Fiscal de San Felipe</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,25 +1831,25 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>OHL AUSTRAL S.A</t>
+          <t>Instituto Nacional de Deportes de Chile</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>7265</v>
+        <v>16614</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>08/02/2017</t>
+          <t>09/03/2017</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132131301&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132209396&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
+          <t>Empréstito Cerro El Mauco</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1874,20 +1874,20 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A</t>
+          <t>OHL AUSTRAL S.A</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>37</v>
+        <v>7265</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>30/01/2017</t>
+          <t>08/02/2017</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132131301&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Habilitación de un módulo para acopio de material terreo en el CTI - La Hormiga</t>
+          <t>"Distribución de Anhídrido Sulfuroso entre las Regiones V, VI, VII, VIII y Metropolitana"</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1922,30 +1922,30 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Servicios GEA Ltda.</t>
+          <t>SULFOQUIM S.A</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>922</v>
+        <v>37</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>20/10/2016</t>
+          <t>30/01/2017</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131882867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131965429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>PROYECTO FOTOVOLTAICO ENCON SOLAR</t>
+          <t>Habilitación de un módulo para acopio de material terreo en el CTI - La Hormiga</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,25 +1975,25 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Loa Solar SPA</t>
+          <t>Servicios GEA Ltda.</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>15300</v>
+        <v>922</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>23/12/2015</t>
+          <t>20/10/2016</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131012494&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131882867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Extracción Mecanizada de Áridos Río Aconcagua, Proyecto Camino Internacional Ruta 60CH Sector 1 Tramo 2 Variante Panquehue</t>
+          <t>PROYECTO FOTOVOLTAICO ENCON SOLAR</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,15 +2023,15 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>OHL AUSTRAL S.A</t>
+          <t>Loa Solar SPA</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>10000</v>
+        <v>15300</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>21/09/2015</t>
+          <t>23/12/2015</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130761962&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131012494&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Extracción Mecanizada de Áridos Río Aconcagua, Proyecto Camino Internacional Ruta 60CH Sector 1 Tramo 2 Variante Panquehue</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2066,30 +2066,30 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>OHL AUSTRAL S.A</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>26/01/2015</t>
+          <t>21/09/2015</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130761962&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>26/12/2014</t>
+          <t>26/01/2015</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130159203&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,25 +2167,25 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>10</v>
+        <v>5000</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>24/12/2014</t>
+          <t>26/12/2014</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130076569&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Planta Depuradora de Aguas SANTIS FRUT LTDA.</t>
+          <t>Modificación Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2210,30 +2210,30 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Omar Peter Santisteban Alejos</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>22/12/2014</t>
+          <t>24/12/2014</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129814159&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130065702&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Planta Depuradora de Aguas SANTIS FRUT LTDA.</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2258,20 +2258,20 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Omar Peter Santisteban Alejos</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>5000</v>
+        <v>300</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>20/11/2014</t>
+          <t>22/12/2014</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129814159&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Centro de Manejo y Estabilización de Lodos Secundarios, Empresa Conservera Pentzke S.A.</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2306,30 +2306,30 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Conservera Pentzke S.A.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>160</v>
+        <v>5000</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>18/11/2014</t>
+          <t>20/11/2014</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129892252&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129965016&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
+          <t>Centro de Manejo y Estabilización de Lodos Secundarios, Empresa Conservera Pentzke S.A.</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2354,30 +2354,30 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Conservera Pentzke S.A.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>6750</v>
+        <v>160</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>13/11/2014</t>
+          <t>18/11/2014</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129892252&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Modificación Transporte y Logística Interregional de Cargas y/o Sustancias Peligrosas.</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,25 +2407,25 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>5000</v>
+        <v>6750</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>05/11/2014</t>
+          <t>13/11/2014</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129725840&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Planta Procesadora de Frutas Secas - Profrusec S.A.</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2450,30 +2450,30 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Procesadora de Frutas Secas S.A.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>14/10/2014</t>
+          <t>05/11/2014</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129869574&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129895680&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Centro de Manejo Y Estabilización de Lodos Secundarios. Empresa Conservera Pentzke S.A.</t>
+          <t>Planta Procesadora de Frutas Secas - Profrusec S.A.</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,25 +2503,25 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Conservera Pentzke S.A.</t>
+          <t>Procesadora de Frutas Secas S.A.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>160</v>
+        <v>2000</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>22/09/2014</t>
+          <t>14/10/2014</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129817865&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129869574&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Planta Procesadora de Frutas Secas - Profusec S.A.</t>
+          <t>Centro de Manejo Y Estabilización de Lodos Secundarios. Empresa Conservera Pentzke S.A.</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,15 +2551,15 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Procesadora de Frutas Secas S.A.</t>
+          <t>Conservera Pentzke S.A.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2000</v>
+        <v>160</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>09/09/2014</t>
+          <t>22/09/2014</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129766998&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129817865&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Centro de Manejo y Estabilización de Lodos Secundarios, Empresa Conservera Pentzke S.A.</t>
+          <t>Planta Procesadora de Frutas Secas - Profusec S.A.</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,15 +2599,15 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Conservera Pentzke S.A.</t>
+          <t>Procesadora de Frutas Secas S.A.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>160</v>
+        <v>2000</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>19/08/2014</t>
+          <t>09/09/2014</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129701711&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129766998&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>TRANSPORTES DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Centro de Manejo y Estabilización de Lodos Secundarios, Empresa Conservera Pentzke S.A.</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2642,30 +2642,30 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Conservera Pentzke S.A.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>17000</v>
+        <v>160</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>08/08/2014</t>
+          <t>19/08/2014</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129696857&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129701711&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>TRANSPORTES DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2703,17 +2703,17 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>24/07/2014</t>
+          <t>08/08/2014</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129649559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129696857&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS REGIONES XV, I, II, III, IV, V, VI, VII, VIII, RM, TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,15 +2743,15 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>5000</v>
+        <v>17000</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>30/06/2014</t>
+          <t>24/07/2014</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129649559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Extracción mecanizada de áridos y mejoramiento del rio Aconcagua proyecto camino internacional ruta 60 CH sector 1 tramo 2 variante Panquehue</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y No Peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2786,30 +2786,30 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>OHL Austral S.A</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>04/04/2014</t>
+          <t>30/06/2014</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129299233&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129237859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Defensas Fluviales Tramos 6 y 7 Comunas de Panquehue y San Felipe de la Ruta 60 CH</t>
+          <t>Extracción mecanizada de áridos y mejoramiento del rio Aconcagua proyecto camino internacional ruta 60 CH sector 1 tramo 2 variante Panquehue</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,25 +2839,25 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Sociedad Concesionaria Autopista De Los Andes S.A.</t>
+          <t>OHL Austral S.A</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>32775</v>
+        <v>13000</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>12/03/2014</t>
+          <t>04/04/2014</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129320274&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129299233&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
+          <t>Defensas Fluviales Tramos 6 y 7 Comunas de Panquehue y San Felipe de la Ruta 60 CH</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2882,30 +2882,30 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>VERATRANS SPA</t>
+          <t>Sociedad Concesionaria Autopista De Los Andes S.A.</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>800</v>
+        <v>32775</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>12/03/2014</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129320274&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Planta Procesadora de Frutas Secas - Profusec S.A.</t>
+          <t>Transporte de Residuos Peligrosos y No Peligrosos</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2930,16 +2930,16 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Procesadora de Frutas Secas S.A.</t>
+          <t>VERATRANS SPA</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>2000</v>
+        <v>800</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2948,12 +2948,12 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952263&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128959410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Planta Procesadora de Frutas Secas - Profusec S.A.</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2978,16 +2978,16 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Procesadora de Frutas Secas S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2996,12 +2996,12 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952263&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Planta Procesadora de Frutas Secas - Profusec S.A.</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3026,30 +3026,30 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Procesadora de Frutas Secas S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2000</v>
+        <v>1200</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>12/12/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128861297&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
+          <t>Planta Procesadora de Frutas Secas - Profusec S.A.</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3074,20 +3074,20 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>KDM Industrial S.A.</t>
+          <t>Procesadora de Frutas Secas S.A.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>08/11/2013</t>
+          <t>12/12/2013</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128861297&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSALTISA CHILE LTDA</t>
+          <t>Transporte Terrestre de Residuos Peligrosos y no peligrosos entre las Regiones XV y X</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,25 +3127,25 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>KDM Industrial S.A.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>2050</v>
+        <v>5000</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>19/07/2013</t>
+          <t>08/11/2013</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8365483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128788354&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS, TRANSALTISA CHILE LTDA</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,15 +3175,15 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>2050</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>21/06/2013</t>
+          <t>19/07/2013</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8365483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,25 +3223,25 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>2050</v>
+        <v>0</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>31/05/2013</t>
+          <t>21/06/2013</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,25 +3271,25 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>250</v>
+        <v>2050</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>31/05/2013</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3327,17 +3327,17 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3375,7 +3375,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,25 +3415,25 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>TRANSPORTES VERASAY SPA.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>1500</v>
+        <v>250</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>22/02/2013</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Aumento de la Capacidad de Procesamiento, Optimización de Planta Bellavista y Ampliación de Embalse de Relave</t>
+          <t>Ampliación Del Transporte Inter-Regional Terrestre De Sustancias Peligrosas</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3458,20 +3458,20 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>minera clarita chile s.a</t>
+          <t>TRANSPORTES VERASAY SPA.</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>31/10/2012</t>
+          <t>22/02/2013</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7439753&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7906984&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>BODEGAS DE CAL SAN FELIPE</t>
+          <t>Aumento de la Capacidad de Procesamiento, Optimización de Planta Bellavista y Ampliación de Embalse de Relave</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,15 +3511,15 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Transportes Servired Ltda</t>
+          <t>minera clarita chile s.a</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>24/09/2012</t>
+          <t>31/10/2012</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7269881&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7439753&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>"Estacionamientos Subterráneos y Superficie, Plaza de Armas de San Felipe"</t>
+          <t>BODEGAS DE CAL SAN FELIPE</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,25 +3559,25 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Sociedad Concesionaria de Estacionamientos de San Felipe</t>
+          <t>Transportes Servired Ltda</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>9500</v>
+        <v>1000</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>28/08/2012</t>
+          <t>24/09/2012</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7270812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7269881&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
+          <t>"Estacionamientos Subterráneos y Superficie, Plaza de Armas de San Felipe"</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3602,30 +3602,30 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
+          <t>Sociedad Concesionaria de Estacionamientos de San Felipe</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>15000</v>
+        <v>9500</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>31/07/2012</t>
+          <t>28/08/2012</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7270812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>"TRANSPORTE INTERREGIONAL DE ÓXIDO DE CALCIO"</t>
+          <t>TRANSPORTE Y LOGÍSTICA INTERREGIONAL DE CARGAS Y/O SUSTANCIAS PELIGROSAS</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,15 +3655,15 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>SOCIEDAD DEPETRIS DEFLORIAN HERMANOS LTDA.</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>706</v>
+        <v>15000</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>10/07/2012</t>
+          <t>31/07/2012</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7094187&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7146495&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>SiSTEMA DE TRATAMIENTO Y DISPOSICIÓN DE RILES DE CARTER FRUITS AGROINDUSTRIAL S.A</t>
+          <t>"TRANSPORTE INTERREGIONAL DE ÓXIDO DE CALCIO"</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3698,20 +3698,20 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>CARTER FRUITS AGROINDUSTRIAL S.A</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>50</v>
+        <v>706</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>03/07/2012</t>
+          <t>10/07/2012</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7072163&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7094187&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO Y DISPOSICIÓN DE RILES DE CARTER FRUITS AGROINDUSTRIAL S.A</t>
+          <t>SiSTEMA DE TRATAMIENTO Y DISPOSICIÓN DE RILES DE CARTER FRUITS AGROINDUSTRIAL S.A</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3759,17 +3759,17 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>22/06/2012</t>
+          <t>03/07/2012</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7034845&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7072163&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Óxido de Calcio</t>
+          <t>SISTEMA DE TRATAMIENTO Y DISPOSICIÓN DE RILES DE CARTER FRUITS AGROINDUSTRIAL S.A</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3794,20 +3794,20 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Transporte Calidra Limitada</t>
+          <t>CARTER FRUITS AGROINDUSTRIAL S.A</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>706</v>
+        <v>50</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>20/06/2012</t>
+          <t>22/06/2012</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7034845&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
+          <t>Transporte Interregional de Óxido de Calcio</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,15 +3847,15 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>KDM SERVICIOS S.A.</t>
+          <t>Transporte Calidra Limitada</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>5000</v>
+        <v>706</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>16/05/2012</t>
+          <t>20/06/2012</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6973561&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO Y DISPOSICIÓN DE RILES DE CARTER FRUITS AGROINDUSTRIAL S.A</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS Y NO PELIGROSOS ENTRE LAS REGIONES XV Y X</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3890,20 +3890,20 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>CARTER FRUITS AGROINDUSTRIAL S.A</t>
+          <t>KDM SERVICIOS S.A.</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>50</v>
+        <v>5000</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>04/05/2012</t>
+          <t>16/05/2012</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6866711&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6888046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
+          <t>SISTEMA DE TRATAMIENTO Y DISPOSICIÓN DE RILES DE CARTER FRUITS AGROINDUSTRIAL S.A</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3938,20 +3938,20 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>CARTER FRUITS AGROINDUSTRIAL S.A</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>27/03/2012</t>
+          <t>04/05/2012</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6866711&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS TRANSPORTES TMS</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,15 +3991,15 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>27/03/2012</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6723285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>"Manejo Integral de Residuos Orgánicos Mediante Sistema de Compostaje"</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4034,30 +4034,30 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Conservera Pentzke S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>17/02/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6616804&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Manejo Integral de Residuos Orgánicos Mediante Sistema de Compostaje</t>
+          <t>"Manejo Integral de Residuos Orgánicos Mediante Sistema de Compostaje"</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4095,17 +4095,17 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>14/02/2012</t>
+          <t>17/02/2012</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6571052&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6616804&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Manejo Integral de Residuos Orgánicos Mediante Sistema de Compostaje</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4130,20 +4130,20 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Conservera Pentzke S.A.</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>13/01/2012</t>
+          <t>14/02/2012</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6571052&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,15 +4183,15 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>13/01/2012</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>PLANTA DE TRATAMIENTO DE RILES NEW AGRA</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4226,30 +4226,30 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>AGROINDUSTRIA NEW AGRA LIMITADA</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>22/12/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6391483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
+          <t>PLANTA DE TRATAMIENTO DE RILES NEW AGRA</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4274,30 +4274,30 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>AGROINDUSTRIA NEW AGRA LIMITADA</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>21/11/2011</t>
+          <t>22/12/2011</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6391483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos</t>
+          <t>Transportes de Sustancias Quimicas entre la XV y la X region</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4327,15 +4327,15 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Transportes Alcayaga y Rovira Ltda.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>08/11/2011</t>
+          <t>21/11/2011</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6183206&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6291084&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>Transporte de Residuos Industriales Peligrosos</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,15 +4375,15 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Transportes Alcayaga y Rovira Ltda.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>319</v>
+        <v>200</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>04/10/2011</t>
+          <t>08/11/2011</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -4393,7 +4393,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6183206&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>"Transporte de Cal Viva"</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,25 +4423,25 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Transportes Servired Ltda</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>9000</v>
+        <v>319</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>30/05/2011</t>
+          <t>04/10/2011</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5670904&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
+          <t>"Transporte de Cal Viva"</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4479,17 +4479,17 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>11/05/2011</t>
+          <t>30/05/2011</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5670904&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
+          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,25 +4519,25 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Gestión Ambiental Limitada</t>
+          <t>Transportes Servired Ltda</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>250</v>
+        <v>9000</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>27/04/2011</t>
+          <t>11/05/2011</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
+          <t>Ampliación de rutas para el servicio de transporte, reciclaje y gestión de residuos industriales .</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4575,17 +4575,17 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>15/04/2011</t>
+          <t>27/04/2011</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5540550&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
+          <t>Ampliacion de rutas para el transporte, reciclaje y gestión de residuos industriales. .</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4615,25 +4615,25 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Enaex Servicios S.A.</t>
+          <t>Gestión Ambiental Limitada</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>12000</v>
+        <v>250</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>14/04/2011</t>
+          <t>15/04/2011</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5537784&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5532880&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4671,17 +4671,17 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>29/03/2011</t>
+          <t>14/04/2011</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5485763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5537784&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas y Residuos Peligrosos entre la XV Región de Arica y Parinacota hasta la VI Región del Libertador General Bernardo O'Higgins y la XIII Región Metropolitana de Santiago</t>
+          <t>Transporte de Sustancias Peligrosas Enaex Servicios S.A</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,25 +4711,25 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>Enaex Servicios S.A.</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>5042</v>
+        <v>12000</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>24/03/2011</t>
+          <t>29/03/2011</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5460886&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5485763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES Y XIII REGION METROPOLITANA TRANSPORTE DE SUSTANCIAS PELGROSAS Y RESIDUOS PEL</t>
+          <t>Transporte de Sustancias Peligrosas y Residuos Peligrosos entre la XV Región de Arica y Parinacota hasta la VI Región del Libertador General Bernardo O'Higgins y la XIII Región Metropolitana de Santiago</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4767,17 +4767,17 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>07/03/2011</t>
+          <t>24/03/2011</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5413116&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5460886&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION METROPOLITANA .</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES Y XIII REGION METROPOLITANA TRANSPORTE DE SUSTANCIAS PELGROSAS Y RESIDUOS PEL</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4811,11 +4811,11 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>4800</v>
+        <v>5042</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>09/02/2011</t>
+          <t>07/03/2011</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -4825,7 +4825,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5103366&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5413116&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION METROPOLITANA .</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,15 +4855,15 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>19000</v>
+        <v>4800</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>01/12/2010</t>
+          <t>09/02/2011</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -4873,7 +4873,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5062785&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5103366&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4907,11 +4907,11 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>17700</v>
+        <v>19000</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>28/09/2010</t>
+          <t>01/12/2010</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4949829&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5062785&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Ampliación N°2 de Capacidad Autorizada para el Transporte de Ácido Sulfúrico e Incorporación de Nuevas Rutas</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,15 +4951,15 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>4800</v>
+        <v>17700</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>24/09/2010</t>
+          <t>28/09/2010</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -4969,7 +4969,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4949829&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,11 +4999,11 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -5012,12 +5012,12 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5047,15 +5047,15 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>1750</v>
+        <v>563</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>23/08/2010</t>
+          <t>24/09/2010</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -5065,7 +5065,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4865154&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5103,17 +5103,17 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>11/08/2010</t>
+          <t>23/08/2010</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4865154&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,25 +5143,25 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>300</v>
+        <v>1750</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>11/08/2010</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4830461&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,25 +5191,25 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>1750</v>
+        <v>300</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>07/06/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribucion de anhídrido Sulfuroso Planta camino Putaendo</t>
+          <t>Transporte Terrestre de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5239,15 +5239,15 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Trefrut Ltda</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>20</v>
+        <v>1750</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>13/05/2010</t>
+          <t>07/06/2010</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4565010&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4587739&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
+          <t>Almacenamiento y Distribucion de anhídrido Sulfuroso Planta camino Putaendo</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5287,25 +5287,25 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Trefrut Ltda</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>4050</v>
+        <v>20</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>03/05/2010</t>
+          <t>13/05/2010</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4565010&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de Residuos Peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5335,15 +5335,15 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>250</v>
+        <v>4050</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>26/04/2010</t>
+          <t>03/05/2010</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -5353,7 +5353,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4550567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,25 +5383,25 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>4050</v>
+        <v>250</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>24/03/2010</t>
+          <t>26/04/2010</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4509429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos, Transportes Bello</t>
+          <t>Transporte de Residuos Peligroso, Transporte Bello</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5439,7 +5439,7 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>18/02/2010</t>
+          <t>24/03/2010</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -5449,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4455518&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
+          <t>Transporte de residuos peligrosos, Transportes Bello</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,25 +5479,25 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>250</v>
+        <v>4050</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>10/02/2010</t>
+          <t>18/02/2010</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4348527&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Distribución y almacenamiento de Anhídrido Sulfuroso Planta Camino Putaendo</t>
+          <t>Transporte Interregional de Residuos Industriales Peligrosos y No Peligrosos entre Arica y Puerto Montt</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5527,25 +5527,25 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Trefrut Ltda</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>09/02/2010</t>
+          <t>10/02/2010</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4370207&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4352324&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>Distribución y almacenamiento de Anhídrido Sulfuroso Planta Camino Putaendo</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5575,25 +5575,25 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Trefrut Ltda</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>09/02/2010</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4370207&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,7 +5623,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F110" t="n">
@@ -5636,12 +5636,12 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5679,17 +5679,17 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>15/01/2010</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,25 +5719,25 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Transportes TREPE Ltda.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>08/01/2010</t>
+          <t>15/01/2010</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4323619&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias toxicas entre la II y VI region (incluye V region y region Metropolitana) (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos entre la Región de Arica y Parinacota y la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,25 +5767,25 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Portland S.A.</t>
+          <t>Transportes TREPE Ltda.</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>1</v>
+        <v>350</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>30/12/2009</t>
+          <t>08/01/2010</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4277546&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4303679&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
+          <t>Transporte terrestre de sustancias toxicas entre la II y VI region (incluye V region y region Metropolitana) (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5815,15 +5815,15 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Portland S.A.</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>30/11/2009</t>
+          <t>30/12/2009</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -5833,7 +5833,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4277546&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5863,25 +5863,25 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>15/10/2009</t>
+          <t>30/11/2009</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4224783&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5919,7 +5919,7 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>23/09/2009</t>
+          <t>15/10/2009</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -5929,7 +5929,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4108064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5967,17 +5967,17 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>18/08/2009</t>
+          <t>23/09/2009</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4063042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,15 +6007,15 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>22</v>
+        <v>250</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>18/08/2009</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -6025,7 +6025,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,25 +6055,25 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>300</v>
+        <v>22</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>30/10/2008</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6103,25 +6103,25 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>1750</v>
+        <v>300</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>29/10/2008</t>
+          <t>30/10/2008</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3313847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,25 +6151,25 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>250</v>
+        <v>1750</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>29/10/2008</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3311398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6207,7 +6207,7 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -6217,7 +6217,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6247,25 +6247,25 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F123" t="n">
-        <v>1750</v>
+        <v>250</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>30/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6295,25 +6295,25 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>20</v>
+        <v>1750</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>16/09/2008</t>
+          <t>30/09/2008</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,25 +6343,25 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>250</v>
+        <v>20</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>16/09/2008</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3192496&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas, Transporte Cinco (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6391,25 +6391,25 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Transportes Cinco Limitada</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F126" t="n">
-        <v>3408</v>
+        <v>250</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>18/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3111632&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas, Transporte Cinco (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6439,25 +6439,25 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Transportes Cinco Limitada</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>20</v>
+        <v>3408</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>18/08/2008</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3111632&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6495,17 +6495,17 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6535,25 +6535,25 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Cavilolén S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>500</v>
+        <v>20</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>10/06/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Proyecto Educativo, Universidad de Viña del Mar, Sede San Felipe (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES. (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6578,30 +6578,30 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>José Ignacio Martínez Bengoa</t>
+          <t>Sociedad de Transportes Cavilolén S.A.</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>1903</v>
+        <v>500</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>05/06/2008</t>
+          <t>10/06/2008</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2942321&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2946701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Proyecto Educativo, Universidad de Viña del Mar, Sede San Felipe (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6626,20 +6626,20 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>José Ignacio Martínez Bengoa</t>
         </is>
       </c>
       <c r="F131" t="n">
-        <v>20</v>
+        <v>1903</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>30/05/2008</t>
+          <t>05/06/2008</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -6649,7 +6649,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2942321&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,36 +6664,40 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>CENTRO DE TRATAMIENTO INTEGRAL DE RESIDUOS SOLIDOS LA HORMIGA</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr"/>
+          <t>transporte de residuos peligrosos (e-seia)</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Servicios GEA Ltda.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>5800</v>
+        <v>20</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>15/05/2008</t>
+          <t>30/05/2008</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2904946&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6727,17 +6731,17 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>17/04/2008</t>
+          <t>15/05/2008</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2850926&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2904946&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6752,40 +6756,36 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
+          <t>CENTRO DE TRATAMIENTO INTEGRAL DE RESIDUOS SOLIDOS LA HORMIGA</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr"/>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Servicios GEA Ltda.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>1750</v>
+        <v>5800</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>26/02/2008</t>
+          <t>17/04/2008</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2680876&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2850926&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6800,7 +6800,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6815,25 +6815,25 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>429</v>
+        <v>1750</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>02/11/2007</t>
+          <t>26/02/2008</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2680876&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6848,7 +6848,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Transporte Trans Regional Terrestre de Residuos Industriales (e-seia)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6863,25 +6863,25 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Inmobiliaria e Inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F136" t="n">
-        <v>234</v>
+        <v>429</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>02/11/2007</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2474976&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6896,7 +6896,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6911,15 +6911,15 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -6929,7 +6929,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6944,7 +6944,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6959,15 +6959,15 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -6977,7 +6977,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -6992,7 +6992,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Planta depuradora de aguas Conservera Pentzke S.A. (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7002,30 +7002,30 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Empresa de Alimentos y Conservas San Clemente SpA</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>3000</v>
+        <v>300</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>06/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2191252&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7055,7 +7055,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Conservera Pentzke S.A.</t>
+          <t>Empresa de Alimentos y Conservas San Clemente SpA</t>
         </is>
       </c>
       <c r="F140" t="n">
@@ -7063,17 +7063,17 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>30/05/2007</t>
+          <t>06/06/2007</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2179720&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2191252&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7088,7 +7088,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Líquidos de Planta San Felipe Dole Chile S.A. (e-seia)</t>
+          <t>Planta depuradora de aguas Conservera Pentzke S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7103,25 +7103,25 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Dole Chile S.A</t>
+          <t>Conservera Pentzke S.A.</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>10</v>
+        <v>3000</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>11/04/2007</t>
+          <t>30/05/2007</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2099658&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2179720&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7136,7 +7136,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Líquidos de Planta San Felipe Dole Chile S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7146,30 +7146,30 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Empresa de Residuos RESITER S.A.</t>
+          <t>Dole Chile S.A</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>16/03/2007</t>
+          <t>11/04/2007</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2099658&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7184,7 +7184,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región, incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7203,21 +7203,21 @@
         </is>
       </c>
       <c r="F143" t="n">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>13/02/2007</t>
+          <t>16/03/2007</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2049917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7232,7 +7232,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos desde la Primera a la Décima Región incluyendo la Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7247,25 +7247,25 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Empresa de Residuos RESITER S.A.</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>13/02/2007</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1984174&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7280,7 +7280,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7303,17 +7303,17 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7328,7 +7328,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7343,25 +7343,25 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7376,7 +7376,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las regiones I, II, III, IV, VII y Región Metropolitana (e-seia)</t>
+          <t>Transporte Terrestre en Camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X (e-seia)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7391,7 +7391,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F147" t="n">
@@ -7399,17 +7399,17 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>22/11/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1821133&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1852126&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7424,7 +7424,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las regiones I, II, III, IV, VII y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7439,7 +7439,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F148" t="n">
@@ -7447,17 +7447,17 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>10/11/2006</t>
+          <t>22/11/2006</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1821133&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7472,7 +7472,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, VI, VII y RM, "Transportes Bello" (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7487,7 +7487,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F149" t="n">
@@ -7495,17 +7495,17 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>02/11/2006</t>
+          <t>10/11/2006</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773812&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7520,7 +7520,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, VI, VII y RM, "Transportes Bello" (e-seia)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7535,7 +7535,7 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F150" t="n">
@@ -7543,7 +7543,7 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>25/10/2006</t>
+          <t>02/11/2006</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -7553,7 +7553,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1773812&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7568,7 +7568,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
+          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7583,15 +7583,15 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Trans-residuos</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>28/09/2006</t>
+          <t>25/10/2006</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -7601,7 +7601,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7616,40 +7616,40 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Defensas Fluviales Río Aconcagua para camino Internacional Ruta 60 Ch Sector 1 Los Andes - Panquehue V Región</t>
+          <t>Transporte de Residuos industrial por las rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Sociedad Concesionaria Autopista Los Andes S.A</t>
+          <t>Empresa de Transportes Trans-residuos</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>06/09/2006</t>
+          <t>28/09/2006</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1701224&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1726867&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7664,30 +7664,30 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
+          <t>Defensas Fluviales Río Aconcagua para camino Internacional Ruta 60 Ch Sector 1 Los Andes - Panquehue V Región</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
+          <t>Sociedad Concesionaria Autopista Los Andes S.A</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>09/08/2006</t>
+          <t>06/09/2006</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -7697,7 +7697,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1701224&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7712,40 +7712,40 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Defensas Fluviales Río Aconcagua para camino Internacional Ruta 60 CH Sector 1 Los Andes - Panquehue V Región</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Sociedad Concesionaria Autopista Los Andes S.A</t>
+          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>20000</v>
+        <v>80</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>23/06/2006</t>
+          <t>09/08/2006</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1485343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7760,40 +7760,40 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
+          <t>Defensas Fluviales Río Aconcagua para camino Internacional Ruta 60 CH Sector 1 Los Andes - Panquehue V Región</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>mario enrique barra diaz</t>
+          <t>Sociedad Concesionaria Autopista Los Andes S.A</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>80</v>
+        <v>20000</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>22/06/2006</t>
+          <t>23/06/2006</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1485343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7808,7 +7808,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7823,25 +7823,25 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>mario enrique barra diaz</t>
         </is>
       </c>
       <c r="F156" t="n">
-        <v>500</v>
+        <v>80</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>22/06/2006</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7856,7 +7856,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7879,17 +7879,17 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7904,7 +7904,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7919,25 +7919,25 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7952,7 +7952,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>PLAN REGIONAL DE DESARROLLO URBANO Y TERRITORIAL, REGIÓN DE VALPARAÍSO (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7962,30 +7962,30 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>SEREMI de Vivienda y Urbanismo, Región de Valparaíso</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>08/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1331410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8000,7 +8000,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>PLAN REGIONAL DE DESARROLLO URBANO Y TERRITORIAL, REGIÓN DE VALPARAÍSO (e-seia)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8010,30 +8010,30 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>SEREMI de Vivienda y Urbanismo, Región de Valparaíso</t>
         </is>
       </c>
       <c r="F160" t="n">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>08/03/2006</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1331410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8048,7 +8048,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8063,25 +8063,25 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Iris Leiva ALbornoz Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>02/03/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8096,7 +8096,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8111,25 +8111,25 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Degraf Limitada</t>
+          <t>Iris Leiva ALbornoz Ltda.</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>05/01/2006</t>
+          <t>02/03/2006</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8144,7 +8144,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8159,7 +8159,7 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Juan Pablo Pérez Reyes</t>
+          <t>Sociedad Comercial Degraf Limitada</t>
         </is>
       </c>
       <c r="F163" t="n">
@@ -8167,17 +8167,17 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>20/12/2005</t>
+          <t>05/01/2006</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1191395&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8192,7 +8192,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Plan Regional de Desarrollo Urbano y Territorial PRDUT V, Región de Valparaíso (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8202,30 +8202,30 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>SEREMI MINVU V REGIÓN</t>
+          <t>Juan Pablo Pérez Reyes</t>
         </is>
       </c>
       <c r="F164" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>16/12/2005</t>
+          <t>20/12/2005</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1169202&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1068882&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8240,7 +8240,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
+          <t>Plan Regional de Desarrollo Urbano y Territorial PRDUT V, Región de Valparaíso (e-seia)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8250,12 +8250,12 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Transportes Reciclar Limitada</t>
+          <t>SEREMI MINVU V REGIÓN</t>
         </is>
       </c>
       <c r="F165" t="n">
@@ -8263,17 +8263,17 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>12/12/2005</t>
+          <t>16/12/2005</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1150168&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1169202&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8288,7 +8288,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
+          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8303,15 +8303,15 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Transportes Reciclar Limitada</t>
         </is>
       </c>
       <c r="F166" t="n">
-        <v>3517</v>
+        <v>0</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>15/11/2005</t>
+          <t>12/12/2005</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
@@ -8321,7 +8321,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1150168&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -8336,7 +8336,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS A GRANEL DESDE LA I A LA X REGIÓN. (e-seia)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8351,15 +8351,15 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>BATERIAS COSMOS LTDA</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F167" t="n">
-        <v>160</v>
+        <v>3517</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>11/11/2005</t>
+          <t>15/11/2005</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
@@ -8369,7 +8369,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1099726&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -8384,7 +8384,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
+          <t>TRANSPORTE DE PLOMO, RESIDUOS PLOMADOS Y OTROS RESIDUOS PELIGROSOS 053562 (e-seia)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8399,25 +8399,25 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
+          <t>BATERIAS COSMOS LTDA</t>
         </is>
       </c>
       <c r="F168" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>03/11/2005</t>
+          <t>11/11/2005</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1102933&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -8432,7 +8432,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
+          <t>Transporte de Productos Industriales por las Regiones I, II, III, IV, V, VI y Región Metropolitana (e-seia)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -8447,7 +8447,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Proactiva Servicios Industriales S.A.</t>
+          <t>Industria Proveedora de Partes Metalurgicas Ltda.</t>
         </is>
       </c>
       <c r="F169" t="n">
@@ -8455,17 +8455,17 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>28/10/2005</t>
+          <t>03/11/2005</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1088529&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -8480,7 +8480,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -8495,15 +8495,15 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Transportes Santa María S.A.</t>
+          <t>Proactiva Servicios Industriales S.A.</t>
         </is>
       </c>
       <c r="F170" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>08/09/2005</t>
+          <t>28/10/2005</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -8513,7 +8513,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -8528,7 +8528,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
+          <t>Transporte de Residuos y sustancias Peligrosas (e-seia)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -8543,15 +8543,15 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Transportes Transver Ltda.</t>
+          <t>Transportes Santa María S.A.</t>
         </is>
       </c>
       <c r="F171" t="n">
-        <v>855</v>
+        <v>200</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>19/04/2005</t>
+          <t>08/09/2005</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
@@ -8561,7 +8561,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1001310&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -8591,7 +8591,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
+          <t>Transportes Transver Ltda.</t>
         </is>
       </c>
       <c r="F172" t="n">
@@ -8599,17 +8599,17 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>31/03/2005</t>
+          <t>19/04/2005</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=651975&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -8624,7 +8624,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Fabrica de Cerámicos Diamant S.A. (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS Y SUSTANCIAS PELIGROSAS EN CARGA PLANA POR CALLES Y CAMINOS DE CHILE (e-seia)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8634,30 +8634,30 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Ceramicas Diamant S. A.</t>
+          <t>sociedad de transportes pablo y bernardino vergara ltda</t>
         </is>
       </c>
       <c r="F173" t="n">
-        <v>12000</v>
+        <v>855</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>07/02/2005</t>
+          <t>31/03/2005</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=591640&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=644088&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -8672,7 +8672,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
+          <t>Fabrica de Cerámicos Diamant S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8682,20 +8682,20 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Empresa de Transportes Los Ríos S.A.</t>
+          <t>Ceramicas Diamant S. A.</t>
         </is>
       </c>
       <c r="F174" t="n">
-        <v>1</v>
+        <v>12000</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>08/11/2004</t>
+          <t>07/02/2005</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -8705,7 +8705,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=591640&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -8720,7 +8720,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
+          <t>Transporte terrestre de residuos industriales y productos asimilables por caminos que se indican de la I a la X Región (e-seia)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8735,15 +8735,15 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Empresa de Transportes Los Ríos S.A.</t>
         </is>
       </c>
       <c r="F175" t="n">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>21/06/2004</t>
+          <t>08/11/2004</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
@@ -8753,7 +8753,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377075&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=502823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -8768,7 +8768,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas Curimon (e-seia)</t>
+          <t>Transporte de Plaguicidas y Artefactos Contaminados o que Contienen Bifenilospoliclorados (PCB) (e-seia)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8778,20 +8778,20 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>ESVAL S.A.</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F176" t="n">
-        <v>993</v>
+        <v>200</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>10/05/2004</t>
+          <t>21/06/2004</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
@@ -8801,7 +8801,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=345465&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=377075&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -8816,7 +8816,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
+          <t>Planta de Tratamiento de Aguas Servidas Curimon (e-seia)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -8826,20 +8826,20 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>ESVAL S.A.</t>
         </is>
       </c>
       <c r="F177" t="n">
-        <v>200</v>
+        <v>993</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>09/09/2003</t>
+          <t>10/05/2004</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -8849,7 +8849,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=345465&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -8864,7 +8864,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Instalaciones Agroindustrial Agrícola Santis Frut</t>
+          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -8874,30 +8874,30 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Agrícola Santis Frut Ltda.</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F178" t="n">
-        <v>440</v>
+        <v>200</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>10/03/2003</t>
+          <t>09/09/2003</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Revocado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6222&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -8912,7 +8912,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre la I y la VI Región</t>
+          <t>Instalaciones Agroindustrial Agrícola Santis Frut</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8922,30 +8922,30 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Transportes Molina Limitada</t>
+          <t>Agrícola Santis Frut Ltda.</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>0</v>
+        <v>440</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>07/02/2003</t>
+          <t>10/03/2003</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Revocado</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6186&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6222&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8960,7 +8960,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de sustancias tóxicas entre la II y VI Región (incluye la V Región y Región Metropolitana)</t>
+          <t>Transporte de Sustancias Peligrosas entre la I y la VI Región</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8975,15 +8975,15 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>OXIQUIM S.A.</t>
+          <t>Transportes Molina Limitada</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>31/01/2003</t>
+          <t>07/02/2003</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
@@ -8993,7 +8993,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6180&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6186&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -9008,7 +9008,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Transporte de Explosivos Accesorios y Materias Primas Usadas en Tronaduras de la Minería y Obras Civiles</t>
+          <t>Transporte Terrestre de sustancias tóxicas entre la II y VI Región (incluye la V Región y Región Metropolitana)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9023,15 +9023,15 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Explonor S.A.</t>
+          <t>OXIQUIM S.A.</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>18/12/2002</t>
+          <t>31/01/2003</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
@@ -9041,7 +9041,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6128&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6180&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9056,7 +9056,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
+          <t>Transporte de Explosivos Accesorios y Materias Primas Usadas en Tronaduras de la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9071,15 +9071,15 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Transportes Paniagua</t>
+          <t>Explonor S.A.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>18/11/2002</t>
+          <t>18/12/2002</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
@@ -9089,7 +9089,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6128&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9104,7 +9104,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
+          <t>Transporte de Accesorios y Explosivos de Tronadura Usados en la Minería y Obras Civiles</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9119,11 +9119,11 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>CYTEC CHILE LIMITADA</t>
+          <t>Transportes Paniagua</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9132,12 +9132,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6007&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9152,7 +9152,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento Biológico de Residuos Orgánicos</t>
+          <t>Transporte de colectores alternativos usados en la flotación de minerales</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9162,30 +9162,30 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Servicios Gea Ltda.</t>
+          <t>CYTEC CHILE LIMITADA</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>17/05/2002</t>
+          <t>18/11/2002</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6031&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9200,7 +9200,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Acido Sulfúrico En y Entre Las Regiones I y VI (Transporte Valdatta S.A.)</t>
+          <t>Planta de Tratamiento Biológico de Residuos Orgánicos</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9210,20 +9210,20 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Transportes Valdatta S.A.</t>
+          <t>Servicios Gea Ltda.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>01/03/2002</t>
+          <t>17/05/2002</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
@@ -9233,7 +9233,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5189&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9248,7 +9248,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Instalaciones Agroindustrial Planta de Tratamientos de los Residuos Industriales Líquidos de la Planta Industrial Agrícola Santis Frut Ltda.</t>
+          <t>Transporte Terrestre de Acido Sulfúrico En y Entre Las Regiones I y VI (Transporte Valdatta S.A.)</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9258,30 +9258,30 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Agrícola Santis Frut Ltda.</t>
+          <t>Transportes Valdatta S.A.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>490</v>
+        <v>0</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>22/02/2002</t>
+          <t>01/03/2002</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5130&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5189&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -9296,7 +9296,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico en y entre las Regiones I y VI (Transportes Ilzauspe Ltda.)</t>
+          <t>Instalaciones Agroindustrial Planta de Tratamientos de los Residuos Industriales Líquidos de la Planta Industrial Agrícola Santis Frut Ltda.</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9306,30 +9306,30 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Ilzauspe Limitada</t>
+          <t>Agrícola Santis Frut Ltda.</t>
         </is>
       </c>
       <c r="F187" t="n">
-        <v>0</v>
+        <v>490</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>23/11/2001</t>
+          <t>22/02/2002</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4833&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5130&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -9344,7 +9344,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico en y entre las Regiones I y VI (Transportes Ilzauspe Ltda.)</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9359,25 +9359,25 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Sociedad de Transportes Ilzauspe Limitada</t>
         </is>
       </c>
       <c r="F188" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>23/11/2001</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4833&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -9392,7 +9392,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Expendio de Combustible YPF. Camino Casas Chicas de Quilpué</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9402,20 +9402,20 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Empresa de Transportes PUMA S.A.</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>28/08/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
@@ -9425,7 +9425,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9440,40 +9440,40 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Expansión División Andina</t>
+          <t>Expendio de Combustible YPF. Camino Casas Chicas de Quilpué</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Codelco Chile División Andina</t>
+          <t>Empresa de Transportes PUMA S.A.</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>650000</v>
+        <v>30</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>08/06/2001</t>
+          <t>28/08/2001</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3992&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4473&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -9488,30 +9488,30 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Planta de Tratamiento de Aguas Servidas San Felipe</t>
+          <t>Expansión División Andina</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>ESVAL S.A.</t>
+          <t>Codelco Chile División Andina</t>
         </is>
       </c>
       <c r="F191" t="n">
-        <v>5240</v>
+        <v>650000</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>28/03/2001</t>
+          <t>08/06/2001</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
@@ -9521,7 +9521,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3814&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3992&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -9536,7 +9536,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Estación de Servicio YPF - San Felipe - Putaendo</t>
+          <t>Planta de Tratamiento de Aguas Servidas San Felipe</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9551,15 +9551,15 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Inmobiliaria Don Marcos Ltda.</t>
+          <t>ESVAL S.A.</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>420</v>
+        <v>5240</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>28/07/2000</t>
+          <t>28/03/2001</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
@@ -9569,7 +9569,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3046&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3814&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9584,30 +9584,30 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
+          <t>Estación de Servicio YPF - San Felipe - Putaendo</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
+          <t>Inmobiliaria Don Marcos Ltda.</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>3500</v>
+        <v>420</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>24/07/2000</t>
+          <t>28/07/2000</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
@@ -9617,7 +9617,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3052&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3046&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9632,12 +9632,12 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
+          <t>Transporte Terrestre de Acido Sulfúrico en y entre las Regiones I y V y Región Metropolitana</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -9647,15 +9647,15 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
+          <t>TRANSPORTES TAMARUGAL LIMITADA</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>110</v>
+        <v>3500</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>14/02/2000</t>
+          <t>24/07/2000</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -9665,7 +9665,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3052&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9680,7 +9680,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Instalación de Estanques Subterráneos para Autoconsumo de Combustibles Terminal de Taxis Colectivos SINTAXFEL</t>
+          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9690,20 +9690,20 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Sindicato de Trabajadores Independientes de Taxistas Colectivos Línea Uno de San Felipe SINTAXFEL</t>
+          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>13/01/2000</t>
+          <t>14/02/2000</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -9713,7 +9713,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2614&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -9728,7 +9728,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Construcción y Operación del Colegio Inglés Greenland College</t>
+          <t>Instalación de Estanques Subterráneos para Autoconsumo de Combustibles Terminal de Taxis Colectivos SINTAXFEL</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -9743,15 +9743,15 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Inmobiliaria Greenland Limitada</t>
+          <t>Sindicato de Trabajadores Independientes de Taxistas Colectivos Línea Uno de San Felipe SINTAXFEL</t>
         </is>
       </c>
       <c r="F196" t="n">
-        <v>360</v>
+        <v>10</v>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>12/11/1999</t>
+          <t>13/01/2000</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -9761,7 +9761,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2402&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2614&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -9776,7 +9776,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Expendido al Público de Combustible YPF El Molino-San Martín</t>
+          <t>Construcción y Operación del Colegio Inglés Greenland College</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -9791,15 +9791,15 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Gino Marcelo Rossi Villenas</t>
+          <t>Inmobiliaria Greenland Limitada</t>
         </is>
       </c>
       <c r="F197" t="n">
-        <v>60</v>
+        <v>360</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>03/11/1999</t>
+          <t>12/11/1999</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -9809,7 +9809,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2393&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2402&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -9824,7 +9824,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Central de Distribución de Gas Licuado - CURIMON</t>
+          <t>Expendido al Público de Combustible YPF El Molino-San Martín</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -9839,15 +9839,15 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Gas Licuado LIPIGAS S.A.</t>
+          <t>Gino Marcelo Rossi Villenas</t>
         </is>
       </c>
       <c r="F198" t="n">
-        <v>230</v>
+        <v>60</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>21/10/1999</t>
+          <t>03/11/1999</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
@@ -9857,7 +9857,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2352&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2393&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -9872,7 +9872,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Planta de Producción y Venta de Estructuras de Aluminio</t>
+          <t>Central de Distribución de Gas Licuado - CURIMON</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -9887,25 +9887,25 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Vidrios, Aluminios y Marqueteria Maipu Ltda.</t>
+          <t>Gas Licuado LIPIGAS S.A.</t>
         </is>
       </c>
       <c r="F199" t="n">
-        <v>80</v>
+        <v>230</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>26/05/1999</t>
+          <t>21/10/1999</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1982&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2352&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -9920,7 +9920,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
+          <t>Planta de Producción y Venta de Estructuras de Aluminio</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9930,30 +9930,30 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Transcargo Ltda</t>
+          <t>Vidrios, Aluminios y Marqueteria Maipu Ltda.</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>2500</v>
+        <v>80</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>13/04/1999</t>
+          <t>26/05/1999</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1982&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9968,7 +9968,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Sistema de Alcantarillado Sector Punta El Olivo y Loteo Nuevo Algarrobal San Felipe</t>
+          <t>Transporte Terrestre de Ácido Sulfúrico Por Caminos Que Se Indican de la I A La X Región</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9978,20 +9978,20 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de San Felipe</t>
+          <t>Transcargo Ltda</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>470</v>
+        <v>2500</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>27/01/1999</t>
+          <t>13/04/1999</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
@@ -10001,7 +10001,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1637&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10016,7 +10016,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Sistema de Alcantarillado Sector Algarrobal San Felipe</t>
+          <t>Sistema de Alcantarillado Sector Punta El Olivo y Loteo Nuevo Algarrobal San Felipe</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10031,11 +10031,11 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>I. Municipalidad de San Felipe</t>
+          <t>Ilustre Municipalidad de San Felipe</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>850</v>
+        <v>470</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
@@ -10049,7 +10049,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1639&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1637&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10064,7 +10064,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Parque El Almendral de San Felipe</t>
+          <t>Sistema de Alcantarillado Sector Algarrobal San Felipe</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10079,15 +10079,15 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Inmobiliaria Comercial San Felipe Ltda.</t>
+          <t>I. Municipalidad de San Felipe</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>460</v>
+        <v>850</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>16/09/1997</t>
+          <t>27/01/1999</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
@@ -10097,7 +10097,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=101&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1639&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10112,39 +10112,87 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
+          <t>Parque El Almendral de San Felipe</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>Quinta</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>Inmobiliaria Comercial San Felipe Ltda.</t>
+        </is>
+      </c>
+      <c r="F204" t="n">
+        <v>460</v>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>16/09/1997</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=101&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>San Felipe</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>204</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
           <t>Planta de tratamiento de riles provenientes del proceso de la deshidratación de frutos</t>
         </is>
       </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D204" t="inlineStr">
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
         <is>
           <t>Quinta</t>
         </is>
       </c>
-      <c r="E204" t="inlineStr">
+      <c r="E205" t="inlineStr">
         <is>
           <t>Sergio Del Tránsito González León</t>
         </is>
       </c>
-      <c r="F204" t="n">
+      <c r="F205" t="n">
         <v>0</v>
       </c>
-      <c r="G204" t="inlineStr"/>
-      <c r="H204" t="inlineStr">
+      <c r="G205" t="inlineStr"/>
+      <c r="H205" t="inlineStr">
         <is>
           <t>Eliminados</t>
         </is>
       </c>
-      <c r="I204" t="inlineStr">
+      <c r="I205" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2142456377&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J204" t="inlineStr">
+      <c r="J205" t="inlineStr">
         <is>
           <t>San Felipe</t>
         </is>

--- a/data/San Felipe.xlsx
+++ b/data/San Felipe.xlsx
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Planta Procesadora de Frutas Secas - Profusec S.A.</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2978,16 +2978,16 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Procesadora de Frutas Secas S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>2000</v>
+        <v>1200</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2996,12 +2996,12 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952263&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Planta Procesadora de Frutas Secas - Profusec S.A.</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3026,16 +3026,16 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Procesadora de Frutas Secas S.A.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -3044,12 +3044,12 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952263&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,11 +4999,11 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -5012,12 +5012,12 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5047,11 +5047,11 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -5060,12 +5060,12 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">

--- a/data/San Felipe.xlsx
+++ b/data/San Felipe.xlsx
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
+          <t>Planta Procesadora de Frutas Secas - Profusec S.A.</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2978,16 +2978,16 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Quinta</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
+          <t>Procesadora de Frutas Secas S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2996,12 +2996,12 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952263&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Planta Procesadora de Frutas Secas - Profusec S.A.</t>
+          <t>Transporte Interregional de Sustancias Peligrosas - AGREDUCAM VI Región</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3026,16 +3026,16 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Quinta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Procesadora de Frutas Secas S.A.</t>
+          <t>Asociación Gremial de Dueños de Camiones de la Sexta Región</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>2000</v>
+        <v>1200</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -3044,12 +3044,12 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128952263&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128964620&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,11 +4999,11 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -5012,12 +5012,12 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5047,11 +5047,11 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -5060,12 +5060,12 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">

--- a/data/San Felipe.xlsx
+++ b/data/San Felipe.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/12/2023</t>
+          <t>26/12/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
